--- a/network.xlsx
+++ b/network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9139CED-2841-1B40-B48C-D88514E71CEC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{957ABFDF-241A-C24F-A0E4-99E8CF834C08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -325,15 +325,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -348,7 +348,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="2578100" y="673100"/>
+          <a:off x="2654300" y="1422400"/>
           <a:ext cx="3289300" cy="1422400"/>
           <a:chOff x="1816100" y="584200"/>
           <a:chExt cx="3289300" cy="1422400"/>
@@ -1353,8 +1353,8 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>27</xdr:col>
@@ -1375,8 +1375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="330200" y="330200"/>
-          <a:ext cx="8077200" cy="5943600"/>
+          <a:off x="330200" y="889000"/>
+          <a:ext cx="8077200" cy="5384800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1414,14 +1414,14 @@
     <xdr:from>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
       <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1436,7 +1436,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8839200" y="2730500"/>
+          <a:off x="8839200" y="3556000"/>
           <a:ext cx="1117600" cy="825500"/>
         </a:xfrm>
         <a:prstGeom prst="rightArrow">
@@ -1471,9 +1471,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1261884" cy="335541"/>
     <xdr:sp macro="" textlink="">
@@ -1489,7 +1489,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8559800" y="2260600"/>
+          <a:off x="8788400" y="3187700"/>
           <a:ext cx="1261884" cy="335541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1530,14 +1530,14 @@
     <xdr:from>
       <xdr:col>41</xdr:col>
       <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>46</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1552,7 +1552,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12725400" y="2844800"/>
+          <a:off x="12725400" y="3848100"/>
           <a:ext cx="1511300" cy="546100"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -1594,8 +1594,8 @@
     <xdr:from>
       <xdr:col>42</xdr:col>
       <xdr:colOff>165100</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902811" cy="335541"/>
     <xdr:sp macro="" textlink="">
@@ -1611,7 +1611,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12966700" y="2527300"/>
+          <a:off x="12966700" y="3530600"/>
           <a:ext cx="902811" cy="335541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1652,14 +1652,14 @@
     <xdr:from>
       <xdr:col>34</xdr:col>
       <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -1674,7 +1674,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10604500" y="1917700"/>
+          <a:off x="10604500" y="2921000"/>
           <a:ext cx="1460500" cy="2755900"/>
           <a:chOff x="736600" y="3009900"/>
           <a:chExt cx="1460500" cy="2755900"/>
@@ -1957,8 +1957,8 @@
     <xdr:from>
       <xdr:col>35</xdr:col>
       <xdr:colOff>177800</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="902811" cy="335541"/>
     <xdr:sp macro="" textlink="">
@@ -1974,7 +1974,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10845800" y="1600200"/>
+          <a:off x="10845800" y="2603500"/>
           <a:ext cx="902811" cy="335541"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2015,8 +2015,8 @@
     <xdr:from>
       <xdr:col>40</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>165100</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="389081" cy="593304"/>
     <xdr:sp macro="" textlink="">
@@ -2032,7 +2032,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12217400" y="2832100"/>
+          <a:off x="12217400" y="3835400"/>
           <a:ext cx="389081" cy="593304"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2074,14 +2074,14 @@
     <xdr:from>
       <xdr:col>33</xdr:col>
       <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>47</xdr:col>
       <xdr:colOff>139700</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2096,7 +2096,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10274300" y="723900"/>
+          <a:off x="10274300" y="1727200"/>
           <a:ext cx="4191000" cy="4368800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2135,8 +2135,8 @@
     <xdr:from>
       <xdr:col>38</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1415772" cy="509178"/>
     <xdr:sp macro="" textlink="">
@@ -2152,7 +2152,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11645900" y="901700"/>
+          <a:off x="11645900" y="1905000"/>
           <a:ext cx="1415772" cy="509178"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2184,6 +2184,1120 @@
             <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
             <a:t>数字证书</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="54" name="组合 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8D0C8D7-EC68-0343-A66D-76252737ABE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="685800" y="7620000"/>
+          <a:ext cx="1460500" cy="2755900"/>
+          <a:chOff x="736600" y="3009900"/>
+          <a:chExt cx="1460500" cy="2755900"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="55" name="圆角矩形 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B6749D-0F79-9841-B74E-DB77BA98095C}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="736600" y="3009900"/>
+            <a:ext cx="1460500" cy="2755900"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7843"/>
+            </a:avLst>
+          </a:prstGeom>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="l"/>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="56" name="圆角矩形 55">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD86DB3-101E-004C-A383-AD9AB1BF6B98}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="927100" y="3302000"/>
+            <a:ext cx="1079500" cy="431800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7843"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t>公钥</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="57" name="圆角矩形 56">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36F61D3C-47EA-BA46-A31C-75021E721952}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="927100" y="3886200"/>
+            <a:ext cx="1079500" cy="431800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7843"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t>签名算法</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="58" name="圆角矩形 57">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F247FC-DA94-3940-A2E6-65AA89EEC1C5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="927100" y="4470400"/>
+            <a:ext cx="1079500" cy="431800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7843"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t>有效期</a:t>
+            </a:r>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="59" name="圆角矩形 58">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB95E98A-ECAB-0242-A851-848C4A3BF389}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="927100" y="5054600"/>
+            <a:ext cx="1079500" cy="431800"/>
+          </a:xfrm>
+          <a:prstGeom prst="roundRect">
+            <a:avLst>
+              <a:gd name="adj" fmla="val 7843"/>
+            </a:avLst>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent5">
+              <a:lumMod val="40000"/>
+              <a:lumOff val="60000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr"/>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1600"/>
+              <a:t>...</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1600"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="902811" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="60" name="文本框 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2C884FF-88C5-2F47-839F-6D7A9D2B5061}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="927100" y="9017000"/>
+          <a:ext cx="902811" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>证书内容</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="61" name="圆角矩形 60">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6B14A40-2D1A-434B-80F7-DB4367689E71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10820400" y="10439400"/>
+          <a:ext cx="1511300" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7843"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>SXSXSXSXSX</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="902811" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="文本框 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27C6964A-FA47-654F-8C39-2B88A51F7439}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11049000" y="10045700"/>
+          <a:ext cx="902811" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t>证书签名</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="圆角矩形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE93962F-224E-824D-AB07-3C3EDB228A93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9385300" y="10096500"/>
+          <a:ext cx="1079500" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7843"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600"/>
+            <a:t>公钥</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直线箭头连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA073B52-09E5-B041-8284-3550DED048C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="61" idx="1"/>
+          <a:endCxn id="66" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="8928100" y="10712450"/>
+          <a:ext cx="1892300" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="圆角矩形 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16F24BDF-669C-744A-AB0F-6FA2F991C9DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7416800" y="10439400"/>
+          <a:ext cx="1511300" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7843"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>XXXXXXXXXXXX</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="圆角矩形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B0A6707-FB75-9B4F-82E8-E2954E2E9DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3733800" y="10439400"/>
+          <a:ext cx="1511300" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 7843"/>
+          </a:avLst>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>XXXXXXXXXXXX</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="69" name="直线箭头连接符 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5456EE35-51CF-DE43-A5C3-FE1F8E7C3CF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="68" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2146300" y="10712450"/>
+          <a:ext cx="1587500" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="929165" cy="335541"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="文本框 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03B2C757-8E5D-FA41-94C8-61529AD31D5D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2527300" y="10287000"/>
+          <a:ext cx="929165" cy="335541"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>hash</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> 算法</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="82" name="等于 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B16FE6A-CDAE-954E-862E-C4559ECAA09A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5791200" y="10464800"/>
+          <a:ext cx="825500" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="mathEqual">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="541238" cy="1031629"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="84" name="文本框 83">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00DB9EE3-07C7-5941-B611-4F0F9E80FAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6489700" y="10109200"/>
+          <a:ext cx="541238" cy="1031629"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="6000">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>?</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="6000">
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:lumMod val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="85" name="矩形 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F02ABEC-AAA5-D043-AF95-040F3E80943C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="431800" y="8623300"/>
+          <a:ext cx="12166600" cy="4013200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2749471" cy="540533"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="86" name="文本框 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BADD7A3A-EC3F-1D48-9F60-0245D41ABB3E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="8712200"/>
+          <a:ext cx="2749471" cy="540533"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="2000"/>
+            <a:t>验证数据证书的合法性</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2476,8 +3590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F7E32A-6212-6D43-AE36-E16B38687072}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="AN40" sqref="AN40"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="AR45" sqref="AR45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{957ABFDF-241A-C24F-A0E4-99E8CF834C08}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{538CAAA3-64BC-6C45-9648-0CDCD1545EEF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -280,16 +280,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>51</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>233948</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>78</xdr:col>
+      <xdr:col>77</xdr:col>
       <xdr:colOff>273050</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:row>90</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -312,7 +312,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="13153524" y="3069724"/>
+          <a:off x="16506324" y="10003924"/>
           <a:ext cx="6203950" cy="8268702"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3303,6 +3303,99 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>71</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="组合 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C58A70E3-6133-944B-92B6-09576F7FEDD4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="15849600" y="6286500"/>
+          <a:ext cx="5867400" cy="4013200"/>
+          <a:chOff x="15849600" y="6286500"/>
+          <a:chExt cx="7658100" cy="4902200"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="5" name="图片 4">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20973657-4541-8B4E-8995-0BEF17B83AAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="15849600" y="6286500"/>
+            <a:ext cx="3851729" cy="4902200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="7" name="图片 6">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1004159A-77FE-6E46-A391-0C768C4471BF}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="19659600" y="6286500"/>
+            <a:ext cx="3848100" cy="4902200"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3590,8 +3683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F7E32A-6212-6D43-AE36-E16B38687072}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="AR45" sqref="AR45"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL29" workbookViewId="0">
+      <selection activeCell="CB63" sqref="CB63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="15"/>
@@ -3603,16 +3696,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -3620,29 +3724,18 @@
 </settings>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -3651,6 +3744,33 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3659,35 +3779,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,20 +8,215 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{538CAAA3-64BC-6C45-9648-0CDCD1545EEF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DC575EF-801E-C34C-97E0-E1FF269F5D78}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
+    <sheet name="OSI" sheetId="42" r:id="rId2"/>
+    <sheet name="TCP" sheetId="41" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+  <si>
+    <t>IP Hedaer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP Data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据偏移</t>
+    <rPh sb="0" eb="2">
+      <t>shu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <rPh sb="0" eb="2">
+      <t>bao'li</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CWR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ECE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">ACK </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>窗口</t>
+    <rPh sb="0" eb="2">
+      <t>chuang'ko</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
+    <rPh sb="0" eb="2">
+      <t>xu'ha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>确认号</t>
+    <rPh sb="0" eb="2">
+      <t>que'ren'ha</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>源端口</t>
+    <rPh sb="0" eb="2">
+      <t>yuan'duan'ko</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的端口</t>
+    <rPh sb="0" eb="2">
+      <t>mu'di'duan'ko</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>检验和</t>
+    <rPh sb="0" eb="2">
+      <t>jian'yan'h</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急指针</t>
+    <rPh sb="0" eb="2">
+      <t>jin'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项（可变长度）</t>
+    <rPh sb="0" eb="2">
+      <t>xuan'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>填充</t>
+    <rPh sb="0" eb="2">
+      <t>tian'chon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用层(Application)</t>
+    <rPh sb="0" eb="3">
+      <t>p'p'li'cat'io</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表示层(Presentation)</t>
+    <rPh sb="0" eb="3">
+      <t>Present</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话层(Session)</t>
+    <rPh sb="0" eb="3">
+      <t>Sessio</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输层(Transport)</t>
+    <rPh sb="0" eb="3">
+      <t>Tra</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络层(Network)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据链路层(Data Link)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理层(Physical)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络接口层
+(Network Access)</t>
+    <rPh sb="0" eb="2">
+      <t>wan'luo</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI 参考模型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP 协议组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究时用到5层模型</t>
+    <rPh sb="0" eb="2">
+      <t>yan'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -66,16 +261,88 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6D5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -83,6 +350,175 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -101,9 +537,225 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -3399,6 +4051,1095 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>330200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="右箭头 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{619E81B0-864A-174D-A1BF-6AF602B34626}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6057900" y="7277100"/>
+          <a:ext cx="1524000" cy="266700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="下箭头 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2CDBFD6-1C4E-8C49-9249-F6D0EA9EF068}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5778500" y="5321300"/>
+          <a:ext cx="177800" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="上箭头 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83783509-F86C-0E4C-9635-9D24029D93CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7531100" y="5384800"/>
+          <a:ext cx="165100" cy="1143000"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="856645"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD11157B-377C-AD4E-85C5-9BA7DE457D01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5943600" y="5422900"/>
+          <a:ext cx="325730" cy="856645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>使</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>用</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>协</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>议</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="325730" cy="856645"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="文本框 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF5D6AC7-E6C3-EE43-A0DB-6E673FCCC46B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7226300" y="5549900"/>
+          <a:ext cx="325730" cy="856645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>解</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>析</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>协</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>议</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1182247" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="文本框 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2F708D1-FCE9-EE44-9921-83F5B49E6560}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4394200" y="5232400"/>
+          <a:ext cx="1182247" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>添加传输层信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>88900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1172116" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="文本框 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A01918-4987-8A48-B083-B4EB0F364EA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4051300" y="5592233"/>
+          <a:ext cx="1172116" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>添加网络层信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>71966</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1454244" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{681B49B1-86B5-7F42-9F2C-7D3A0C30780A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3492500" y="5952066"/>
+          <a:ext cx="1454244" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="90000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>添加数据链路层信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1160895" cy="283411"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9DAFC40-A43D-9B40-969A-78712FAB4ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4699000" y="6311900"/>
+          <a:ext cx="1160895" cy="283411"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>添加物理层信息</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>90047</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>230606</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="直线箭头连接符 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B75D91-29A2-B24A-A823-5392E86A3901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5576447" y="5374106"/>
+          <a:ext cx="227453" cy="175794"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>41816</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>222139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFA2580A-688D-B341-BB02-488FFD82BF9C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5223416" y="5733939"/>
+          <a:ext cx="250284" cy="171561"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>68695</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>205206</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直线箭头连接符 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5274A80-66D4-2745-89AF-32501DACA54E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4640695" y="6453606"/>
+          <a:ext cx="261505" cy="188494"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>69944</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>213672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线箭头连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{45B962EC-F89B-0C4C-BB2E-9DDD0CB81D29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4946744" y="6093772"/>
+          <a:ext cx="247556" cy="180028"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468141" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="文本框 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B7BA031-2F6A-7548-B7BB-6AAF5AE979B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6375400" y="4851400"/>
+          <a:ext cx="468141" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hello</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="468141" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="文本框 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF2CB2F8-8235-964B-8EB8-1CE12F5A6D55}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10642600" y="4851400"/>
+          <a:ext cx="468141" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>hello</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="上箭头 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC11A672-54BA-B54B-80D4-F87ECD8B62BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4076700" y="2070100"/>
+          <a:ext cx="304800" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom prst="upArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直线连接符 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8494056E-AA64-FF47-8AFC-37D9A8255728}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="863600" y="1968500"/>
+          <a:ext cx="2946400" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A79F1DAC-BAFB-1244-80BE-4231E0075401}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4673600" y="1968500"/>
+          <a:ext cx="3225800" cy="546100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
@@ -3683,7 +5424,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62F7E32A-6212-6D43-AE36-E16B38687072}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="AL29" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="CB63" sqref="CB63"/>
     </sheetView>
   </sheetViews>
@@ -3695,28 +5436,847 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4504CA82-4D4B-F94F-86E8-E6B610D4F9A1}">
+  <dimension ref="D4:AS26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="BD17" sqref="BD17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="4" style="23"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="4:30" ht="27" customHeight="1">
+      <c r="D4" s="24">
+        <v>7</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="N4" s="28">
+        <v>4</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="30"/>
+      <c r="Q4" s="30"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="30"/>
+      <c r="T4" s="31"/>
+      <c r="X4" s="28">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="31"/>
+    </row>
+    <row r="5" spans="4:30" ht="27" customHeight="1">
+      <c r="D5" s="68">
+        <v>6</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="71"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="34"/>
+      <c r="Q5" s="34"/>
+      <c r="R5" s="34"/>
+      <c r="S5" s="34"/>
+      <c r="T5" s="35"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="33"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
+      <c r="AD5" s="35"/>
+    </row>
+    <row r="6" spans="4:30" ht="27" customHeight="1">
+      <c r="D6" s="64">
+        <v>5</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="67"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="37"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="39"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="37"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="38"/>
+      <c r="AC6" s="38"/>
+      <c r="AD6" s="39"/>
+    </row>
+    <row r="7" spans="4:30" ht="27" customHeight="1">
+      <c r="D7" s="40">
+        <v>4</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="43"/>
+      <c r="N7" s="40">
+        <v>3</v>
+      </c>
+      <c r="O7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="43"/>
+      <c r="X7" s="40">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="43"/>
+    </row>
+    <row r="8" spans="4:30" ht="27" customHeight="1">
+      <c r="D8" s="44">
+        <v>3</v>
+      </c>
+      <c r="E8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="47"/>
+      <c r="N8" s="44">
+        <v>2</v>
+      </c>
+      <c r="O8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="P8" s="46"/>
+      <c r="Q8" s="46"/>
+      <c r="R8" s="46"/>
+      <c r="S8" s="46"/>
+      <c r="T8" s="47"/>
+      <c r="X8" s="44">
+        <v>3</v>
+      </c>
+      <c r="Y8" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z8" s="46"/>
+      <c r="AA8" s="46"/>
+      <c r="AB8" s="46"/>
+      <c r="AC8" s="46"/>
+      <c r="AD8" s="47"/>
+    </row>
+    <row r="9" spans="4:30" ht="27" customHeight="1">
+      <c r="D9" s="60">
+        <v>2</v>
+      </c>
+      <c r="E9" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="63"/>
+      <c r="N9" s="52">
+        <v>1</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>30</v>
+      </c>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="54"/>
+      <c r="T9" s="55"/>
+      <c r="X9" s="60">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z9" s="62"/>
+      <c r="AA9" s="62"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="62"/>
+      <c r="AD9" s="63"/>
+    </row>
+    <row r="10" spans="4:30" ht="27" customHeight="1">
+      <c r="D10" s="48">
+        <v>1</v>
+      </c>
+      <c r="E10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="51"/>
+      <c r="N10" s="56"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
+      <c r="X10" s="48">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z10" s="50"/>
+      <c r="AA10" s="50"/>
+      <c r="AB10" s="50"/>
+      <c r="AC10" s="50"/>
+      <c r="AD10" s="51"/>
+    </row>
+    <row r="12" spans="4:30">
+      <c r="E12" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="O12" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y12" s="23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="4:45" ht="29" customHeight="1">
+      <c r="D20" s="72">
+        <v>5</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="31"/>
+      <c r="U20" s="24">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="24">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="72">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="AO20" s="26"/>
+      <c r="AP20" s="26"/>
+      <c r="AQ20" s="26"/>
+      <c r="AR20" s="26"/>
+      <c r="AS20" s="27"/>
+    </row>
+    <row r="21" spans="4:45" ht="29" customHeight="1">
+      <c r="D21" s="40">
+        <v>4</v>
+      </c>
+      <c r="E21" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="43"/>
+      <c r="T21" s="40">
+        <v>4</v>
+      </c>
+      <c r="U21" s="24">
+        <v>5</v>
+      </c>
+      <c r="AH21" s="40">
+        <v>4</v>
+      </c>
+      <c r="AI21" s="24">
+        <v>5</v>
+      </c>
+      <c r="AM21" s="40">
+        <v>4</v>
+      </c>
+      <c r="AN21" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
+      <c r="AR21" s="42"/>
+      <c r="AS21" s="43"/>
+    </row>
+    <row r="22" spans="4:45" ht="29" customHeight="1">
+      <c r="D22" s="44">
+        <v>3</v>
+      </c>
+      <c r="E22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="47"/>
+      <c r="S22" s="44">
+        <v>3</v>
+      </c>
+      <c r="T22" s="40">
+        <v>4</v>
+      </c>
+      <c r="U22" s="24">
+        <v>5</v>
+      </c>
+      <c r="AG22" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH22" s="40">
+        <v>4</v>
+      </c>
+      <c r="AI22" s="24">
+        <v>5</v>
+      </c>
+      <c r="AM22" s="44">
+        <v>3</v>
+      </c>
+      <c r="AN22" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="AO22" s="46"/>
+      <c r="AP22" s="46"/>
+      <c r="AQ22" s="46"/>
+      <c r="AR22" s="46"/>
+      <c r="AS22" s="47"/>
+    </row>
+    <row r="23" spans="4:45" ht="29" customHeight="1">
+      <c r="D23" s="60">
+        <v>2</v>
+      </c>
+      <c r="E23" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="R23" s="60">
+        <v>2</v>
+      </c>
+      <c r="S23" s="44">
+        <v>3</v>
+      </c>
+      <c r="T23" s="40">
+        <v>4</v>
+      </c>
+      <c r="U23" s="24">
+        <v>5</v>
+      </c>
+      <c r="V23" s="60">
+        <v>2</v>
+      </c>
+      <c r="AF23" s="60">
+        <v>2</v>
+      </c>
+      <c r="AG23" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH23" s="40">
+        <v>4</v>
+      </c>
+      <c r="AI23" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ23" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="60">
+        <v>2</v>
+      </c>
+      <c r="AN23" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="63"/>
+    </row>
+    <row r="24" spans="4:45" ht="29" customHeight="1">
+      <c r="D24" s="48">
+        <v>1</v>
+      </c>
+      <c r="E24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="51"/>
+      <c r="Q24" s="48">
+        <v>1</v>
+      </c>
+      <c r="R24" s="60">
+        <v>2</v>
+      </c>
+      <c r="S24" s="44">
+        <v>3</v>
+      </c>
+      <c r="T24" s="40">
+        <v>4</v>
+      </c>
+      <c r="U24" s="24">
+        <v>5</v>
+      </c>
+      <c r="V24" s="60">
+        <v>2</v>
+      </c>
+      <c r="AE24" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="60">
+        <v>2</v>
+      </c>
+      <c r="AG24" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH24" s="40">
+        <v>4</v>
+      </c>
+      <c r="AI24" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ24" s="60">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="48">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="49" t="s">
+        <v>29</v>
+      </c>
+      <c r="AO24" s="50"/>
+      <c r="AP24" s="50"/>
+      <c r="AQ24" s="50"/>
+      <c r="AR24" s="50"/>
+      <c r="AS24" s="51"/>
+    </row>
+    <row r="26" spans="4:45" ht="29" customHeight="1">
+      <c r="Q26" s="48">
+        <v>1</v>
+      </c>
+      <c r="R26" s="60">
+        <v>2</v>
+      </c>
+      <c r="S26" s="44">
+        <v>3</v>
+      </c>
+      <c r="T26" s="40">
+        <v>4</v>
+      </c>
+      <c r="U26" s="24">
+        <v>5</v>
+      </c>
+      <c r="V26" s="60">
+        <v>2</v>
+      </c>
+      <c r="AE26" s="48">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="60">
+        <v>2</v>
+      </c>
+      <c r="AG26" s="44">
+        <v>3</v>
+      </c>
+      <c r="AH26" s="40">
+        <v>4</v>
+      </c>
+      <c r="AI26" s="24">
+        <v>5</v>
+      </c>
+      <c r="AJ26" s="60">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="AN20:AS20"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AN22:AS22"/>
+    <mergeCell ref="AN23:AS23"/>
+    <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="O4:T6"/>
+    <mergeCell ref="O9:T10"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="O7:T7"/>
+    <mergeCell ref="O8:T8"/>
+    <mergeCell ref="N4:N6"/>
+    <mergeCell ref="N9:N10"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DF5AA0-B8E4-6B4D-A4F3-3DCEFC487B82}">
+  <dimension ref="D2:AA12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="22" customHeight="1"/>
+  <sheetData>
+    <row r="2" spans="4:27" ht="22" customHeight="1">
+      <c r="D2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="11"/>
+      <c r="T2" s="11"/>
+      <c r="U2" s="11"/>
+      <c r="V2" s="11"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+    </row>
+    <row r="3" spans="4:27" ht="22" customHeight="1">
+      <c r="D3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11"/>
+    </row>
+    <row r="4" spans="4:27" ht="22" customHeight="1">
+      <c r="D4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
+    </row>
+    <row r="5" spans="4:27" ht="22" customHeight="1">
+      <c r="D5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P5" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="21"/>
+      <c r="R5" s="21"/>
+      <c r="S5" s="21"/>
+      <c r="T5" s="21"/>
+      <c r="U5" s="21"/>
+      <c r="V5" s="21"/>
+      <c r="W5" s="21"/>
+      <c r="X5" s="21"/>
+      <c r="Y5" s="21"/>
+      <c r="Z5" s="21"/>
+      <c r="AA5" s="22"/>
+    </row>
+    <row r="6" spans="4:27" ht="22" customHeight="1">
+      <c r="D6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q6" s="11"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="11"/>
+      <c r="T6" s="11"/>
+      <c r="U6" s="11"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="11"/>
+      <c r="X6" s="11"/>
+      <c r="Y6" s="11"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="11"/>
+    </row>
+    <row r="7" spans="4:27" ht="22" customHeight="1">
+      <c r="D7" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+      <c r="P7" s="13"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="T7" s="13"/>
+      <c r="U7" s="13"/>
+      <c r="V7" s="14"/>
+      <c r="W7" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="X7" s="15"/>
+      <c r="Y7" s="15"/>
+      <c r="Z7" s="15"/>
+      <c r="AA7" s="16"/>
+    </row>
+    <row r="10" spans="4:27" ht="22" customHeight="1">
+      <c r="N10" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="O10" s="13"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="18"/>
+      <c r="U10" s="18"/>
+      <c r="V10" s="18"/>
+      <c r="W10" s="18"/>
+      <c r="X10" s="19"/>
+    </row>
+    <row r="11" spans="4:27" ht="22" customHeight="1">
+      <c r="N11" s="1"/>
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="4:27" ht="22" customHeight="1">
+      <c r="K12" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="L12" s="8"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="18"/>
+      <c r="U12" s="18"/>
+      <c r="V12" s="18"/>
+      <c r="W12" s="18"/>
+      <c r="X12" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="K12:M12"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="P2:AA2"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="P6:AA6"/>
+    <mergeCell ref="D7:V7"/>
+    <mergeCell ref="W7:AA7"/>
+    <mergeCell ref="Q10:X10"/>
+    <mergeCell ref="N12:X12"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="P5:AA5"/>
+    <mergeCell ref="D4:AA4"/>
+    <mergeCell ref="D3:AA3"/>
+    <mergeCell ref="N10:P10"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="3"/>
   <pixelatorList sheetStid="7"/>
 </pixelators>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -3724,17 +6284,22 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3743,7 +6308,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3752,7 +6317,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3761,7 +6326,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -3770,20 +6335,11 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/network.xlsx
+++ b/network.xlsx
@@ -5,24 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/pangpang/limingxie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{8DC575EF-801E-C34C-97E0-E1FF269F5D78}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E4789E0-D42A-BE43-A8FB-A4826A51C522}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="680" windowWidth="24380" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
     <sheet name="OSI" sheetId="42" r:id="rId2"/>
-    <sheet name="TCP" sheetId="41" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="43" r:id="rId3"/>
+    <sheet name="TCP" sheetId="41" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
   <si>
     <t>IP Hedaer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,6 +210,68 @@
     <rPh sb="0" eb="2">
       <t>yan'ji</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100 0000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1部分</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'bu'fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第4部分</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'bu'fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第3部分</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'bu'fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第2部分</t>
+    <rPh sb="0" eb="1">
+      <t>di'yi'bu'fe</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络ID</t>
+    <rPh sb="0" eb="1">
+      <t>wang'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机ID</t>
+    <rPh sb="0" eb="2">
+      <t>zhu'j</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~127</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0~255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>192~223</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>128~191</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -537,7 +600,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +621,156 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -607,154 +820,16 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4981,6 +5056,3150 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CF57209-8709-0448-942B-FAD2EBA6350E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1003300" y="990600"/>
+          <a:ext cx="1765300" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>计算机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>A</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="圆角矩形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{633199DE-97C6-1544-B107-547FCFFDA2F4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5194300" y="990600"/>
+          <a:ext cx="1765300" cy="1041400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2000">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>计算机</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2000">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>B</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2000">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="圆角矩形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37F39C4B-F6D4-7B4E-B07F-DBE7B62AED6C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2095500" y="1651000"/>
+          <a:ext cx="673100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>网卡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="圆角矩形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D0D82FC-5748-7842-80F9-27835C71B654}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5194300" y="1651000"/>
+          <a:ext cx="673100" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1600">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>网卡</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直线箭头连接符 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63468214-A523-5F4B-A56C-FC96568F2DC6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2768600" y="1778000"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直线箭头连接符 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{533A118A-EF27-AC42-8778-93C040CB7ED1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2768600" y="1905000"/>
+          <a:ext cx="2425700" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2470485" cy="265907"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="文本框 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E508EF6D-000D-5946-BAE7-FBFE3B98A139}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1524000"/>
+          <a:ext cx="2470485" cy="265907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>发送数据包</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>IP,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>目标</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>IP,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>MAC,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>目标</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>MAC)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2470485" cy="265907"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2592F292-8549-7546-B972-BBDB7067C4CF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2794000" y="1866900"/>
+          <a:ext cx="2470485" cy="265907"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>响应数据包</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>IP,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>目标</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>IP,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>源</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>MAC,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1000"/>
+            <a:t>目标</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1000"/>
+            <a:t>MAC)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1000"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="圆角矩形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C52177F-F586-BC47-B65F-078FF17939EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="3213100"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>电信机房</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="圆角矩形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CFC20F-E7EA-DA4A-97B4-999E826BED4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3028950" y="3213100"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>双线机房</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA5C9BD-9213-7E40-8EF1-A202BA4FC483}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="3213100"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>网通机房</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="圆角矩形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB739D19-5684-F348-B751-FEED31C2868A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="4546600"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>电信</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>ISP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="圆角矩形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BA9E97-E80D-D642-98E3-EC4A4280E0E4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="4546600"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>网通</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>ISP</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="圆角矩形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{031D2D8C-CA46-9F4F-BA84-C10AD9BB1D21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="914400" y="5880100"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="圆角矩形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED2D3480-0094-1F4B-9D5F-156F83113FAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5143500" y="5880100"/>
+          <a:ext cx="1257300" cy="660400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21600819-C43C-2440-97CA-F730248EB4F3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2171700" y="3543300"/>
+          <a:ext cx="857250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="直线连接符 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DEC2F16-0F35-8B49-8212-B814E5708DA2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="3"/>
+          <a:endCxn id="14" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4286250" y="3543300"/>
+          <a:ext cx="857250" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直线连接符 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E6DBD54-AFD0-E44D-B6BA-4B9D3B259960}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="3873500"/>
+          <a:ext cx="0" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="25" name="直线连接符 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0B1C3545-6E22-FD4E-9970-3678190A5172}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="15" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1543050" y="3873500"/>
+          <a:ext cx="2114550" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="28" name="直线连接符 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{007AB29E-AA80-F343-B16B-FF81D60C4CF2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="3657600" y="3873500"/>
+          <a:ext cx="2114550" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="直线连接符 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6F15B1E-0FF1-7D41-800F-63ABCC801E19}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="1"/>
+          <a:endCxn id="15" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2171700" y="4876800"/>
+          <a:ext cx="2971800" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="直线连接符 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14F8D9A7-51BB-F743-A2AB-C2B83B05BCA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="2"/>
+          <a:endCxn id="18" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5772150" y="5207000"/>
+          <a:ext cx="0" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>273050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="40" name="直线连接符 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8B7BE697-FC13-884D-87C6-1DE9324A6E25}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="2"/>
+          <a:endCxn id="17" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="5207000"/>
+          <a:ext cx="0" cy="673100"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="44" name="直线箭头连接符 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCBEA137-C977-584C-B7A4-904315C6C0EF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1663700" y="3975100"/>
+          <a:ext cx="0" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直线箭头连接符 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4B53C01-AE9E-704A-AF92-8E643603507A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2387600" y="4762500"/>
+          <a:ext cx="2628900" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="48" name="直线箭头连接符 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9F8ADC0-F8BC-8B49-93AA-C4E18A69F33E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5689600" y="5346700"/>
+          <a:ext cx="0" cy="431800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="28575" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="accent6"/>
+          </a:solidFill>
+          <a:prstDash val="dash"/>
+          <a:round/>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="arrow" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239485</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>29029</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="49" name="图片 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43B5C2D7-B3A5-2741-AE32-D75827B1653F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="7137400"/>
+          <a:ext cx="5636985" cy="2492829"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="50" name="矩形 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51E2F7E2-1899-E941-939C-6C0F40105E23}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="635000" y="6921500"/>
+          <a:ext cx="2108200" cy="1320800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>11288</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>80433</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323144</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>55034</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="圆角矩形 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{275C533B-BB24-7145-B984-EE3A7707BD95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="984955" y="11143544"/>
+          <a:ext cx="1285522" cy="651934"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>(192.168.1.10)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>91722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>66323</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="圆角矩形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C4E430A-ECAD-A042-A1DF-9E2D98C14A2C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="953911" y="12509500"/>
+          <a:ext cx="1285522" cy="651934"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>(192.168.1.11)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>42332</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>211666</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>29632</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>186267</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="圆角矩形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D161DBDF-DE48-4F4F-942C-450A9E41F823}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2963332" y="14661444"/>
+          <a:ext cx="1285522" cy="651934"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>(192.168.1.11)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>110067</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166511</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>97367</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>141112</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="圆角矩形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA1E8082-6B4D-8B45-B318-117A0164C095}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4653845" y="14616289"/>
+          <a:ext cx="1285522" cy="651934"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>PC</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1200">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>(192.168.1.12)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1200">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239890</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>155221</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="55" name="圆角矩形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C22D32FC-0AE0-E942-8B41-5AAFE0C9CA9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3541889" y="10653888"/>
+          <a:ext cx="917223" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>公网</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>路由</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100188</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>56445</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="圆角矩形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543FDA6E-606D-AE49-90DF-AAFDE02A7FCA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4643966" y="12812888"/>
+          <a:ext cx="929923" cy="1016000"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>公网</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400">
+            <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>路由</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>321732</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>222955</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>211666</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="57" name="圆角矩形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9E1506D-2F18-1C4C-BC4E-EA9682035004}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6163732" y="10608733"/>
+          <a:ext cx="1512712" cy="1089378"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 4517"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400">
+              <a:latin typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+              <a:ea typeface="SimSun" panose="02010600030101010101" pitchFamily="2" charset="-122"/>
+            </a:rPr>
+            <a:t>国外服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>323144</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>296333</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>180622</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="直线连接符 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{780CA80F-63F8-A74F-B135-1571D4B4D692}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="51" idx="3"/>
+          <a:endCxn id="55" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2270477" y="11161888"/>
+          <a:ext cx="1271412" cy="307623"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>155221</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>105834</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>191911</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="直线连接符 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B387A47-ED52-284D-A8D6-D5C3A4EE6E93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="52" idx="3"/>
+          <a:endCxn id="55" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2239433" y="11669888"/>
+          <a:ext cx="1761068" cy="1165579"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>35982</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>225777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>100188</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>211666</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="直线连接符 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F69C4C2-3632-FB48-941C-65C50C41AE20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="1"/>
+          <a:endCxn id="53" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3606093" y="13320888"/>
+          <a:ext cx="1037873" cy="1340556"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240595</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>56444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>103717</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>166511</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="65" name="直线连接符 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{124D0289-17DF-E44E-9465-523AB7144BD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="2"/>
+          <a:endCxn id="54" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5108928" y="13828888"/>
+          <a:ext cx="187678" cy="787401"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>239890</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>90311</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>321732</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>98777</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="直线连接符 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0452582-68CE-414C-BDC1-02B39017B119}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="55" idx="3"/>
+          <a:endCxn id="57" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4459112" y="11153422"/>
+          <a:ext cx="1704620" cy="8466"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>240595</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>183444</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>104421</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>169332</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="直线连接符 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A333E9C-C24A-804E-9D76-1A46452D7F93}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="0"/>
+          <a:endCxn id="57" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5108928" y="11698111"/>
+          <a:ext cx="1811160" cy="1114777"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>197555</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>197556</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>155222</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>211667</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="直线箭头连接符 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9802938A-C76A-B04B-B52D-3F6A73DB9BC4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2469444" y="11034889"/>
+          <a:ext cx="931334" cy="239889"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>126999</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>56446</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="934871" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="87" name="文本框 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D44A3C6-BCDE-2244-BAAE-CE44909C4A85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="20661345">
+          <a:off x="2398888" y="10893779"/>
+          <a:ext cx="934871" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>192.168.1.10</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>197556</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>169334</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="89" name="直线箭头连接符 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A998F12C-98F0-0548-834C-E7976FC180D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4628444" y="11006667"/>
+          <a:ext cx="1411112" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>253999</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1086555" cy="800091"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="90" name="文本框 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A55D23DE-384F-4842-90BD-9826849E3DD2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3499555" y="9835444"/>
+          <a:ext cx="1086555" cy="800091"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>通过</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>NAT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>技术</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>192.168.1.10</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>=&gt;</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>120.10.1.93</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>307622</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="863378" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="文本框 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{811C6839-085B-294D-ADD0-A69E9AE2C3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4851400" y="10721623"/>
+          <a:ext cx="863378" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>120.10.1.93</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>84666</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>197556</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2550122" cy="474489"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="文本框 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C3AF4F2-1217-0145-BF05-88F921C5D0B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="409222" y="13292667"/>
+          <a:ext cx="2550122" cy="474489"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>同一个局域网是不允许有重复</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100"/>
+            <a:t>但是不同的局域网是可以存在重复的</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100"/>
+            <a:t>IP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
       <xdr:row>7</xdr:row>
@@ -5440,508 +8659,508 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4504CA82-4D4B-F94F-86E8-E6B610D4F9A1}">
   <dimension ref="D4:AS26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="BD17" sqref="BD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4" defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="16384" width="4" style="23"/>
+    <col min="1" max="16384" width="4" style="7"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:30" ht="27" customHeight="1">
-      <c r="D4" s="24">
+      <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="25" t="s">
+      <c r="E4" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="27"/>
-      <c r="N4" s="28">
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="29"/>
+      <c r="N4" s="22">
         <v>4</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="O4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="30"/>
-      <c r="Q4" s="30"/>
-      <c r="R4" s="30"/>
-      <c r="S4" s="30"/>
-      <c r="T4" s="31"/>
-      <c r="X4" s="28">
+      <c r="P4" s="40"/>
+      <c r="Q4" s="40"/>
+      <c r="R4" s="40"/>
+      <c r="S4" s="40"/>
+      <c r="T4" s="41"/>
+      <c r="X4" s="22">
         <v>5</v>
       </c>
-      <c r="Y4" s="29" t="s">
+      <c r="Y4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="31"/>
+      <c r="Z4" s="40"/>
+      <c r="AA4" s="40"/>
+      <c r="AB4" s="40"/>
+      <c r="AC4" s="40"/>
+      <c r="AD4" s="41"/>
     </row>
     <row r="5" spans="4:30" ht="27" customHeight="1">
-      <c r="D5" s="68">
+      <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="70"/>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="71"/>
-      <c r="N5" s="32"/>
-      <c r="O5" s="33"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="35"/>
-      <c r="X5" s="32"/>
-      <c r="Y5" s="33"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="34"/>
-      <c r="AC5" s="34"/>
-      <c r="AD5" s="35"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="32"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43"/>
+      <c r="S5" s="43"/>
+      <c r="T5" s="44"/>
+      <c r="X5" s="23"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="43"/>
+      <c r="AA5" s="43"/>
+      <c r="AB5" s="43"/>
+      <c r="AC5" s="43"/>
+      <c r="AD5" s="44"/>
     </row>
     <row r="6" spans="4:30" ht="27" customHeight="1">
-      <c r="D6" s="64">
+      <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="65" t="s">
+      <c r="E6" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="67"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="38"/>
-      <c r="Q6" s="38"/>
-      <c r="R6" s="38"/>
-      <c r="S6" s="38"/>
-      <c r="T6" s="39"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="38"/>
-      <c r="AA6" s="38"/>
-      <c r="AB6" s="38"/>
-      <c r="AC6" s="38"/>
-      <c r="AD6" s="39"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="35"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="46"/>
+      <c r="Q6" s="46"/>
+      <c r="R6" s="46"/>
+      <c r="S6" s="46"/>
+      <c r="T6" s="47"/>
+      <c r="X6" s="24"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="46"/>
+      <c r="AA6" s="46"/>
+      <c r="AB6" s="46"/>
+      <c r="AC6" s="46"/>
+      <c r="AD6" s="47"/>
     </row>
     <row r="7" spans="4:30" ht="27" customHeight="1">
-      <c r="D7" s="40">
+      <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="41" t="s">
+      <c r="E7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="43"/>
-      <c r="N7" s="40">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="41" t="s">
+      <c r="O7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="42"/>
-      <c r="Q7" s="42"/>
-      <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="43"/>
-      <c r="X7" s="40">
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+      <c r="R7" s="17"/>
+      <c r="S7" s="17"/>
+      <c r="T7" s="18"/>
+      <c r="X7" s="9">
         <v>4</v>
       </c>
-      <c r="Y7" s="41" t="s">
+      <c r="Y7" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="42"/>
-      <c r="AA7" s="42"/>
-      <c r="AB7" s="42"/>
-      <c r="AC7" s="42"/>
-      <c r="AD7" s="43"/>
+      <c r="Z7" s="17"/>
+      <c r="AA7" s="17"/>
+      <c r="AB7" s="17"/>
+      <c r="AC7" s="17"/>
+      <c r="AD7" s="18"/>
     </row>
     <row r="8" spans="4:30" ht="27" customHeight="1">
-      <c r="D8" s="44">
+      <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="45" t="s">
+      <c r="E8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="47"/>
-      <c r="N8" s="44">
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="21"/>
+      <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="45" t="s">
+      <c r="O8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="46"/>
-      <c r="Q8" s="46"/>
-      <c r="R8" s="46"/>
-      <c r="S8" s="46"/>
-      <c r="T8" s="47"/>
-      <c r="X8" s="44">
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="21"/>
+      <c r="X8" s="10">
         <v>3</v>
       </c>
-      <c r="Y8" s="45" t="s">
+      <c r="Y8" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="46"/>
-      <c r="AA8" s="46"/>
-      <c r="AB8" s="46"/>
-      <c r="AC8" s="46"/>
-      <c r="AD8" s="47"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="21"/>
     </row>
     <row r="9" spans="4:30" ht="27" customHeight="1">
-      <c r="D9" s="60">
+      <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
-      <c r="N9" s="52">
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="38"/>
+      <c r="N9" s="25">
         <v>1</v>
       </c>
-      <c r="O9" s="53" t="s">
+      <c r="O9" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="54"/>
-      <c r="Q9" s="54"/>
-      <c r="R9" s="54"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="X9" s="60">
+      <c r="P9" s="49"/>
+      <c r="Q9" s="49"/>
+      <c r="R9" s="49"/>
+      <c r="S9" s="49"/>
+      <c r="T9" s="50"/>
+      <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="61" t="s">
+      <c r="Y9" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="62"/>
-      <c r="AA9" s="62"/>
-      <c r="AB9" s="62"/>
-      <c r="AC9" s="62"/>
-      <c r="AD9" s="63"/>
+      <c r="Z9" s="37"/>
+      <c r="AA9" s="37"/>
+      <c r="AB9" s="37"/>
+      <c r="AC9" s="37"/>
+      <c r="AD9" s="38"/>
     </row>
     <row r="10" spans="4:30" ht="27" customHeight="1">
-      <c r="D10" s="48">
+      <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="51"/>
-      <c r="N10" s="56"/>
-      <c r="O10" s="57"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
-      <c r="R10" s="58"/>
-      <c r="S10" s="58"/>
-      <c r="T10" s="59"/>
-      <c r="X10" s="48">
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="56"/>
+      <c r="N10" s="26"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="52"/>
+      <c r="T10" s="53"/>
+      <c r="X10" s="11">
         <v>1</v>
       </c>
-      <c r="Y10" s="49" t="s">
+      <c r="Y10" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="50"/>
-      <c r="AA10" s="50"/>
-      <c r="AB10" s="50"/>
-      <c r="AC10" s="50"/>
-      <c r="AD10" s="51"/>
+      <c r="Z10" s="55"/>
+      <c r="AA10" s="55"/>
+      <c r="AB10" s="55"/>
+      <c r="AC10" s="55"/>
+      <c r="AD10" s="56"/>
     </row>
     <row r="12" spans="4:30">
-      <c r="E12" s="23" t="s">
+      <c r="E12" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="O12" s="23" t="s">
+      <c r="O12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="Y12" s="23" t="s">
+      <c r="Y12" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="4:45" ht="29" customHeight="1">
-      <c r="D20" s="72">
+      <c r="D20" s="15">
         <v>5</v>
       </c>
-      <c r="E20" s="29" t="s">
+      <c r="E20" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="31"/>
-      <c r="U20" s="24">
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="41"/>
+      <c r="U20" s="8">
         <v>5</v>
       </c>
-      <c r="AI20" s="24">
+      <c r="AI20" s="8">
         <v>5</v>
       </c>
-      <c r="AM20" s="72">
+      <c r="AM20" s="15">
         <v>5</v>
       </c>
-      <c r="AN20" s="25" t="s">
+      <c r="AN20" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="AO20" s="26"/>
-      <c r="AP20" s="26"/>
-      <c r="AQ20" s="26"/>
-      <c r="AR20" s="26"/>
-      <c r="AS20" s="27"/>
+      <c r="AO20" s="28"/>
+      <c r="AP20" s="28"/>
+      <c r="AQ20" s="28"/>
+      <c r="AR20" s="28"/>
+      <c r="AS20" s="29"/>
     </row>
     <row r="21" spans="4:45" ht="29" customHeight="1">
-      <c r="D21" s="40">
+      <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="41" t="s">
+      <c r="E21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="43"/>
-      <c r="T21" s="40">
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="18"/>
+      <c r="T21" s="9">
         <v>4</v>
       </c>
-      <c r="U21" s="24">
+      <c r="U21" s="8">
         <v>5</v>
       </c>
-      <c r="AH21" s="40">
+      <c r="AH21" s="9">
         <v>4</v>
       </c>
-      <c r="AI21" s="24">
+      <c r="AI21" s="8">
         <v>5</v>
       </c>
-      <c r="AM21" s="40">
+      <c r="AM21" s="9">
         <v>4</v>
       </c>
-      <c r="AN21" s="41" t="s">
+      <c r="AN21" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="AO21" s="42"/>
-      <c r="AP21" s="42"/>
-      <c r="AQ21" s="42"/>
-      <c r="AR21" s="42"/>
-      <c r="AS21" s="43"/>
+      <c r="AO21" s="17"/>
+      <c r="AP21" s="17"/>
+      <c r="AQ21" s="17"/>
+      <c r="AR21" s="17"/>
+      <c r="AS21" s="18"/>
     </row>
     <row r="22" spans="4:45" ht="29" customHeight="1">
-      <c r="D22" s="44">
+      <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="45" t="s">
+      <c r="E22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="46"/>
-      <c r="J22" s="47"/>
-      <c r="S22" s="44">
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="S22" s="10">
         <v>3</v>
       </c>
-      <c r="T22" s="40">
+      <c r="T22" s="9">
         <v>4</v>
       </c>
-      <c r="U22" s="24">
+      <c r="U22" s="8">
         <v>5</v>
       </c>
-      <c r="AG22" s="44">
+      <c r="AG22" s="10">
         <v>3</v>
       </c>
-      <c r="AH22" s="40">
+      <c r="AH22" s="9">
         <v>4</v>
       </c>
-      <c r="AI22" s="24">
+      <c r="AI22" s="8">
         <v>5</v>
       </c>
-      <c r="AM22" s="44">
+      <c r="AM22" s="10">
         <v>3</v>
       </c>
-      <c r="AN22" s="45" t="s">
+      <c r="AN22" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="AO22" s="46"/>
-      <c r="AP22" s="46"/>
-      <c r="AQ22" s="46"/>
-      <c r="AR22" s="46"/>
-      <c r="AS22" s="47"/>
+      <c r="AO22" s="20"/>
+      <c r="AP22" s="20"/>
+      <c r="AQ22" s="20"/>
+      <c r="AR22" s="20"/>
+      <c r="AS22" s="21"/>
     </row>
     <row r="23" spans="4:45" ht="29" customHeight="1">
-      <c r="D23" s="60">
+      <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="61" t="s">
+      <c r="E23" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="R23" s="60">
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="38"/>
+      <c r="R23" s="12">
         <v>2</v>
       </c>
-      <c r="S23" s="44">
+      <c r="S23" s="10">
         <v>3</v>
       </c>
-      <c r="T23" s="40">
+      <c r="T23" s="9">
         <v>4</v>
       </c>
-      <c r="U23" s="24">
+      <c r="U23" s="8">
         <v>5</v>
       </c>
-      <c r="V23" s="60">
+      <c r="V23" s="12">
         <v>2</v>
       </c>
-      <c r="AF23" s="60">
+      <c r="AF23" s="12">
         <v>2</v>
       </c>
-      <c r="AG23" s="44">
+      <c r="AG23" s="10">
         <v>3</v>
       </c>
-      <c r="AH23" s="40">
+      <c r="AH23" s="9">
         <v>4</v>
       </c>
-      <c r="AI23" s="24">
+      <c r="AI23" s="8">
         <v>5</v>
       </c>
-      <c r="AJ23" s="60">
+      <c r="AJ23" s="12">
         <v>2</v>
       </c>
-      <c r="AM23" s="60">
+      <c r="AM23" s="12">
         <v>2</v>
       </c>
-      <c r="AN23" s="61" t="s">
+      <c r="AN23" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="63"/>
+      <c r="AO23" s="37"/>
+      <c r="AP23" s="37"/>
+      <c r="AQ23" s="37"/>
+      <c r="AR23" s="37"/>
+      <c r="AS23" s="38"/>
     </row>
     <row r="24" spans="4:45" ht="29" customHeight="1">
-      <c r="D24" s="48">
+      <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="49" t="s">
+      <c r="E24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="50"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="51"/>
-      <c r="Q24" s="48">
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="56"/>
+      <c r="Q24" s="11">
         <v>1</v>
       </c>
-      <c r="R24" s="60">
+      <c r="R24" s="12">
         <v>2</v>
       </c>
-      <c r="S24" s="44">
+      <c r="S24" s="10">
         <v>3</v>
       </c>
-      <c r="T24" s="40">
+      <c r="T24" s="9">
         <v>4</v>
       </c>
-      <c r="U24" s="24">
+      <c r="U24" s="8">
         <v>5</v>
       </c>
-      <c r="V24" s="60">
+      <c r="V24" s="12">
         <v>2</v>
       </c>
-      <c r="AE24" s="48">
+      <c r="AE24" s="11">
         <v>1</v>
       </c>
-      <c r="AF24" s="60">
+      <c r="AF24" s="12">
         <v>2</v>
       </c>
-      <c r="AG24" s="44">
+      <c r="AG24" s="10">
         <v>3</v>
       </c>
-      <c r="AH24" s="40">
+      <c r="AH24" s="9">
         <v>4</v>
       </c>
-      <c r="AI24" s="24">
+      <c r="AI24" s="8">
         <v>5</v>
       </c>
-      <c r="AJ24" s="60">
+      <c r="AJ24" s="12">
         <v>2</v>
       </c>
-      <c r="AM24" s="48">
+      <c r="AM24" s="11">
         <v>1</v>
       </c>
-      <c r="AN24" s="49" t="s">
+      <c r="AN24" s="54" t="s">
         <v>29</v>
       </c>
-      <c r="AO24" s="50"/>
-      <c r="AP24" s="50"/>
-      <c r="AQ24" s="50"/>
-      <c r="AR24" s="50"/>
-      <c r="AS24" s="51"/>
+      <c r="AO24" s="55"/>
+      <c r="AP24" s="55"/>
+      <c r="AQ24" s="55"/>
+      <c r="AR24" s="55"/>
+      <c r="AS24" s="56"/>
     </row>
     <row r="26" spans="4:45" ht="29" customHeight="1">
-      <c r="Q26" s="48">
+      <c r="Q26" s="11">
         <v>1</v>
       </c>
-      <c r="R26" s="60">
+      <c r="R26" s="12">
         <v>2</v>
       </c>
-      <c r="S26" s="44">
+      <c r="S26" s="10">
         <v>3</v>
       </c>
-      <c r="T26" s="40">
+      <c r="T26" s="9">
         <v>4</v>
       </c>
-      <c r="U26" s="24">
+      <c r="U26" s="8">
         <v>5</v>
       </c>
-      <c r="V26" s="60">
+      <c r="V26" s="12">
         <v>2</v>
       </c>
-      <c r="AE26" s="48">
+      <c r="AE26" s="11">
         <v>1</v>
       </c>
-      <c r="AF26" s="60">
+      <c r="AF26" s="12">
         <v>2</v>
       </c>
-      <c r="AG26" s="44">
+      <c r="AG26" s="10">
         <v>3</v>
       </c>
-      <c r="AH26" s="40">
+      <c r="AH26" s="9">
         <v>4</v>
       </c>
-      <c r="AI26" s="24">
+      <c r="AI26" s="8">
         <v>5</v>
       </c>
-      <c r="AJ26" s="60">
+      <c r="AJ26" s="12">
         <v>2</v>
       </c>
     </row>
@@ -5952,20 +9171,18 @@
     <mergeCell ref="AN22:AS22"/>
     <mergeCell ref="AN23:AS23"/>
     <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="Y10:AD10"/>
     <mergeCell ref="E21:J21"/>
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
     <mergeCell ref="E20:J20"/>
-    <mergeCell ref="O4:T6"/>
-    <mergeCell ref="O9:T10"/>
+    <mergeCell ref="E10:J10"/>
     <mergeCell ref="X4:X6"/>
     <mergeCell ref="Y4:AD6"/>
     <mergeCell ref="Y7:AD7"/>
     <mergeCell ref="Y8:AD8"/>
     <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="E10:J10"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="N4:N6"/>
@@ -5976,6 +9193,8 @@
     <mergeCell ref="E7:J7"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="E9:J9"/>
+    <mergeCell ref="O4:T6"/>
+    <mergeCell ref="O9:T10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5984,6 +9203,481 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1023BE6-1DF7-8E4E-BE37-362FF7DE3590}">
+  <dimension ref="AF6:BY28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="AV27" sqref="AV27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="45" width="4.1640625" style="7"/>
+    <col min="46" max="77" width="2.33203125" style="7" customWidth="1"/>
+    <col min="78" max="16384" width="4.1640625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="32:77">
+      <c r="AF6" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="AG6" s="28"/>
+      <c r="AH6" s="29"/>
+      <c r="AI6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" s="28"/>
+      <c r="AK6" s="29"/>
+      <c r="AL6" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM6" s="28"/>
+      <c r="AN6" s="29"/>
+      <c r="AO6" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP6" s="28"/>
+      <c r="AQ6" s="29"/>
+    </row>
+    <row r="7" spans="32:77">
+      <c r="AF7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="75"/>
+      <c r="AI7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="75"/>
+      <c r="AL7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="75"/>
+      <c r="AO7" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="AP7" s="74"/>
+      <c r="AQ7" s="75"/>
+    </row>
+    <row r="8" spans="32:77">
+      <c r="AF8" s="73">
+        <v>192</v>
+      </c>
+      <c r="AG8" s="74"/>
+      <c r="AH8" s="75"/>
+      <c r="AI8" s="73">
+        <v>168</v>
+      </c>
+      <c r="AJ8" s="74"/>
+      <c r="AK8" s="75"/>
+      <c r="AL8" s="73">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="74"/>
+      <c r="AN8" s="75"/>
+      <c r="AO8" s="73">
+        <v>10</v>
+      </c>
+      <c r="AP8" s="74"/>
+      <c r="AQ8" s="75"/>
+    </row>
+    <row r="12" spans="32:77">
+      <c r="AT12" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU12" s="28"/>
+      <c r="AV12" s="28"/>
+      <c r="AW12" s="28"/>
+      <c r="AX12" s="28"/>
+      <c r="AY12" s="28"/>
+      <c r="AZ12" s="28"/>
+      <c r="BA12" s="29"/>
+      <c r="BB12" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="BC12" s="55"/>
+      <c r="BD12" s="55"/>
+      <c r="BE12" s="55"/>
+      <c r="BF12" s="55"/>
+      <c r="BG12" s="55"/>
+      <c r="BH12" s="55"/>
+      <c r="BI12" s="55"/>
+      <c r="BJ12" s="55"/>
+      <c r="BK12" s="55"/>
+      <c r="BL12" s="55"/>
+      <c r="BM12" s="55"/>
+      <c r="BN12" s="55"/>
+      <c r="BO12" s="55"/>
+      <c r="BP12" s="55"/>
+      <c r="BQ12" s="55"/>
+      <c r="BR12" s="55"/>
+      <c r="BS12" s="55"/>
+      <c r="BT12" s="55"/>
+      <c r="BU12" s="55"/>
+      <c r="BV12" s="55"/>
+      <c r="BW12" s="55"/>
+      <c r="BX12" s="55"/>
+      <c r="BY12" s="56"/>
+    </row>
+    <row r="13" spans="32:77">
+      <c r="AT13" s="76">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="76"/>
+      <c r="AV13" s="76"/>
+      <c r="AW13" s="76"/>
+      <c r="AX13" s="76"/>
+      <c r="AY13" s="76"/>
+      <c r="AZ13" s="76"/>
+      <c r="BA13" s="76"/>
+      <c r="BB13" s="76"/>
+      <c r="BC13" s="76"/>
+      <c r="BD13" s="76"/>
+      <c r="BE13" s="76"/>
+      <c r="BF13" s="76"/>
+      <c r="BG13" s="76"/>
+      <c r="BH13" s="76"/>
+      <c r="BI13" s="76"/>
+      <c r="BJ13" s="76"/>
+      <c r="BK13" s="76"/>
+      <c r="BL13" s="76"/>
+      <c r="BM13" s="76"/>
+      <c r="BN13" s="76"/>
+      <c r="BO13" s="76"/>
+      <c r="BP13" s="76"/>
+      <c r="BQ13" s="76"/>
+      <c r="BR13" s="76"/>
+      <c r="BS13" s="76"/>
+      <c r="BT13" s="76"/>
+      <c r="BU13" s="76"/>
+      <c r="BV13" s="76"/>
+      <c r="BW13" s="76"/>
+      <c r="BX13" s="76"/>
+      <c r="BY13" s="76"/>
+    </row>
+    <row r="14" spans="32:77">
+      <c r="AT14" s="73" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU14" s="74"/>
+      <c r="AV14" s="74"/>
+      <c r="AW14" s="74"/>
+      <c r="AX14" s="74"/>
+      <c r="AY14" s="74"/>
+      <c r="AZ14" s="74"/>
+      <c r="BA14" s="75"/>
+      <c r="BB14" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC14" s="74"/>
+      <c r="BD14" s="74"/>
+      <c r="BE14" s="74"/>
+      <c r="BF14" s="74"/>
+      <c r="BG14" s="74"/>
+      <c r="BH14" s="74"/>
+      <c r="BI14" s="75"/>
+      <c r="BJ14" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK14" s="74"/>
+      <c r="BL14" s="74"/>
+      <c r="BM14" s="74"/>
+      <c r="BN14" s="74"/>
+      <c r="BO14" s="74"/>
+      <c r="BP14" s="74"/>
+      <c r="BQ14" s="75"/>
+      <c r="BR14" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS14" s="74"/>
+      <c r="BT14" s="74"/>
+      <c r="BU14" s="74"/>
+      <c r="BV14" s="74"/>
+      <c r="BW14" s="74"/>
+      <c r="BX14" s="74"/>
+      <c r="BY14" s="75"/>
+    </row>
+    <row r="19" spans="46:77">
+      <c r="AT19" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU19" s="28"/>
+      <c r="AV19" s="28"/>
+      <c r="AW19" s="28"/>
+      <c r="AX19" s="28"/>
+      <c r="AY19" s="28"/>
+      <c r="AZ19" s="28"/>
+      <c r="BA19" s="28"/>
+      <c r="BB19" s="28"/>
+      <c r="BC19" s="28"/>
+      <c r="BD19" s="28"/>
+      <c r="BE19" s="28"/>
+      <c r="BF19" s="28"/>
+      <c r="BG19" s="28"/>
+      <c r="BH19" s="28"/>
+      <c r="BI19" s="29"/>
+      <c r="BJ19" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="BK19" s="55"/>
+      <c r="BL19" s="55"/>
+      <c r="BM19" s="55"/>
+      <c r="BN19" s="55"/>
+      <c r="BO19" s="55"/>
+      <c r="BP19" s="55"/>
+      <c r="BQ19" s="55"/>
+      <c r="BR19" s="55"/>
+      <c r="BS19" s="55"/>
+      <c r="BT19" s="55"/>
+      <c r="BU19" s="55"/>
+      <c r="BV19" s="55"/>
+      <c r="BW19" s="55"/>
+      <c r="BX19" s="55"/>
+      <c r="BY19" s="56"/>
+    </row>
+    <row r="20" spans="46:77">
+      <c r="AT20" s="76">
+        <v>1</v>
+      </c>
+      <c r="AU20" s="76">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="76"/>
+      <c r="AW20" s="76"/>
+      <c r="AX20" s="76"/>
+      <c r="AY20" s="76"/>
+      <c r="AZ20" s="76"/>
+      <c r="BA20" s="76"/>
+      <c r="BB20" s="76"/>
+      <c r="BC20" s="76"/>
+      <c r="BD20" s="76"/>
+      <c r="BE20" s="76"/>
+      <c r="BF20" s="76"/>
+      <c r="BG20" s="76"/>
+      <c r="BH20" s="76"/>
+      <c r="BI20" s="76"/>
+      <c r="BJ20" s="76"/>
+      <c r="BK20" s="76"/>
+      <c r="BL20" s="76"/>
+      <c r="BM20" s="76"/>
+      <c r="BN20" s="76"/>
+      <c r="BO20" s="76"/>
+      <c r="BP20" s="76"/>
+      <c r="BQ20" s="76"/>
+      <c r="BR20" s="76"/>
+      <c r="BS20" s="76"/>
+      <c r="BT20" s="76"/>
+      <c r="BU20" s="76"/>
+      <c r="BV20" s="76"/>
+      <c r="BW20" s="76"/>
+      <c r="BX20" s="76"/>
+      <c r="BY20" s="76"/>
+    </row>
+    <row r="21" spans="46:77">
+      <c r="AT21" s="73" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU21" s="74"/>
+      <c r="AV21" s="74"/>
+      <c r="AW21" s="74"/>
+      <c r="AX21" s="74"/>
+      <c r="AY21" s="74"/>
+      <c r="AZ21" s="74"/>
+      <c r="BA21" s="75"/>
+      <c r="BB21" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC21" s="74"/>
+      <c r="BD21" s="74"/>
+      <c r="BE21" s="74"/>
+      <c r="BF21" s="74"/>
+      <c r="BG21" s="74"/>
+      <c r="BH21" s="74"/>
+      <c r="BI21" s="75"/>
+      <c r="BJ21" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK21" s="74"/>
+      <c r="BL21" s="74"/>
+      <c r="BM21" s="74"/>
+      <c r="BN21" s="74"/>
+      <c r="BO21" s="74"/>
+      <c r="BP21" s="74"/>
+      <c r="BQ21" s="75"/>
+      <c r="BR21" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS21" s="74"/>
+      <c r="BT21" s="74"/>
+      <c r="BU21" s="74"/>
+      <c r="BV21" s="74"/>
+      <c r="BW21" s="74"/>
+      <c r="BX21" s="74"/>
+      <c r="BY21" s="75"/>
+    </row>
+    <row r="26" spans="46:77">
+      <c r="AT26" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="AU26" s="28"/>
+      <c r="AV26" s="28"/>
+      <c r="AW26" s="28"/>
+      <c r="AX26" s="28"/>
+      <c r="AY26" s="28"/>
+      <c r="AZ26" s="28"/>
+      <c r="BA26" s="28"/>
+      <c r="BB26" s="28"/>
+      <c r="BC26" s="28"/>
+      <c r="BD26" s="28"/>
+      <c r="BE26" s="28"/>
+      <c r="BF26" s="28"/>
+      <c r="BG26" s="28"/>
+      <c r="BH26" s="28"/>
+      <c r="BI26" s="28"/>
+      <c r="BJ26" s="28"/>
+      <c r="BK26" s="28"/>
+      <c r="BL26" s="28"/>
+      <c r="BM26" s="28"/>
+      <c r="BN26" s="28"/>
+      <c r="BO26" s="28"/>
+      <c r="BP26" s="28"/>
+      <c r="BQ26" s="29"/>
+      <c r="BR26" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="BS26" s="55"/>
+      <c r="BT26" s="55"/>
+      <c r="BU26" s="55"/>
+      <c r="BV26" s="55"/>
+      <c r="BW26" s="55"/>
+      <c r="BX26" s="55"/>
+      <c r="BY26" s="56"/>
+    </row>
+    <row r="27" spans="46:77">
+      <c r="AT27" s="76">
+        <v>1</v>
+      </c>
+      <c r="AU27" s="76">
+        <v>1</v>
+      </c>
+      <c r="AV27" s="76">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="76"/>
+      <c r="AX27" s="76"/>
+      <c r="AY27" s="76"/>
+      <c r="AZ27" s="76"/>
+      <c r="BA27" s="76"/>
+      <c r="BB27" s="76"/>
+      <c r="BC27" s="76"/>
+      <c r="BD27" s="76"/>
+      <c r="BE27" s="76"/>
+      <c r="BF27" s="76"/>
+      <c r="BG27" s="76"/>
+      <c r="BH27" s="76"/>
+      <c r="BI27" s="76"/>
+      <c r="BJ27" s="76"/>
+      <c r="BK27" s="76"/>
+      <c r="BL27" s="76"/>
+      <c r="BM27" s="76"/>
+      <c r="BN27" s="76"/>
+      <c r="BO27" s="76"/>
+      <c r="BP27" s="76"/>
+      <c r="BQ27" s="76"/>
+      <c r="BR27" s="76"/>
+      <c r="BS27" s="76"/>
+      <c r="BT27" s="76"/>
+      <c r="BU27" s="76"/>
+      <c r="BV27" s="76"/>
+      <c r="BW27" s="76"/>
+      <c r="BX27" s="76"/>
+      <c r="BY27" s="76"/>
+    </row>
+    <row r="28" spans="46:77">
+      <c r="AT28" s="73" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU28" s="74"/>
+      <c r="AV28" s="74"/>
+      <c r="AW28" s="74"/>
+      <c r="AX28" s="74"/>
+      <c r="AY28" s="74"/>
+      <c r="AZ28" s="74"/>
+      <c r="BA28" s="75"/>
+      <c r="BB28" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BC28" s="74"/>
+      <c r="BD28" s="74"/>
+      <c r="BE28" s="74"/>
+      <c r="BF28" s="74"/>
+      <c r="BG28" s="74"/>
+      <c r="BH28" s="74"/>
+      <c r="BI28" s="75"/>
+      <c r="BJ28" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BK28" s="74"/>
+      <c r="BL28" s="74"/>
+      <c r="BM28" s="74"/>
+      <c r="BN28" s="74"/>
+      <c r="BO28" s="74"/>
+      <c r="BP28" s="74"/>
+      <c r="BQ28" s="75"/>
+      <c r="BR28" s="73" t="s">
+        <v>42</v>
+      </c>
+      <c r="BS28" s="74"/>
+      <c r="BT28" s="74"/>
+      <c r="BU28" s="74"/>
+      <c r="BV28" s="74"/>
+      <c r="BW28" s="74"/>
+      <c r="BX28" s="74"/>
+      <c r="BY28" s="75"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="AT28:BA28"/>
+    <mergeCell ref="BB28:BI28"/>
+    <mergeCell ref="BJ28:BQ28"/>
+    <mergeCell ref="BR28:BY28"/>
+    <mergeCell ref="AT26:BQ26"/>
+    <mergeCell ref="BR26:BY26"/>
+    <mergeCell ref="AT21:BA21"/>
+    <mergeCell ref="BB21:BI21"/>
+    <mergeCell ref="BJ21:BQ21"/>
+    <mergeCell ref="BR21:BY21"/>
+    <mergeCell ref="AT19:BI19"/>
+    <mergeCell ref="BJ19:BY19"/>
+    <mergeCell ref="AT14:BA14"/>
+    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="BJ14:BQ14"/>
+    <mergeCell ref="BR14:BY14"/>
+    <mergeCell ref="BB12:BY12"/>
+    <mergeCell ref="AT12:BA12"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AN8"/>
+    <mergeCell ref="AO8:AQ8"/>
+    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AL6:AN6"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DF5AA0-B8E4-6B4D-A4F3-3DCEFC487B82}">
   <dimension ref="D2:AA12"/>
   <sheetViews>
@@ -5994,100 +9688,100 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="22" customHeight="1"/>
   <sheetData>
     <row r="2" spans="4:27" ht="22" customHeight="1">
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="10" t="s">
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="61"/>
+      <c r="J2" s="61"/>
+      <c r="K2" s="61"/>
+      <c r="L2" s="61"/>
+      <c r="M2" s="61"/>
+      <c r="N2" s="61"/>
+      <c r="O2" s="61"/>
+      <c r="P2" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="11"/>
-      <c r="T2" s="11"/>
-      <c r="U2" s="11"/>
-      <c r="V2" s="11"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
+      <c r="Q2" s="61"/>
+      <c r="R2" s="61"/>
+      <c r="S2" s="61"/>
+      <c r="T2" s="61"/>
+      <c r="U2" s="61"/>
+      <c r="V2" s="61"/>
+      <c r="W2" s="61"/>
+      <c r="X2" s="61"/>
+      <c r="Y2" s="61"/>
+      <c r="Z2" s="61"/>
+      <c r="AA2" s="61"/>
     </row>
     <row r="3" spans="4:27" ht="22" customHeight="1">
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
-      <c r="V3" s="11"/>
-      <c r="W3" s="11"/>
-      <c r="X3" s="11"/>
-      <c r="Y3" s="11"/>
-      <c r="Z3" s="11"/>
-      <c r="AA3" s="11"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="K3" s="61"/>
+      <c r="L3" s="61"/>
+      <c r="M3" s="61"/>
+      <c r="N3" s="61"/>
+      <c r="O3" s="61"/>
+      <c r="P3" s="61"/>
+      <c r="Q3" s="61"/>
+      <c r="R3" s="61"/>
+      <c r="S3" s="61"/>
+      <c r="T3" s="61"/>
+      <c r="U3" s="61"/>
+      <c r="V3" s="61"/>
+      <c r="W3" s="61"/>
+      <c r="X3" s="61"/>
+      <c r="Y3" s="61"/>
+      <c r="Z3" s="61"/>
+      <c r="AA3" s="61"/>
     </row>
     <row r="4" spans="4:27" ht="22" customHeight="1">
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="11"/>
-      <c r="T4" s="11"/>
-      <c r="U4" s="11"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="11"/>
-      <c r="X4" s="11"/>
-      <c r="Y4" s="11"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="11"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61"/>
+      <c r="J4" s="61"/>
+      <c r="K4" s="61"/>
+      <c r="L4" s="61"/>
+      <c r="M4" s="61"/>
+      <c r="N4" s="61"/>
+      <c r="O4" s="61"/>
+      <c r="P4" s="61"/>
+      <c r="Q4" s="61"/>
+      <c r="R4" s="61"/>
+      <c r="S4" s="61"/>
+      <c r="T4" s="61"/>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61"/>
+      <c r="X4" s="61"/>
+      <c r="Y4" s="61"/>
+      <c r="Z4" s="61"/>
+      <c r="AA4" s="61"/>
     </row>
     <row r="5" spans="4:27" ht="22" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="66"/>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
@@ -6112,121 +9806,121 @@
       <c r="O5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="20" t="s">
+      <c r="P5" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="21"/>
-      <c r="R5" s="21"/>
-      <c r="S5" s="21"/>
-      <c r="T5" s="21"/>
-      <c r="U5" s="21"/>
-      <c r="V5" s="21"/>
-      <c r="W5" s="21"/>
-      <c r="X5" s="21"/>
-      <c r="Y5" s="21"/>
-      <c r="Z5" s="21"/>
-      <c r="AA5" s="22"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="71"/>
+      <c r="Y5" s="71"/>
+      <c r="Z5" s="71"/>
+      <c r="AA5" s="72"/>
     </row>
     <row r="6" spans="4:27" ht="22" customHeight="1">
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="10" t="s">
+      <c r="E6" s="61"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
+      <c r="H6" s="61"/>
+      <c r="I6" s="61"/>
+      <c r="J6" s="61"/>
+      <c r="K6" s="61"/>
+      <c r="L6" s="61"/>
+      <c r="M6" s="61"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="61"/>
+      <c r="P6" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="11"/>
-      <c r="R6" s="11"/>
-      <c r="S6" s="11"/>
-      <c r="T6" s="11"/>
-      <c r="U6" s="11"/>
-      <c r="V6" s="11"/>
-      <c r="W6" s="11"/>
-      <c r="X6" s="11"/>
-      <c r="Y6" s="11"/>
-      <c r="Z6" s="11"/>
-      <c r="AA6" s="11"/>
+      <c r="Q6" s="61"/>
+      <c r="R6" s="61"/>
+      <c r="S6" s="61"/>
+      <c r="T6" s="61"/>
+      <c r="U6" s="61"/>
+      <c r="V6" s="61"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="61"/>
+      <c r="Y6" s="61"/>
+      <c r="Z6" s="61"/>
+      <c r="AA6" s="61"/>
     </row>
     <row r="7" spans="4:27" ht="22" customHeight="1">
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="14"/>
-      <c r="W7" s="12" t="s">
+      <c r="E7" s="63"/>
+      <c r="F7" s="63"/>
+      <c r="G7" s="63"/>
+      <c r="H7" s="63"/>
+      <c r="I7" s="63"/>
+      <c r="J7" s="63"/>
+      <c r="K7" s="63"/>
+      <c r="L7" s="63"/>
+      <c r="M7" s="63"/>
+      <c r="N7" s="63"/>
+      <c r="O7" s="63"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="63"/>
+      <c r="R7" s="63"/>
+      <c r="S7" s="63"/>
+      <c r="T7" s="63"/>
+      <c r="U7" s="63"/>
+      <c r="V7" s="64"/>
+      <c r="W7" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="15"/>
-      <c r="Y7" s="15"/>
-      <c r="Z7" s="15"/>
-      <c r="AA7" s="16"/>
+      <c r="X7" s="65"/>
+      <c r="Y7" s="65"/>
+      <c r="Z7" s="65"/>
+      <c r="AA7" s="66"/>
     </row>
     <row r="10" spans="4:27" ht="22" customHeight="1">
-      <c r="N10" s="12" t="s">
+      <c r="N10" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="13"/>
-      <c r="P10" s="14"/>
-      <c r="Q10" s="17" t="s">
+      <c r="O10" s="63"/>
+      <c r="P10" s="64"/>
+      <c r="Q10" s="67" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="18"/>
-      <c r="S10" s="18"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="19"/>
+      <c r="R10" s="68"/>
+      <c r="S10" s="68"/>
+      <c r="T10" s="68"/>
+      <c r="U10" s="68"/>
+      <c r="V10" s="68"/>
+      <c r="W10" s="68"/>
+      <c r="X10" s="69"/>
     </row>
     <row r="11" spans="4:27" ht="22" customHeight="1">
       <c r="N11" s="1"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="4:27" ht="22" customHeight="1">
-      <c r="K12" s="7" t="s">
+      <c r="K12" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="8"/>
-      <c r="M12" s="9"/>
-      <c r="N12" s="17" t="s">
+      <c r="L12" s="58"/>
+      <c r="M12" s="59"/>
+      <c r="N12" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="18"/>
-      <c r="P12" s="18"/>
-      <c r="Q12" s="18"/>
-      <c r="R12" s="18"/>
-      <c r="S12" s="18"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-      <c r="X12" s="19"/>
+      <c r="O12" s="68"/>
+      <c r="P12" s="68"/>
+      <c r="Q12" s="68"/>
+      <c r="R12" s="68"/>
+      <c r="S12" s="68"/>
+      <c r="T12" s="68"/>
+      <c r="U12" s="68"/>
+      <c r="V12" s="68"/>
+      <c r="W12" s="68"/>
+      <c r="X12" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6252,31 +9946,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <pixelatorList sheetStid="3"/>
   <pixelatorList sheetStid="7"/>
 </pixelators>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -6284,14 +9974,18 @@
 </settings>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <listFile/>
 </mergeFile>
 </file>
 
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6300,7 +9994,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6309,7 +10003,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6318,7 +10012,7 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6327,7 +10021,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -6336,7 +10030,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{2E4789E0-D42A-BE43-A8FB-A4826A51C522}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F5B53204-C0FD-6C45-81AA-5023AC717D5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="24380" windowHeight="12960" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="32660" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
@@ -8193,6 +8193,231 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>154101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="58" name="图片 57" descr="https://gimg2.baidu.com/image_search/src=http%3A%2F%2Fupload-images.jianshu.io%2Fupload_images%2F14699036-c1c512db446caab6&amp;refer=http%3A%2F%2Fupload-images.jianshu.io&amp;app=2002&amp;size=f9999,10000&amp;q=a80&amp;n=0&amp;g=0n&amp;fmt=auto?sec=1653290468&amp;t=4e8418982c04fc5822dd3b83a9999e6b">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4EA3F7F-37AF-FA42-B244-028764AC977B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8715375" y="6778625"/>
+          <a:ext cx="10699750" cy="7821726"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>65</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>111125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>74</xdr:col>
+      <xdr:colOff>111124</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="矩形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9C0B64-174F-4F40-BEAD-CB03F6947668}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17922874" y="14335125"/>
+          <a:ext cx="1539875" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>98425</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AAA5040-4DE5-804F-9C7A-FE37E1E0F4DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6810375" y="15525750"/>
+          <a:ext cx="9321800" cy="4330700"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>58</xdr:col>
+      <xdr:colOff>54750</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>197625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>92</xdr:col>
+      <xdr:colOff>280175</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>134125</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="图片 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C70D123-7A94-C04F-8E2F-B3BC3B161293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16612375" y="15310625"/>
+          <a:ext cx="8305800" cy="3048000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9204,10 +9429,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1023BE6-1DF7-8E4E-BE37-362FF7DE3590}">
-  <dimension ref="AF6:BY28"/>
+  <dimension ref="AF6:BY34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="M2" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="AV27" sqref="AV27"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="BD95" sqref="BD95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="18"/>
@@ -9636,6 +9861,9 @@
       <c r="BW28" s="74"/>
       <c r="BX28" s="74"/>
       <c r="BY28" s="75"/>
+    </row>
+    <row r="34" spans="33:33">
+      <c r="AG34"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F5B53204-C0FD-6C45-81AA-5023AC717D5B}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{425A8162-1591-5C4A-88B2-AE00D06B3AA9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="32660" windowHeight="20500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="940" yWindow="2700" windowWidth="32660" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
   <si>
     <t>IP Hedaer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -274,12 +274,105 @@
     <t>128~191</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>网络</t>
+    <rPh sb="0" eb="2">
+      <t>wang'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.169.1.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子网掩码</t>
+  </si>
+  <si>
+    <t>255.255.255.255</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下一跳</t>
+    <rPh sb="0" eb="2">
+      <t>xia'yi'tia</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>194.170.1.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定主机路由</t>
+    <rPh sb="0" eb="2">
+      <t>te'din</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.169.2.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网络路由</t>
+    <rPh sb="0" eb="2">
+      <t>wang'lu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.169.1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.169.2.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总路由</t>
+    <rPh sb="0" eb="2">
+      <t>hui'zon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认路由</t>
+    <rPh sb="0" eb="2">
+      <t>more</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.169.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.255.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>193.0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>255.0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -348,8 +441,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="4"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -401,6 +502,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF6D5FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -600,7 +713,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -649,6 +762,18 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -667,6 +792,33 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -676,19 +828,28 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -709,42 +870,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -763,13 +888,13 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -820,16 +945,10 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -8418,6 +8537,94 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E99F800-EF5E-8642-82B5-E7DB41019620}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="952500" y="21945600"/>
+          <a:ext cx="8242300" cy="4660900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>119</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{430F01DE-E62B-6747-8822-8DE60E58F958}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="469900" y="27266900"/>
+          <a:ext cx="9258300" cy="2451100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8897,226 +9104,226 @@
       <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="29"/>
-      <c r="N4" s="22">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="19"/>
+      <c r="N4" s="35">
         <v>4</v>
       </c>
-      <c r="O4" s="39" t="s">
+      <c r="O4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="40"/>
-      <c r="Q4" s="40"/>
-      <c r="R4" s="40"/>
-      <c r="S4" s="40"/>
-      <c r="T4" s="41"/>
-      <c r="X4" s="22">
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="34"/>
+      <c r="X4" s="35">
         <v>5</v>
       </c>
-      <c r="Y4" s="39" t="s">
+      <c r="Y4" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="40"/>
-      <c r="AA4" s="40"/>
-      <c r="AB4" s="40"/>
-      <c r="AC4" s="40"/>
-      <c r="AD4" s="41"/>
+      <c r="Z4" s="33"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="33"/>
+      <c r="AC4" s="33"/>
+      <c r="AD4" s="34"/>
     </row>
     <row r="5" spans="4:30" ht="27" customHeight="1">
       <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="32"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="42"/>
-      <c r="P5" s="43"/>
-      <c r="Q5" s="43"/>
-      <c r="R5" s="43"/>
-      <c r="S5" s="43"/>
-      <c r="T5" s="44"/>
-      <c r="X5" s="23"/>
-      <c r="Y5" s="42"/>
-      <c r="Z5" s="43"/>
-      <c r="AA5" s="43"/>
-      <c r="AB5" s="43"/>
-      <c r="AC5" s="43"/>
-      <c r="AD5" s="44"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="40"/>
+      <c r="X5" s="36"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="40"/>
     </row>
     <row r="6" spans="4:30" ht="27" customHeight="1">
       <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="49" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34"/>
-      <c r="I6" s="34"/>
-      <c r="J6" s="35"/>
-      <c r="N6" s="24"/>
-      <c r="O6" s="45"/>
-      <c r="P6" s="46"/>
-      <c r="Q6" s="46"/>
-      <c r="R6" s="46"/>
-      <c r="S6" s="46"/>
-      <c r="T6" s="47"/>
-      <c r="X6" s="24"/>
-      <c r="Y6" s="45"/>
-      <c r="Z6" s="46"/>
-      <c r="AA6" s="46"/>
-      <c r="AB6" s="46"/>
-      <c r="AC6" s="46"/>
-      <c r="AD6" s="47"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="51"/>
+      <c r="N6" s="37"/>
+      <c r="O6" s="41"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="43"/>
+      <c r="X6" s="37"/>
+      <c r="Y6" s="41"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="43"/>
     </row>
     <row r="7" spans="4:30" ht="27" customHeight="1">
       <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
       <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="O7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
-      <c r="R7" s="17"/>
-      <c r="S7" s="17"/>
-      <c r="T7" s="18"/>
+      <c r="P7" s="21"/>
+      <c r="Q7" s="21"/>
+      <c r="R7" s="21"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="22"/>
       <c r="X7" s="9">
         <v>4</v>
       </c>
-      <c r="Y7" s="16" t="s">
+      <c r="Y7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="17"/>
-      <c r="AA7" s="17"/>
-      <c r="AB7" s="17"/>
-      <c r="AC7" s="17"/>
-      <c r="AD7" s="18"/>
+      <c r="Z7" s="21"/>
+      <c r="AA7" s="21"/>
+      <c r="AB7" s="21"/>
+      <c r="AC7" s="21"/>
+      <c r="AD7" s="22"/>
     </row>
     <row r="8" spans="4:30" ht="27" customHeight="1">
       <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
       <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="19" t="s">
+      <c r="O8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="21"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
       <c r="X8" s="10">
         <v>3</v>
       </c>
-      <c r="Y8" s="19" t="s">
+      <c r="Y8" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="20"/>
-      <c r="AA8" s="20"/>
-      <c r="AB8" s="20"/>
-      <c r="AC8" s="20"/>
-      <c r="AD8" s="21"/>
+      <c r="Z8" s="24"/>
+      <c r="AA8" s="24"/>
+      <c r="AB8" s="24"/>
+      <c r="AC8" s="24"/>
+      <c r="AD8" s="25"/>
     </row>
     <row r="9" spans="4:30" ht="27" customHeight="1">
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="36" t="s">
+      <c r="E9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="38"/>
-      <c r="N9" s="25">
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="28"/>
+      <c r="N9" s="44">
         <v>1</v>
       </c>
-      <c r="O9" s="48" t="s">
+      <c r="O9" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="49"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="49"/>
-      <c r="S9" s="49"/>
-      <c r="T9" s="50"/>
+      <c r="P9" s="53"/>
+      <c r="Q9" s="53"/>
+      <c r="R9" s="53"/>
+      <c r="S9" s="53"/>
+      <c r="T9" s="54"/>
       <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="36" t="s">
+      <c r="Y9" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="37"/>
-      <c r="AB9" s="37"/>
-      <c r="AC9" s="37"/>
-      <c r="AD9" s="38"/>
+      <c r="Z9" s="27"/>
+      <c r="AA9" s="27"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="28"/>
     </row>
     <row r="10" spans="4:30" ht="27" customHeight="1">
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="56"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="51"/>
-      <c r="P10" s="52"/>
-      <c r="Q10" s="52"/>
-      <c r="R10" s="52"/>
-      <c r="S10" s="52"/>
-      <c r="T10" s="53"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="31"/>
+      <c r="N10" s="45"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="57"/>
       <c r="X10" s="11">
         <v>1</v>
       </c>
-      <c r="Y10" s="54" t="s">
+      <c r="Y10" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="55"/>
-      <c r="AA10" s="55"/>
-      <c r="AB10" s="55"/>
-      <c r="AC10" s="55"/>
-      <c r="AD10" s="56"/>
+      <c r="Z10" s="30"/>
+      <c r="AA10" s="30"/>
+      <c r="AB10" s="30"/>
+      <c r="AC10" s="30"/>
+      <c r="AD10" s="31"/>
     </row>
     <row r="12" spans="4:30">
       <c r="E12" s="7" t="s">
@@ -9133,14 +9340,14 @@
       <c r="D20" s="15">
         <v>5</v>
       </c>
-      <c r="E20" s="39" t="s">
+      <c r="E20" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="41"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="34"/>
       <c r="U20" s="8">
         <v>5</v>
       </c>
@@ -9150,27 +9357,27 @@
       <c r="AM20" s="15">
         <v>5</v>
       </c>
-      <c r="AN20" s="27" t="s">
+      <c r="AN20" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="AO20" s="28"/>
-      <c r="AP20" s="28"/>
-      <c r="AQ20" s="28"/>
-      <c r="AR20" s="28"/>
-      <c r="AS20" s="29"/>
+      <c r="AO20" s="18"/>
+      <c r="AP20" s="18"/>
+      <c r="AQ20" s="18"/>
+      <c r="AR20" s="18"/>
+      <c r="AS20" s="19"/>
     </row>
     <row r="21" spans="4:45" ht="29" customHeight="1">
       <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="16" t="s">
+      <c r="E21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="18"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="22"/>
       <c r="T21" s="9">
         <v>4</v>
       </c>
@@ -9186,27 +9393,27 @@
       <c r="AM21" s="9">
         <v>4</v>
       </c>
-      <c r="AN21" s="16" t="s">
+      <c r="AN21" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="AO21" s="17"/>
-      <c r="AP21" s="17"/>
-      <c r="AQ21" s="17"/>
-      <c r="AR21" s="17"/>
-      <c r="AS21" s="18"/>
+      <c r="AO21" s="21"/>
+      <c r="AP21" s="21"/>
+      <c r="AQ21" s="21"/>
+      <c r="AR21" s="21"/>
+      <c r="AS21" s="22"/>
     </row>
     <row r="22" spans="4:45" ht="29" customHeight="1">
       <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
       <c r="S22" s="10">
         <v>3</v>
       </c>
@@ -9228,27 +9435,27 @@
       <c r="AM22" s="10">
         <v>3</v>
       </c>
-      <c r="AN22" s="19" t="s">
+      <c r="AN22" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="AO22" s="20"/>
-      <c r="AP22" s="20"/>
-      <c r="AQ22" s="20"/>
-      <c r="AR22" s="20"/>
-      <c r="AS22" s="21"/>
+      <c r="AO22" s="24"/>
+      <c r="AP22" s="24"/>
+      <c r="AQ22" s="24"/>
+      <c r="AR22" s="24"/>
+      <c r="AS22" s="25"/>
     </row>
     <row r="23" spans="4:45" ht="29" customHeight="1">
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="36" t="s">
+      <c r="E23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="38"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="28"/>
       <c r="R23" s="12">
         <v>2</v>
       </c>
@@ -9282,27 +9489,27 @@
       <c r="AM23" s="12">
         <v>2</v>
       </c>
-      <c r="AN23" s="36" t="s">
+      <c r="AN23" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="AO23" s="37"/>
-      <c r="AP23" s="37"/>
-      <c r="AQ23" s="37"/>
-      <c r="AR23" s="37"/>
-      <c r="AS23" s="38"/>
+      <c r="AO23" s="27"/>
+      <c r="AP23" s="27"/>
+      <c r="AQ23" s="27"/>
+      <c r="AR23" s="27"/>
+      <c r="AS23" s="28"/>
     </row>
     <row r="24" spans="4:45" ht="29" customHeight="1">
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="56"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="31"/>
       <c r="Q24" s="11">
         <v>1</v>
       </c>
@@ -9342,14 +9549,14 @@
       <c r="AM24" s="11">
         <v>1</v>
       </c>
-      <c r="AN24" s="54" t="s">
+      <c r="AN24" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="AO24" s="55"/>
-      <c r="AP24" s="55"/>
-      <c r="AQ24" s="55"/>
-      <c r="AR24" s="55"/>
-      <c r="AS24" s="56"/>
+      <c r="AO24" s="30"/>
+      <c r="AP24" s="30"/>
+      <c r="AQ24" s="30"/>
+      <c r="AR24" s="30"/>
+      <c r="AS24" s="31"/>
     </row>
     <row r="26" spans="4:45" ht="29" customHeight="1">
       <c r="Q26" s="11">
@@ -9391,23 +9598,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AN20:AS20"/>
-    <mergeCell ref="AN21:AS21"/>
-    <mergeCell ref="AN22:AS22"/>
-    <mergeCell ref="AN23:AS23"/>
-    <mergeCell ref="AN24:AS24"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:AD6"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="Y9:AD9"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="N4:N6"/>
@@ -9420,6 +9610,23 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="O4:T6"/>
     <mergeCell ref="O9:T10"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="AN20:AS20"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AN22:AS22"/>
+    <mergeCell ref="AN23:AS23"/>
+    <mergeCell ref="AN24:AS24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9429,462 +9636,587 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1023BE6-1DF7-8E4E-BE37-362FF7DE3590}">
-  <dimension ref="AF6:BY34"/>
+  <dimension ref="AF6:CW98"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C51" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="BD95" sqref="BD95"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AM112" sqref="AM112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="45" width="4.1640625" style="7"/>
     <col min="46" max="77" width="2.33203125" style="7" customWidth="1"/>
-    <col min="78" max="16384" width="4.1640625" style="7"/>
+    <col min="78" max="94" width="4.1640625" style="7"/>
+    <col min="95" max="97" width="17" style="7" customWidth="1"/>
+    <col min="98" max="98" width="4.1640625" style="7"/>
+    <col min="99" max="101" width="17" style="7" customWidth="1"/>
+    <col min="102" max="16384" width="4.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="6" spans="32:77">
-      <c r="AF6" s="27" t="s">
+      <c r="AF6" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="AG6" s="28"/>
-      <c r="AH6" s="29"/>
-      <c r="AI6" s="27" t="s">
+      <c r="AG6" s="18"/>
+      <c r="AH6" s="19"/>
+      <c r="AI6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="AJ6" s="28"/>
-      <c r="AK6" s="29"/>
-      <c r="AL6" s="27" t="s">
+      <c r="AJ6" s="18"/>
+      <c r="AK6" s="19"/>
+      <c r="AL6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" s="28"/>
-      <c r="AN6" s="29"/>
-      <c r="AO6" s="27" t="s">
+      <c r="AM6" s="18"/>
+      <c r="AN6" s="19"/>
+      <c r="AO6" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="AP6" s="28"/>
-      <c r="AQ6" s="29"/>
+      <c r="AP6" s="18"/>
+      <c r="AQ6" s="19"/>
     </row>
     <row r="7" spans="32:77">
-      <c r="AF7" s="73" t="s">
+      <c r="AF7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AG7" s="74"/>
-      <c r="AH7" s="75"/>
-      <c r="AI7" s="73" t="s">
+      <c r="AG7" s="59"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AJ7" s="74"/>
-      <c r="AK7" s="75"/>
-      <c r="AL7" s="73" t="s">
+      <c r="AJ7" s="59"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AM7" s="74"/>
-      <c r="AN7" s="75"/>
-      <c r="AO7" s="73" t="s">
+      <c r="AM7" s="59"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="AP7" s="74"/>
-      <c r="AQ7" s="75"/>
+      <c r="AP7" s="59"/>
+      <c r="AQ7" s="60"/>
     </row>
     <row r="8" spans="32:77">
-      <c r="AF8" s="73">
+      <c r="AF8" s="58">
         <v>192</v>
       </c>
-      <c r="AG8" s="74"/>
-      <c r="AH8" s="75"/>
-      <c r="AI8" s="73">
+      <c r="AG8" s="59"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="58">
         <v>168</v>
       </c>
-      <c r="AJ8" s="74"/>
-      <c r="AK8" s="75"/>
-      <c r="AL8" s="73">
+      <c r="AJ8" s="59"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="58">
         <v>1</v>
       </c>
-      <c r="AM8" s="74"/>
-      <c r="AN8" s="75"/>
-      <c r="AO8" s="73">
+      <c r="AM8" s="59"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="58">
         <v>10</v>
       </c>
-      <c r="AP8" s="74"/>
-      <c r="AQ8" s="75"/>
+      <c r="AP8" s="59"/>
+      <c r="AQ8" s="60"/>
     </row>
     <row r="12" spans="32:77">
-      <c r="AT12" s="27" t="s">
+      <c r="AT12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AU12" s="28"/>
-      <c r="AV12" s="28"/>
-      <c r="AW12" s="28"/>
-      <c r="AX12" s="28"/>
-      <c r="AY12" s="28"/>
-      <c r="AZ12" s="28"/>
-      <c r="BA12" s="29"/>
-      <c r="BB12" s="54" t="s">
+      <c r="AU12" s="18"/>
+      <c r="AV12" s="18"/>
+      <c r="AW12" s="18"/>
+      <c r="AX12" s="18"/>
+      <c r="AY12" s="18"/>
+      <c r="AZ12" s="18"/>
+      <c r="BA12" s="19"/>
+      <c r="BB12" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="BC12" s="55"/>
-      <c r="BD12" s="55"/>
-      <c r="BE12" s="55"/>
-      <c r="BF12" s="55"/>
-      <c r="BG12" s="55"/>
-      <c r="BH12" s="55"/>
-      <c r="BI12" s="55"/>
-      <c r="BJ12" s="55"/>
-      <c r="BK12" s="55"/>
-      <c r="BL12" s="55"/>
-      <c r="BM12" s="55"/>
-      <c r="BN12" s="55"/>
-      <c r="BO12" s="55"/>
-      <c r="BP12" s="55"/>
-      <c r="BQ12" s="55"/>
-      <c r="BR12" s="55"/>
-      <c r="BS12" s="55"/>
-      <c r="BT12" s="55"/>
-      <c r="BU12" s="55"/>
-      <c r="BV12" s="55"/>
-      <c r="BW12" s="55"/>
-      <c r="BX12" s="55"/>
-      <c r="BY12" s="56"/>
+      <c r="BC12" s="30"/>
+      <c r="BD12" s="30"/>
+      <c r="BE12" s="30"/>
+      <c r="BF12" s="30"/>
+      <c r="BG12" s="30"/>
+      <c r="BH12" s="30"/>
+      <c r="BI12" s="30"/>
+      <c r="BJ12" s="30"/>
+      <c r="BK12" s="30"/>
+      <c r="BL12" s="30"/>
+      <c r="BM12" s="30"/>
+      <c r="BN12" s="30"/>
+      <c r="BO12" s="30"/>
+      <c r="BP12" s="30"/>
+      <c r="BQ12" s="30"/>
+      <c r="BR12" s="30"/>
+      <c r="BS12" s="30"/>
+      <c r="BT12" s="30"/>
+      <c r="BU12" s="30"/>
+      <c r="BV12" s="30"/>
+      <c r="BW12" s="30"/>
+      <c r="BX12" s="30"/>
+      <c r="BY12" s="31"/>
     </row>
     <row r="13" spans="32:77">
-      <c r="AT13" s="76">
+      <c r="AT13" s="16">
         <v>0</v>
       </c>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="76"/>
-      <c r="AX13" s="76"/>
-      <c r="AY13" s="76"/>
-      <c r="AZ13" s="76"/>
-      <c r="BA13" s="76"/>
-      <c r="BB13" s="76"/>
-      <c r="BC13" s="76"/>
-      <c r="BD13" s="76"/>
-      <c r="BE13" s="76"/>
-      <c r="BF13" s="76"/>
-      <c r="BG13" s="76"/>
-      <c r="BH13" s="76"/>
-      <c r="BI13" s="76"/>
-      <c r="BJ13" s="76"/>
-      <c r="BK13" s="76"/>
-      <c r="BL13" s="76"/>
-      <c r="BM13" s="76"/>
-      <c r="BN13" s="76"/>
-      <c r="BO13" s="76"/>
-      <c r="BP13" s="76"/>
-      <c r="BQ13" s="76"/>
-      <c r="BR13" s="76"/>
-      <c r="BS13" s="76"/>
-      <c r="BT13" s="76"/>
-      <c r="BU13" s="76"/>
-      <c r="BV13" s="76"/>
-      <c r="BW13" s="76"/>
-      <c r="BX13" s="76"/>
-      <c r="BY13" s="76"/>
+      <c r="AU13" s="16"/>
+      <c r="AV13" s="16"/>
+      <c r="AW13" s="16"/>
+      <c r="AX13" s="16"/>
+      <c r="AY13" s="16"/>
+      <c r="AZ13" s="16"/>
+      <c r="BA13" s="16"/>
+      <c r="BB13" s="16"/>
+      <c r="BC13" s="16"/>
+      <c r="BD13" s="16"/>
+      <c r="BE13" s="16"/>
+      <c r="BF13" s="16"/>
+      <c r="BG13" s="16"/>
+      <c r="BH13" s="16"/>
+      <c r="BI13" s="16"/>
+      <c r="BJ13" s="16"/>
+      <c r="BK13" s="16"/>
+      <c r="BL13" s="16"/>
+      <c r="BM13" s="16"/>
+      <c r="BN13" s="16"/>
+      <c r="BO13" s="16"/>
+      <c r="BP13" s="16"/>
+      <c r="BQ13" s="16"/>
+      <c r="BR13" s="16"/>
+      <c r="BS13" s="16"/>
+      <c r="BT13" s="16"/>
+      <c r="BU13" s="16"/>
+      <c r="BV13" s="16"/>
+      <c r="BW13" s="16"/>
+      <c r="BX13" s="16"/>
+      <c r="BY13" s="16"/>
     </row>
     <row r="14" spans="32:77">
-      <c r="AT14" s="73" t="s">
+      <c r="AT14" s="58" t="s">
         <v>41</v>
       </c>
-      <c r="AU14" s="74"/>
-      <c r="AV14" s="74"/>
-      <c r="AW14" s="74"/>
-      <c r="AX14" s="74"/>
-      <c r="AY14" s="74"/>
-      <c r="AZ14" s="74"/>
-      <c r="BA14" s="75"/>
-      <c r="BB14" s="73" t="s">
+      <c r="AU14" s="59"/>
+      <c r="AV14" s="59"/>
+      <c r="AW14" s="59"/>
+      <c r="AX14" s="59"/>
+      <c r="AY14" s="59"/>
+      <c r="AZ14" s="59"/>
+      <c r="BA14" s="60"/>
+      <c r="BB14" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BC14" s="74"/>
-      <c r="BD14" s="74"/>
-      <c r="BE14" s="74"/>
-      <c r="BF14" s="74"/>
-      <c r="BG14" s="74"/>
-      <c r="BH14" s="74"/>
-      <c r="BI14" s="75"/>
-      <c r="BJ14" s="73" t="s">
+      <c r="BC14" s="59"/>
+      <c r="BD14" s="59"/>
+      <c r="BE14" s="59"/>
+      <c r="BF14" s="59"/>
+      <c r="BG14" s="59"/>
+      <c r="BH14" s="59"/>
+      <c r="BI14" s="60"/>
+      <c r="BJ14" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BK14" s="74"/>
-      <c r="BL14" s="74"/>
-      <c r="BM14" s="74"/>
-      <c r="BN14" s="74"/>
-      <c r="BO14" s="74"/>
-      <c r="BP14" s="74"/>
-      <c r="BQ14" s="75"/>
-      <c r="BR14" s="73" t="s">
+      <c r="BK14" s="59"/>
+      <c r="BL14" s="59"/>
+      <c r="BM14" s="59"/>
+      <c r="BN14" s="59"/>
+      <c r="BO14" s="59"/>
+      <c r="BP14" s="59"/>
+      <c r="BQ14" s="60"/>
+      <c r="BR14" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BS14" s="74"/>
-      <c r="BT14" s="74"/>
-      <c r="BU14" s="74"/>
-      <c r="BV14" s="74"/>
-      <c r="BW14" s="74"/>
-      <c r="BX14" s="74"/>
-      <c r="BY14" s="75"/>
+      <c r="BS14" s="59"/>
+      <c r="BT14" s="59"/>
+      <c r="BU14" s="59"/>
+      <c r="BV14" s="59"/>
+      <c r="BW14" s="59"/>
+      <c r="BX14" s="59"/>
+      <c r="BY14" s="60"/>
     </row>
     <row r="19" spans="46:77">
-      <c r="AT19" s="27" t="s">
+      <c r="AT19" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AU19" s="28"/>
-      <c r="AV19" s="28"/>
-      <c r="AW19" s="28"/>
-      <c r="AX19" s="28"/>
-      <c r="AY19" s="28"/>
-      <c r="AZ19" s="28"/>
-      <c r="BA19" s="28"/>
-      <c r="BB19" s="28"/>
-      <c r="BC19" s="28"/>
-      <c r="BD19" s="28"/>
-      <c r="BE19" s="28"/>
-      <c r="BF19" s="28"/>
-      <c r="BG19" s="28"/>
-      <c r="BH19" s="28"/>
-      <c r="BI19" s="29"/>
-      <c r="BJ19" s="54" t="s">
+      <c r="AU19" s="18"/>
+      <c r="AV19" s="18"/>
+      <c r="AW19" s="18"/>
+      <c r="AX19" s="18"/>
+      <c r="AY19" s="18"/>
+      <c r="AZ19" s="18"/>
+      <c r="BA19" s="18"/>
+      <c r="BB19" s="18"/>
+      <c r="BC19" s="18"/>
+      <c r="BD19" s="18"/>
+      <c r="BE19" s="18"/>
+      <c r="BF19" s="18"/>
+      <c r="BG19" s="18"/>
+      <c r="BH19" s="18"/>
+      <c r="BI19" s="19"/>
+      <c r="BJ19" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="BK19" s="55"/>
-      <c r="BL19" s="55"/>
-      <c r="BM19" s="55"/>
-      <c r="BN19" s="55"/>
-      <c r="BO19" s="55"/>
-      <c r="BP19" s="55"/>
-      <c r="BQ19" s="55"/>
-      <c r="BR19" s="55"/>
-      <c r="BS19" s="55"/>
-      <c r="BT19" s="55"/>
-      <c r="BU19" s="55"/>
-      <c r="BV19" s="55"/>
-      <c r="BW19" s="55"/>
-      <c r="BX19" s="55"/>
-      <c r="BY19" s="56"/>
+      <c r="BK19" s="30"/>
+      <c r="BL19" s="30"/>
+      <c r="BM19" s="30"/>
+      <c r="BN19" s="30"/>
+      <c r="BO19" s="30"/>
+      <c r="BP19" s="30"/>
+      <c r="BQ19" s="30"/>
+      <c r="BR19" s="30"/>
+      <c r="BS19" s="30"/>
+      <c r="BT19" s="30"/>
+      <c r="BU19" s="30"/>
+      <c r="BV19" s="30"/>
+      <c r="BW19" s="30"/>
+      <c r="BX19" s="30"/>
+      <c r="BY19" s="31"/>
     </row>
     <row r="20" spans="46:77">
-      <c r="AT20" s="76">
+      <c r="AT20" s="16">
         <v>1</v>
       </c>
-      <c r="AU20" s="76">
+      <c r="AU20" s="16">
         <v>0</v>
       </c>
-      <c r="AV20" s="76"/>
-      <c r="AW20" s="76"/>
-      <c r="AX20" s="76"/>
-      <c r="AY20" s="76"/>
-      <c r="AZ20" s="76"/>
-      <c r="BA20" s="76"/>
-      <c r="BB20" s="76"/>
-      <c r="BC20" s="76"/>
-      <c r="BD20" s="76"/>
-      <c r="BE20" s="76"/>
-      <c r="BF20" s="76"/>
-      <c r="BG20" s="76"/>
-      <c r="BH20" s="76"/>
-      <c r="BI20" s="76"/>
-      <c r="BJ20" s="76"/>
-      <c r="BK20" s="76"/>
-      <c r="BL20" s="76"/>
-      <c r="BM20" s="76"/>
-      <c r="BN20" s="76"/>
-      <c r="BO20" s="76"/>
-      <c r="BP20" s="76"/>
-      <c r="BQ20" s="76"/>
-      <c r="BR20" s="76"/>
-      <c r="BS20" s="76"/>
-      <c r="BT20" s="76"/>
-      <c r="BU20" s="76"/>
-      <c r="BV20" s="76"/>
-      <c r="BW20" s="76"/>
-      <c r="BX20" s="76"/>
-      <c r="BY20" s="76"/>
+      <c r="AV20" s="16"/>
+      <c r="AW20" s="16"/>
+      <c r="AX20" s="16"/>
+      <c r="AY20" s="16"/>
+      <c r="AZ20" s="16"/>
+      <c r="BA20" s="16"/>
+      <c r="BB20" s="16"/>
+      <c r="BC20" s="16"/>
+      <c r="BD20" s="16"/>
+      <c r="BE20" s="16"/>
+      <c r="BF20" s="16"/>
+      <c r="BG20" s="16"/>
+      <c r="BH20" s="16"/>
+      <c r="BI20" s="16"/>
+      <c r="BJ20" s="16"/>
+      <c r="BK20" s="16"/>
+      <c r="BL20" s="16"/>
+      <c r="BM20" s="16"/>
+      <c r="BN20" s="16"/>
+      <c r="BO20" s="16"/>
+      <c r="BP20" s="16"/>
+      <c r="BQ20" s="16"/>
+      <c r="BR20" s="16"/>
+      <c r="BS20" s="16"/>
+      <c r="BT20" s="16"/>
+      <c r="BU20" s="16"/>
+      <c r="BV20" s="16"/>
+      <c r="BW20" s="16"/>
+      <c r="BX20" s="16"/>
+      <c r="BY20" s="16"/>
     </row>
     <row r="21" spans="46:77">
-      <c r="AT21" s="73" t="s">
+      <c r="AT21" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="AU21" s="74"/>
-      <c r="AV21" s="74"/>
-      <c r="AW21" s="74"/>
-      <c r="AX21" s="74"/>
-      <c r="AY21" s="74"/>
-      <c r="AZ21" s="74"/>
-      <c r="BA21" s="75"/>
-      <c r="BB21" s="73" t="s">
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="59"/>
+      <c r="AX21" s="59"/>
+      <c r="AY21" s="59"/>
+      <c r="AZ21" s="59"/>
+      <c r="BA21" s="60"/>
+      <c r="BB21" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BC21" s="74"/>
-      <c r="BD21" s="74"/>
-      <c r="BE21" s="74"/>
-      <c r="BF21" s="74"/>
-      <c r="BG21" s="74"/>
-      <c r="BH21" s="74"/>
-      <c r="BI21" s="75"/>
-      <c r="BJ21" s="73" t="s">
+      <c r="BC21" s="59"/>
+      <c r="BD21" s="59"/>
+      <c r="BE21" s="59"/>
+      <c r="BF21" s="59"/>
+      <c r="BG21" s="59"/>
+      <c r="BH21" s="59"/>
+      <c r="BI21" s="60"/>
+      <c r="BJ21" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BK21" s="74"/>
-      <c r="BL21" s="74"/>
-      <c r="BM21" s="74"/>
-      <c r="BN21" s="74"/>
-      <c r="BO21" s="74"/>
-      <c r="BP21" s="74"/>
-      <c r="BQ21" s="75"/>
-      <c r="BR21" s="73" t="s">
+      <c r="BK21" s="59"/>
+      <c r="BL21" s="59"/>
+      <c r="BM21" s="59"/>
+      <c r="BN21" s="59"/>
+      <c r="BO21" s="59"/>
+      <c r="BP21" s="59"/>
+      <c r="BQ21" s="60"/>
+      <c r="BR21" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BS21" s="74"/>
-      <c r="BT21" s="74"/>
-      <c r="BU21" s="74"/>
-      <c r="BV21" s="74"/>
-      <c r="BW21" s="74"/>
-      <c r="BX21" s="74"/>
-      <c r="BY21" s="75"/>
+      <c r="BS21" s="59"/>
+      <c r="BT21" s="59"/>
+      <c r="BU21" s="59"/>
+      <c r="BV21" s="59"/>
+      <c r="BW21" s="59"/>
+      <c r="BX21" s="59"/>
+      <c r="BY21" s="60"/>
     </row>
     <row r="26" spans="46:77">
-      <c r="AT26" s="27" t="s">
+      <c r="AT26" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="28"/>
-      <c r="AV26" s="28"/>
-      <c r="AW26" s="28"/>
-      <c r="AX26" s="28"/>
-      <c r="AY26" s="28"/>
-      <c r="AZ26" s="28"/>
-      <c r="BA26" s="28"/>
-      <c r="BB26" s="28"/>
-      <c r="BC26" s="28"/>
-      <c r="BD26" s="28"/>
-      <c r="BE26" s="28"/>
-      <c r="BF26" s="28"/>
-      <c r="BG26" s="28"/>
-      <c r="BH26" s="28"/>
-      <c r="BI26" s="28"/>
-      <c r="BJ26" s="28"/>
-      <c r="BK26" s="28"/>
-      <c r="BL26" s="28"/>
-      <c r="BM26" s="28"/>
-      <c r="BN26" s="28"/>
-      <c r="BO26" s="28"/>
-      <c r="BP26" s="28"/>
-      <c r="BQ26" s="29"/>
-      <c r="BR26" s="54" t="s">
+      <c r="AU26" s="18"/>
+      <c r="AV26" s="18"/>
+      <c r="AW26" s="18"/>
+      <c r="AX26" s="18"/>
+      <c r="AY26" s="18"/>
+      <c r="AZ26" s="18"/>
+      <c r="BA26" s="18"/>
+      <c r="BB26" s="18"/>
+      <c r="BC26" s="18"/>
+      <c r="BD26" s="18"/>
+      <c r="BE26" s="18"/>
+      <c r="BF26" s="18"/>
+      <c r="BG26" s="18"/>
+      <c r="BH26" s="18"/>
+      <c r="BI26" s="18"/>
+      <c r="BJ26" s="18"/>
+      <c r="BK26" s="18"/>
+      <c r="BL26" s="18"/>
+      <c r="BM26" s="18"/>
+      <c r="BN26" s="18"/>
+      <c r="BO26" s="18"/>
+      <c r="BP26" s="18"/>
+      <c r="BQ26" s="19"/>
+      <c r="BR26" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="BS26" s="55"/>
-      <c r="BT26" s="55"/>
-      <c r="BU26" s="55"/>
-      <c r="BV26" s="55"/>
-      <c r="BW26" s="55"/>
-      <c r="BX26" s="55"/>
-      <c r="BY26" s="56"/>
+      <c r="BS26" s="30"/>
+      <c r="BT26" s="30"/>
+      <c r="BU26" s="30"/>
+      <c r="BV26" s="30"/>
+      <c r="BW26" s="30"/>
+      <c r="BX26" s="30"/>
+      <c r="BY26" s="31"/>
     </row>
     <row r="27" spans="46:77">
-      <c r="AT27" s="76">
+      <c r="AT27" s="16">
         <v>1</v>
       </c>
-      <c r="AU27" s="76">
+      <c r="AU27" s="16">
         <v>1</v>
       </c>
-      <c r="AV27" s="76">
+      <c r="AV27" s="16">
         <v>0</v>
       </c>
-      <c r="AW27" s="76"/>
-      <c r="AX27" s="76"/>
-      <c r="AY27" s="76"/>
-      <c r="AZ27" s="76"/>
-      <c r="BA27" s="76"/>
-      <c r="BB27" s="76"/>
-      <c r="BC27" s="76"/>
-      <c r="BD27" s="76"/>
-      <c r="BE27" s="76"/>
-      <c r="BF27" s="76"/>
-      <c r="BG27" s="76"/>
-      <c r="BH27" s="76"/>
-      <c r="BI27" s="76"/>
-      <c r="BJ27" s="76"/>
-      <c r="BK27" s="76"/>
-      <c r="BL27" s="76"/>
-      <c r="BM27" s="76"/>
-      <c r="BN27" s="76"/>
-      <c r="BO27" s="76"/>
-      <c r="BP27" s="76"/>
-      <c r="BQ27" s="76"/>
-      <c r="BR27" s="76"/>
-      <c r="BS27" s="76"/>
-      <c r="BT27" s="76"/>
-      <c r="BU27" s="76"/>
-      <c r="BV27" s="76"/>
-      <c r="BW27" s="76"/>
-      <c r="BX27" s="76"/>
-      <c r="BY27" s="76"/>
+      <c r="AW27" s="16"/>
+      <c r="AX27" s="16"/>
+      <c r="AY27" s="16"/>
+      <c r="AZ27" s="16"/>
+      <c r="BA27" s="16"/>
+      <c r="BB27" s="16"/>
+      <c r="BC27" s="16"/>
+      <c r="BD27" s="16"/>
+      <c r="BE27" s="16"/>
+      <c r="BF27" s="16"/>
+      <c r="BG27" s="16"/>
+      <c r="BH27" s="16"/>
+      <c r="BI27" s="16"/>
+      <c r="BJ27" s="16"/>
+      <c r="BK27" s="16"/>
+      <c r="BL27" s="16"/>
+      <c r="BM27" s="16"/>
+      <c r="BN27" s="16"/>
+      <c r="BO27" s="16"/>
+      <c r="BP27" s="16"/>
+      <c r="BQ27" s="16"/>
+      <c r="BR27" s="16"/>
+      <c r="BS27" s="16"/>
+      <c r="BT27" s="16"/>
+      <c r="BU27" s="16"/>
+      <c r="BV27" s="16"/>
+      <c r="BW27" s="16"/>
+      <c r="BX27" s="16"/>
+      <c r="BY27" s="16"/>
     </row>
     <row r="28" spans="46:77">
-      <c r="AT28" s="73" t="s">
+      <c r="AT28" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="AU28" s="74"/>
-      <c r="AV28" s="74"/>
-      <c r="AW28" s="74"/>
-      <c r="AX28" s="74"/>
-      <c r="AY28" s="74"/>
-      <c r="AZ28" s="74"/>
-      <c r="BA28" s="75"/>
-      <c r="BB28" s="73" t="s">
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="59"/>
+      <c r="AX28" s="59"/>
+      <c r="AY28" s="59"/>
+      <c r="AZ28" s="59"/>
+      <c r="BA28" s="60"/>
+      <c r="BB28" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BC28" s="74"/>
-      <c r="BD28" s="74"/>
-      <c r="BE28" s="74"/>
-      <c r="BF28" s="74"/>
-      <c r="BG28" s="74"/>
-      <c r="BH28" s="74"/>
-      <c r="BI28" s="75"/>
-      <c r="BJ28" s="73" t="s">
+      <c r="BC28" s="59"/>
+      <c r="BD28" s="59"/>
+      <c r="BE28" s="59"/>
+      <c r="BF28" s="59"/>
+      <c r="BG28" s="59"/>
+      <c r="BH28" s="59"/>
+      <c r="BI28" s="60"/>
+      <c r="BJ28" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BK28" s="74"/>
-      <c r="BL28" s="74"/>
-      <c r="BM28" s="74"/>
-      <c r="BN28" s="74"/>
-      <c r="BO28" s="74"/>
-      <c r="BP28" s="74"/>
-      <c r="BQ28" s="75"/>
-      <c r="BR28" s="73" t="s">
+      <c r="BK28" s="59"/>
+      <c r="BL28" s="59"/>
+      <c r="BM28" s="59"/>
+      <c r="BN28" s="59"/>
+      <c r="BO28" s="59"/>
+      <c r="BP28" s="59"/>
+      <c r="BQ28" s="60"/>
+      <c r="BR28" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="BS28" s="74"/>
-      <c r="BT28" s="74"/>
-      <c r="BU28" s="74"/>
-      <c r="BV28" s="74"/>
-      <c r="BW28" s="74"/>
-      <c r="BX28" s="74"/>
-      <c r="BY28" s="75"/>
+      <c r="BS28" s="59"/>
+      <c r="BT28" s="59"/>
+      <c r="BU28" s="59"/>
+      <c r="BV28" s="59"/>
+      <c r="BW28" s="59"/>
+      <c r="BX28" s="59"/>
+      <c r="BY28" s="60"/>
     </row>
     <row r="34" spans="33:33">
       <c r="AG34"/>
     </row>
+    <row r="90" spans="95:101">
+      <c r="CQ90" s="77" t="s">
+        <v>51</v>
+      </c>
+      <c r="CR90" s="77"/>
+      <c r="CS90" s="77"/>
+      <c r="CU90" s="77" t="s">
+        <v>53</v>
+      </c>
+      <c r="CV90" s="77"/>
+      <c r="CW90" s="77"/>
+    </row>
+    <row r="91" spans="95:101">
+      <c r="CQ91" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="CR91" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS91" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU91" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV91" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="CW91" s="78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="95:101">
+      <c r="CQ92" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="CR92" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS92" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CU92" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="CV92" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW92" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="93" spans="95:101">
+      <c r="CQ93" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="CR93" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="CS93" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CU93" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="CV93" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="CW93" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="95" spans="95:101">
+      <c r="CQ95" s="77" t="s">
+        <v>57</v>
+      </c>
+      <c r="CR95" s="77"/>
+      <c r="CS95" s="77"/>
+      <c r="CU95" s="77" t="s">
+        <v>58</v>
+      </c>
+      <c r="CV95" s="77"/>
+      <c r="CW95" s="77"/>
+    </row>
+    <row r="96" spans="95:101">
+      <c r="CQ96" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="CR96" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="CS96" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="CU96" s="78" t="s">
+        <v>45</v>
+      </c>
+      <c r="CV96" s="78" t="s">
+        <v>47</v>
+      </c>
+      <c r="CW96" s="78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="95:101">
+      <c r="CQ97" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="CR97" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="CS97" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="CU97" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="CV97" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="CW97" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="98" spans="95:101">
+      <c r="CQ98" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="CR98" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="CS98" s="16" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AT28:BA28"/>
-    <mergeCell ref="BB28:BI28"/>
-    <mergeCell ref="BJ28:BQ28"/>
-    <mergeCell ref="BR28:BY28"/>
-    <mergeCell ref="AT26:BQ26"/>
-    <mergeCell ref="BR26:BY26"/>
-    <mergeCell ref="AT21:BA21"/>
-    <mergeCell ref="BB21:BI21"/>
-    <mergeCell ref="BJ21:BQ21"/>
-    <mergeCell ref="BR21:BY21"/>
-    <mergeCell ref="AT19:BI19"/>
-    <mergeCell ref="BJ19:BY19"/>
-    <mergeCell ref="AT14:BA14"/>
-    <mergeCell ref="BB14:BI14"/>
-    <mergeCell ref="BJ14:BQ14"/>
-    <mergeCell ref="BR14:BY14"/>
-    <mergeCell ref="BB12:BY12"/>
-    <mergeCell ref="AT12:BA12"/>
+  <mergeCells count="34">
+    <mergeCell ref="CQ90:CS90"/>
+    <mergeCell ref="CU90:CW90"/>
+    <mergeCell ref="CQ95:CS95"/>
+    <mergeCell ref="CU95:CW95"/>
     <mergeCell ref="AO6:AQ6"/>
     <mergeCell ref="AO7:AQ7"/>
     <mergeCell ref="AF8:AH8"/>
@@ -9897,6 +10229,24 @@
     <mergeCell ref="AF6:AH6"/>
     <mergeCell ref="AI6:AK6"/>
     <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AT14:BA14"/>
+    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="BJ14:BQ14"/>
+    <mergeCell ref="BR14:BY14"/>
+    <mergeCell ref="BB12:BY12"/>
+    <mergeCell ref="AT12:BA12"/>
+    <mergeCell ref="AT21:BA21"/>
+    <mergeCell ref="BB21:BI21"/>
+    <mergeCell ref="BJ21:BQ21"/>
+    <mergeCell ref="BR21:BY21"/>
+    <mergeCell ref="AT19:BI19"/>
+    <mergeCell ref="BJ19:BY19"/>
+    <mergeCell ref="AT28:BA28"/>
+    <mergeCell ref="BB28:BI28"/>
+    <mergeCell ref="BJ28:BQ28"/>
+    <mergeCell ref="BR28:BY28"/>
+    <mergeCell ref="AT26:BQ26"/>
+    <mergeCell ref="BR26:BY26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9916,100 +10266,100 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="22" customHeight="1"/>
   <sheetData>
     <row r="2" spans="4:27" ht="22" customHeight="1">
-      <c r="D2" s="60" t="s">
+      <c r="D2" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="61"/>
-      <c r="L2" s="61"/>
-      <c r="M2" s="61"/>
-      <c r="N2" s="61"/>
-      <c r="O2" s="61"/>
-      <c r="P2" s="60" t="s">
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="61"/>
-      <c r="R2" s="61"/>
-      <c r="S2" s="61"/>
-      <c r="T2" s="61"/>
-      <c r="U2" s="61"/>
-      <c r="V2" s="61"/>
-      <c r="W2" s="61"/>
-      <c r="X2" s="61"/>
-      <c r="Y2" s="61"/>
-      <c r="Z2" s="61"/>
-      <c r="AA2" s="61"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
     </row>
     <row r="3" spans="4:27" ht="22" customHeight="1">
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="61"/>
-      <c r="F3" s="61"/>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
-      <c r="I3" s="61"/>
-      <c r="J3" s="61"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="61"/>
-      <c r="M3" s="61"/>
-      <c r="N3" s="61"/>
-      <c r="O3" s="61"/>
-      <c r="P3" s="61"/>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="61"/>
-      <c r="S3" s="61"/>
-      <c r="T3" s="61"/>
-      <c r="U3" s="61"/>
-      <c r="V3" s="61"/>
-      <c r="W3" s="61"/>
-      <c r="X3" s="61"/>
-      <c r="Y3" s="61"/>
-      <c r="Z3" s="61"/>
-      <c r="AA3" s="61"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
     </row>
     <row r="4" spans="4:27" ht="22" customHeight="1">
-      <c r="D4" s="60" t="s">
+      <c r="D4" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="61"/>
-      <c r="F4" s="61"/>
-      <c r="G4" s="61"/>
-      <c r="H4" s="61"/>
-      <c r="I4" s="61"/>
-      <c r="J4" s="61"/>
-      <c r="K4" s="61"/>
-      <c r="L4" s="61"/>
-      <c r="M4" s="61"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="61"/>
-      <c r="P4" s="61"/>
-      <c r="Q4" s="61"/>
-      <c r="R4" s="61"/>
-      <c r="S4" s="61"/>
-      <c r="T4" s="61"/>
-      <c r="U4" s="61"/>
-      <c r="V4" s="61"/>
-      <c r="W4" s="61"/>
-      <c r="X4" s="61"/>
-      <c r="Y4" s="61"/>
-      <c r="Z4" s="61"/>
-      <c r="AA4" s="61"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="65"/>
+      <c r="P4" s="65"/>
+      <c r="Q4" s="65"/>
+      <c r="R4" s="65"/>
+      <c r="S4" s="65"/>
+      <c r="T4" s="65"/>
+      <c r="U4" s="65"/>
+      <c r="V4" s="65"/>
+      <c r="W4" s="65"/>
+      <c r="X4" s="65"/>
+      <c r="Y4" s="65"/>
+      <c r="Z4" s="65"/>
+      <c r="AA4" s="65"/>
     </row>
     <row r="5" spans="4:27" ht="22" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="66" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="66"/>
+      <c r="G5" s="70"/>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
@@ -10034,121 +10384,121 @@
       <c r="O5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="70" t="s">
+      <c r="P5" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="71"/>
-      <c r="R5" s="71"/>
-      <c r="S5" s="71"/>
-      <c r="T5" s="71"/>
-      <c r="U5" s="71"/>
-      <c r="V5" s="71"/>
-      <c r="W5" s="71"/>
-      <c r="X5" s="71"/>
-      <c r="Y5" s="71"/>
-      <c r="Z5" s="71"/>
-      <c r="AA5" s="72"/>
+      <c r="Q5" s="75"/>
+      <c r="R5" s="75"/>
+      <c r="S5" s="75"/>
+      <c r="T5" s="75"/>
+      <c r="U5" s="75"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
+      <c r="Z5" s="75"/>
+      <c r="AA5" s="76"/>
     </row>
     <row r="6" spans="4:27" ht="22" customHeight="1">
-      <c r="D6" s="60" t="s">
+      <c r="D6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="61"/>
-      <c r="M6" s="61"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="61"/>
-      <c r="P6" s="60" t="s">
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="65"/>
+      <c r="J6" s="65"/>
+      <c r="K6" s="65"/>
+      <c r="L6" s="65"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="65"/>
+      <c r="O6" s="65"/>
+      <c r="P6" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="61"/>
-      <c r="R6" s="61"/>
-      <c r="S6" s="61"/>
-      <c r="T6" s="61"/>
-      <c r="U6" s="61"/>
-      <c r="V6" s="61"/>
-      <c r="W6" s="61"/>
-      <c r="X6" s="61"/>
-      <c r="Y6" s="61"/>
-      <c r="Z6" s="61"/>
-      <c r="AA6" s="61"/>
+      <c r="Q6" s="65"/>
+      <c r="R6" s="65"/>
+      <c r="S6" s="65"/>
+      <c r="T6" s="65"/>
+      <c r="U6" s="65"/>
+      <c r="V6" s="65"/>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="65"/>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="65"/>
     </row>
     <row r="7" spans="4:27" ht="22" customHeight="1">
-      <c r="D7" s="62" t="s">
+      <c r="D7" s="66" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="63"/>
-      <c r="F7" s="63"/>
-      <c r="G7" s="63"/>
-      <c r="H7" s="63"/>
-      <c r="I7" s="63"/>
-      <c r="J7" s="63"/>
-      <c r="K7" s="63"/>
-      <c r="L7" s="63"/>
-      <c r="M7" s="63"/>
-      <c r="N7" s="63"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="63"/>
-      <c r="Q7" s="63"/>
-      <c r="R7" s="63"/>
-      <c r="S7" s="63"/>
-      <c r="T7" s="63"/>
-      <c r="U7" s="63"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="62" t="s">
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
+      <c r="J7" s="67"/>
+      <c r="K7" s="67"/>
+      <c r="L7" s="67"/>
+      <c r="M7" s="67"/>
+      <c r="N7" s="67"/>
+      <c r="O7" s="67"/>
+      <c r="P7" s="67"/>
+      <c r="Q7" s="67"/>
+      <c r="R7" s="67"/>
+      <c r="S7" s="67"/>
+      <c r="T7" s="67"/>
+      <c r="U7" s="67"/>
+      <c r="V7" s="68"/>
+      <c r="W7" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="65"/>
-      <c r="Y7" s="65"/>
-      <c r="Z7" s="65"/>
-      <c r="AA7" s="66"/>
+      <c r="X7" s="69"/>
+      <c r="Y7" s="69"/>
+      <c r="Z7" s="69"/>
+      <c r="AA7" s="70"/>
     </row>
     <row r="10" spans="4:27" ht="22" customHeight="1">
-      <c r="N10" s="62" t="s">
+      <c r="N10" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="63"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="67" t="s">
+      <c r="O10" s="67"/>
+      <c r="P10" s="68"/>
+      <c r="Q10" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="68"/>
-      <c r="T10" s="68"/>
-      <c r="U10" s="68"/>
-      <c r="V10" s="68"/>
-      <c r="W10" s="68"/>
-      <c r="X10" s="69"/>
+      <c r="R10" s="72"/>
+      <c r="S10" s="72"/>
+      <c r="T10" s="72"/>
+      <c r="U10" s="72"/>
+      <c r="V10" s="72"/>
+      <c r="W10" s="72"/>
+      <c r="X10" s="73"/>
     </row>
     <row r="11" spans="4:27" ht="22" customHeight="1">
       <c r="N11" s="1"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="4:27" ht="22" customHeight="1">
-      <c r="K12" s="57" t="s">
+      <c r="K12" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="58"/>
-      <c r="M12" s="59"/>
-      <c r="N12" s="67" t="s">
+      <c r="L12" s="62"/>
+      <c r="M12" s="63"/>
+      <c r="N12" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
-      <c r="R12" s="68"/>
-      <c r="S12" s="68"/>
-      <c r="T12" s="68"/>
-      <c r="U12" s="68"/>
-      <c r="V12" s="68"/>
-      <c r="W12" s="68"/>
-      <c r="X12" s="69"/>
+      <c r="O12" s="72"/>
+      <c r="P12" s="72"/>
+      <c r="Q12" s="72"/>
+      <c r="R12" s="72"/>
+      <c r="S12" s="72"/>
+      <c r="T12" s="72"/>
+      <c r="U12" s="72"/>
+      <c r="V12" s="72"/>
+      <c r="W12" s="72"/>
+      <c r="X12" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10181,17 +10531,13 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10203,13 +10549,17 @@
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10222,7 +10572,7 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -10231,7 +10581,7 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -10249,7 +10599,7 @@
 </file>
 
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -10258,7 +10608,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{425A8162-1591-5C4A-88B2-AE00D06B3AA9}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DCE089D-B972-E44D-B848-7F12D0841F3A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="940" yWindow="2700" windowWidth="32660" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2700" windowWidth="32660" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
     <sheet name="OSI" sheetId="42" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="43" r:id="rId3"/>
+    <sheet name="internet" sheetId="43" r:id="rId3"/>
     <sheet name="TCP" sheetId="41" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
   <si>
     <t>IP Hedaer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -365,6 +365,129 @@
   </si>
   <si>
     <t>0.0.0.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连接性</t>
+    <rPh sb="0" eb="2">
+      <t>lian'jie'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠性</t>
+    <rPh sb="0" eb="2">
+      <t>ke'kao'xin</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首部占用空间</t>
+    <rPh sb="0" eb="11">
+      <t>shou'b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输速率</t>
+    <rPh sb="0" eb="2">
+      <t>chuan'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资源消耗</t>
+    <rPh sb="0" eb="2">
+      <t>zi'yua</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用场景</t>
+    <rPh sb="0" eb="2">
+      <t>ying'yon</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序协议</t>
+    <rPh sb="0" eb="2">
+      <t>ying'yong'chen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面向链接</t>
+    <rPh sb="0" eb="2">
+      <t>mian'xian</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无连接</t>
+    <rPh sb="0" eb="2">
+      <t>wu'lian'ji</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可靠传输，不丢包</t>
+    <rPh sb="0" eb="2">
+      <t>ke'kao'chuan'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不可靠传输，尽最大努力交付，可能丢包</t>
+    <rPh sb="0" eb="2">
+      <t>bu'ke'kao'chuan'sh</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>慢</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游览器，文件传输，邮件发送</t>
+    <rPh sb="0" eb="2">
+      <t>you'lan'q</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTTP，HTTPS，FTP，DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音视频通话，直播</t>
+    <rPh sb="0" eb="2">
+      <t>yin'shi'pi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DNS</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -713,7 +836,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -765,13 +888,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,6 +909,48 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -801,15 +960,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -817,15 +967,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -846,30 +987,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -886,6 +1003,18 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -945,11 +1074,8 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9104,226 +9230,226 @@
       <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="19"/>
-      <c r="N4" s="35">
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="J4" s="31"/>
+      <c r="N4" s="24">
         <v>4</v>
       </c>
-      <c r="O4" s="32" t="s">
+      <c r="O4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
-      <c r="R4" s="33"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="34"/>
-      <c r="X4" s="35">
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="43"/>
+      <c r="X4" s="24">
         <v>5</v>
       </c>
-      <c r="Y4" s="32" t="s">
+      <c r="Y4" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="33"/>
-      <c r="AA4" s="33"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="33"/>
-      <c r="AD4" s="34"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="43"/>
     </row>
     <row r="5" spans="4:30" ht="27" customHeight="1">
       <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="46" t="s">
+      <c r="E5" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="48"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="38"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="40"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="38"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="40"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
+      <c r="N5" s="25"/>
+      <c r="O5" s="44"/>
+      <c r="P5" s="45"/>
+      <c r="Q5" s="45"/>
+      <c r="R5" s="45"/>
+      <c r="S5" s="45"/>
+      <c r="T5" s="46"/>
+      <c r="X5" s="25"/>
+      <c r="Y5" s="44"/>
+      <c r="Z5" s="45"/>
+      <c r="AA5" s="45"/>
+      <c r="AB5" s="45"/>
+      <c r="AC5" s="45"/>
+      <c r="AD5" s="46"/>
     </row>
     <row r="6" spans="4:30" ht="27" customHeight="1">
       <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="35" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="41"/>
-      <c r="P6" s="42"/>
-      <c r="Q6" s="42"/>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="43"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="41"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="43"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="37"/>
+      <c r="N6" s="26"/>
+      <c r="O6" s="47"/>
+      <c r="P6" s="48"/>
+      <c r="Q6" s="48"/>
+      <c r="R6" s="48"/>
+      <c r="S6" s="48"/>
+      <c r="T6" s="49"/>
+      <c r="X6" s="26"/>
+      <c r="Y6" s="47"/>
+      <c r="Z6" s="48"/>
+      <c r="AA6" s="48"/>
+      <c r="AB6" s="48"/>
+      <c r="AC6" s="48"/>
+      <c r="AD6" s="49"/>
     </row>
     <row r="7" spans="4:30" ht="27" customHeight="1">
       <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="20"/>
       <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="20" t="s">
+      <c r="O7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="21"/>
-      <c r="Q7" s="21"/>
-      <c r="R7" s="21"/>
-      <c r="S7" s="21"/>
-      <c r="T7" s="22"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="19"/>
+      <c r="R7" s="19"/>
+      <c r="S7" s="19"/>
+      <c r="T7" s="20"/>
       <c r="X7" s="9">
         <v>4</v>
       </c>
-      <c r="Y7" s="20" t="s">
+      <c r="Y7" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="21"/>
-      <c r="AA7" s="21"/>
-      <c r="AB7" s="21"/>
-      <c r="AC7" s="21"/>
-      <c r="AD7" s="22"/>
+      <c r="Z7" s="19"/>
+      <c r="AA7" s="19"/>
+      <c r="AB7" s="19"/>
+      <c r="AC7" s="19"/>
+      <c r="AD7" s="20"/>
     </row>
     <row r="8" spans="4:30" ht="27" customHeight="1">
       <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="23" t="s">
+      <c r="E8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="25"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="23"/>
       <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="23" t="s">
+      <c r="O8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="24"/>
-      <c r="Q8" s="24"/>
-      <c r="R8" s="24"/>
-      <c r="S8" s="24"/>
-      <c r="T8" s="25"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="23"/>
       <c r="X8" s="10">
         <v>3</v>
       </c>
-      <c r="Y8" s="23" t="s">
+      <c r="Y8" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="24"/>
-      <c r="AA8" s="24"/>
-      <c r="AB8" s="24"/>
-      <c r="AC8" s="24"/>
-      <c r="AD8" s="25"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="23"/>
     </row>
     <row r="9" spans="4:30" ht="27" customHeight="1">
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="28"/>
-      <c r="N9" s="44">
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
+      <c r="N9" s="27">
         <v>1</v>
       </c>
-      <c r="O9" s="52" t="s">
+      <c r="O9" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
-      <c r="S9" s="53"/>
-      <c r="T9" s="54"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
+      <c r="R9" s="51"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
       <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="26" t="s">
+      <c r="Y9" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="27"/>
-      <c r="AA9" s="27"/>
-      <c r="AB9" s="27"/>
-      <c r="AC9" s="27"/>
-      <c r="AD9" s="28"/>
+      <c r="Z9" s="39"/>
+      <c r="AA9" s="39"/>
+      <c r="AB9" s="39"/>
+      <c r="AC9" s="39"/>
+      <c r="AD9" s="40"/>
     </row>
     <row r="10" spans="4:30" ht="27" customHeight="1">
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="31"/>
-      <c r="N10" s="45"/>
-      <c r="O10" s="55"/>
-      <c r="P10" s="56"/>
-      <c r="Q10" s="56"/>
-      <c r="R10" s="56"/>
-      <c r="S10" s="56"/>
-      <c r="T10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="58"/>
+      <c r="N10" s="28"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="54"/>
+      <c r="T10" s="55"/>
       <c r="X10" s="11">
         <v>1</v>
       </c>
-      <c r="Y10" s="29" t="s">
+      <c r="Y10" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="30"/>
-      <c r="AA10" s="30"/>
-      <c r="AB10" s="30"/>
-      <c r="AC10" s="30"/>
-      <c r="AD10" s="31"/>
+      <c r="Z10" s="57"/>
+      <c r="AA10" s="57"/>
+      <c r="AB10" s="57"/>
+      <c r="AC10" s="57"/>
+      <c r="AD10" s="58"/>
     </row>
     <row r="12" spans="4:30">
       <c r="E12" s="7" t="s">
@@ -9340,14 +9466,14 @@
       <c r="D20" s="15">
         <v>5</v>
       </c>
-      <c r="E20" s="32" t="s">
+      <c r="E20" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="33"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="34"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="43"/>
       <c r="U20" s="8">
         <v>5</v>
       </c>
@@ -9357,27 +9483,27 @@
       <c r="AM20" s="15">
         <v>5</v>
       </c>
-      <c r="AN20" s="17" t="s">
+      <c r="AN20" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="AO20" s="18"/>
-      <c r="AP20" s="18"/>
-      <c r="AQ20" s="18"/>
-      <c r="AR20" s="18"/>
-      <c r="AS20" s="19"/>
+      <c r="AO20" s="30"/>
+      <c r="AP20" s="30"/>
+      <c r="AQ20" s="30"/>
+      <c r="AR20" s="30"/>
+      <c r="AS20" s="31"/>
     </row>
     <row r="21" spans="4:45" ht="29" customHeight="1">
       <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="21"/>
-      <c r="G21" s="21"/>
-      <c r="H21" s="21"/>
-      <c r="I21" s="21"/>
-      <c r="J21" s="22"/>
+      <c r="F21" s="19"/>
+      <c r="G21" s="19"/>
+      <c r="H21" s="19"/>
+      <c r="I21" s="19"/>
+      <c r="J21" s="20"/>
       <c r="T21" s="9">
         <v>4</v>
       </c>
@@ -9393,27 +9519,27 @@
       <c r="AM21" s="9">
         <v>4</v>
       </c>
-      <c r="AN21" s="20" t="s">
+      <c r="AN21" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="AO21" s="21"/>
-      <c r="AP21" s="21"/>
-      <c r="AQ21" s="21"/>
-      <c r="AR21" s="21"/>
-      <c r="AS21" s="22"/>
+      <c r="AO21" s="19"/>
+      <c r="AP21" s="19"/>
+      <c r="AQ21" s="19"/>
+      <c r="AR21" s="19"/>
+      <c r="AS21" s="20"/>
     </row>
     <row r="22" spans="4:45" ht="29" customHeight="1">
       <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="23" t="s">
+      <c r="E22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="25"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="23"/>
       <c r="S22" s="10">
         <v>3</v>
       </c>
@@ -9435,27 +9561,27 @@
       <c r="AM22" s="10">
         <v>3</v>
       </c>
-      <c r="AN22" s="23" t="s">
+      <c r="AN22" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="AO22" s="24"/>
-      <c r="AP22" s="24"/>
-      <c r="AQ22" s="24"/>
-      <c r="AR22" s="24"/>
-      <c r="AS22" s="25"/>
+      <c r="AO22" s="22"/>
+      <c r="AP22" s="22"/>
+      <c r="AQ22" s="22"/>
+      <c r="AR22" s="22"/>
+      <c r="AS22" s="23"/>
     </row>
     <row r="23" spans="4:45" ht="29" customHeight="1">
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="28"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="39"/>
+      <c r="H23" s="39"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
       <c r="R23" s="12">
         <v>2</v>
       </c>
@@ -9489,27 +9615,27 @@
       <c r="AM23" s="12">
         <v>2</v>
       </c>
-      <c r="AN23" s="26" t="s">
+      <c r="AN23" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="AO23" s="27"/>
-      <c r="AP23" s="27"/>
-      <c r="AQ23" s="27"/>
-      <c r="AR23" s="27"/>
-      <c r="AS23" s="28"/>
+      <c r="AO23" s="39"/>
+      <c r="AP23" s="39"/>
+      <c r="AQ23" s="39"/>
+      <c r="AR23" s="39"/>
+      <c r="AS23" s="40"/>
     </row>
     <row r="24" spans="4:45" ht="29" customHeight="1">
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="31"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="58"/>
       <c r="Q24" s="11">
         <v>1</v>
       </c>
@@ -9549,14 +9675,14 @@
       <c r="AM24" s="11">
         <v>1</v>
       </c>
-      <c r="AN24" s="29" t="s">
+      <c r="AN24" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="AO24" s="30"/>
-      <c r="AP24" s="30"/>
-      <c r="AQ24" s="30"/>
-      <c r="AR24" s="30"/>
-      <c r="AS24" s="31"/>
+      <c r="AO24" s="57"/>
+      <c r="AP24" s="57"/>
+      <c r="AQ24" s="57"/>
+      <c r="AR24" s="57"/>
+      <c r="AS24" s="58"/>
     </row>
     <row r="26" spans="4:45" ht="29" customHeight="1">
       <c r="Q26" s="11">
@@ -9598,6 +9724,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AN20:AS20"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AN22:AS22"/>
+    <mergeCell ref="AN23:AS23"/>
+    <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y9:AD9"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="N4:N6"/>
@@ -9610,23 +9753,6 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="O4:T6"/>
     <mergeCell ref="O9:T10"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:AD6"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="AN20:AS20"/>
-    <mergeCell ref="AN21:AS21"/>
-    <mergeCell ref="AN22:AS22"/>
-    <mergeCell ref="AN23:AS23"/>
-    <mergeCell ref="AN24:AS24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9636,10 +9762,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1023BE6-1DF7-8E4E-BE37-362FF7DE3590}">
-  <dimension ref="AF6:CW98"/>
+  <dimension ref="AF6:DB111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A97" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AM112" sqref="AM112"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CH92" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="CU115" sqref="CU115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.1640625" defaultRowHeight="18"/>
@@ -9650,112 +9776,116 @@
     <col min="95" max="97" width="17" style="7" customWidth="1"/>
     <col min="98" max="98" width="4.1640625" style="7"/>
     <col min="99" max="101" width="17" style="7" customWidth="1"/>
-    <col min="102" max="16384" width="4.1640625" style="7"/>
+    <col min="102" max="103" width="4.1640625" style="7"/>
+    <col min="104" max="104" width="16.33203125" style="7" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="34.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="47.6640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="107" max="16384" width="4.1640625" style="7"/>
   </cols>
   <sheetData>
     <row r="6" spans="32:77">
-      <c r="AF6" s="17" t="s">
+      <c r="AF6" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="AG6" s="18"/>
-      <c r="AH6" s="19"/>
-      <c r="AI6" s="17" t="s">
+      <c r="AG6" s="30"/>
+      <c r="AH6" s="31"/>
+      <c r="AI6" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AJ6" s="18"/>
-      <c r="AK6" s="19"/>
-      <c r="AL6" s="17" t="s">
+      <c r="AJ6" s="30"/>
+      <c r="AK6" s="31"/>
+      <c r="AL6" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" s="18"/>
-      <c r="AN6" s="19"/>
-      <c r="AO6" s="17" t="s">
+      <c r="AM6" s="30"/>
+      <c r="AN6" s="31"/>
+      <c r="AO6" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="AP6" s="18"/>
-      <c r="AQ6" s="19"/>
+      <c r="AP6" s="30"/>
+      <c r="AQ6" s="31"/>
     </row>
     <row r="7" spans="32:77">
-      <c r="AF7" s="58" t="s">
+      <c r="AF7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AG7" s="59"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="58" t="s">
+      <c r="AG7" s="61"/>
+      <c r="AH7" s="62"/>
+      <c r="AI7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AJ7" s="59"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="58" t="s">
+      <c r="AJ7" s="61"/>
+      <c r="AK7" s="62"/>
+      <c r="AL7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AM7" s="59"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="58" t="s">
+      <c r="AM7" s="61"/>
+      <c r="AN7" s="62"/>
+      <c r="AO7" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="AP7" s="59"/>
-      <c r="AQ7" s="60"/>
+      <c r="AP7" s="61"/>
+      <c r="AQ7" s="62"/>
     </row>
     <row r="8" spans="32:77">
-      <c r="AF8" s="58">
+      <c r="AF8" s="60">
         <v>192</v>
       </c>
-      <c r="AG8" s="59"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="58">
+      <c r="AG8" s="61"/>
+      <c r="AH8" s="62"/>
+      <c r="AI8" s="60">
         <v>168</v>
       </c>
-      <c r="AJ8" s="59"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="58">
+      <c r="AJ8" s="61"/>
+      <c r="AK8" s="62"/>
+      <c r="AL8" s="60">
         <v>1</v>
       </c>
-      <c r="AM8" s="59"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="58">
+      <c r="AM8" s="61"/>
+      <c r="AN8" s="62"/>
+      <c r="AO8" s="60">
         <v>10</v>
       </c>
-      <c r="AP8" s="59"/>
-      <c r="AQ8" s="60"/>
+      <c r="AP8" s="61"/>
+      <c r="AQ8" s="62"/>
     </row>
     <row r="12" spans="32:77">
-      <c r="AT12" s="17" t="s">
+      <c r="AT12" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AU12" s="18"/>
-      <c r="AV12" s="18"/>
-      <c r="AW12" s="18"/>
-      <c r="AX12" s="18"/>
-      <c r="AY12" s="18"/>
-      <c r="AZ12" s="18"/>
-      <c r="BA12" s="19"/>
-      <c r="BB12" s="29" t="s">
+      <c r="AU12" s="30"/>
+      <c r="AV12" s="30"/>
+      <c r="AW12" s="30"/>
+      <c r="AX12" s="30"/>
+      <c r="AY12" s="30"/>
+      <c r="AZ12" s="30"/>
+      <c r="BA12" s="31"/>
+      <c r="BB12" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="BC12" s="30"/>
-      <c r="BD12" s="30"/>
-      <c r="BE12" s="30"/>
-      <c r="BF12" s="30"/>
-      <c r="BG12" s="30"/>
-      <c r="BH12" s="30"/>
-      <c r="BI12" s="30"/>
-      <c r="BJ12" s="30"/>
-      <c r="BK12" s="30"/>
-      <c r="BL12" s="30"/>
-      <c r="BM12" s="30"/>
-      <c r="BN12" s="30"/>
-      <c r="BO12" s="30"/>
-      <c r="BP12" s="30"/>
-      <c r="BQ12" s="30"/>
-      <c r="BR12" s="30"/>
-      <c r="BS12" s="30"/>
-      <c r="BT12" s="30"/>
-      <c r="BU12" s="30"/>
-      <c r="BV12" s="30"/>
-      <c r="BW12" s="30"/>
-      <c r="BX12" s="30"/>
-      <c r="BY12" s="31"/>
+      <c r="BC12" s="57"/>
+      <c r="BD12" s="57"/>
+      <c r="BE12" s="57"/>
+      <c r="BF12" s="57"/>
+      <c r="BG12" s="57"/>
+      <c r="BH12" s="57"/>
+      <c r="BI12" s="57"/>
+      <c r="BJ12" s="57"/>
+      <c r="BK12" s="57"/>
+      <c r="BL12" s="57"/>
+      <c r="BM12" s="57"/>
+      <c r="BN12" s="57"/>
+      <c r="BO12" s="57"/>
+      <c r="BP12" s="57"/>
+      <c r="BQ12" s="57"/>
+      <c r="BR12" s="57"/>
+      <c r="BS12" s="57"/>
+      <c r="BT12" s="57"/>
+      <c r="BU12" s="57"/>
+      <c r="BV12" s="57"/>
+      <c r="BW12" s="57"/>
+      <c r="BX12" s="57"/>
+      <c r="BY12" s="58"/>
     </row>
     <row r="13" spans="32:77">
       <c r="AT13" s="16">
@@ -9794,84 +9924,84 @@
       <c r="BY13" s="16"/>
     </row>
     <row r="14" spans="32:77">
-      <c r="AT14" s="58" t="s">
+      <c r="AT14" s="60" t="s">
         <v>41</v>
       </c>
-      <c r="AU14" s="59"/>
-      <c r="AV14" s="59"/>
-      <c r="AW14" s="59"/>
-      <c r="AX14" s="59"/>
-      <c r="AY14" s="59"/>
-      <c r="AZ14" s="59"/>
-      <c r="BA14" s="60"/>
-      <c r="BB14" s="58" t="s">
+      <c r="AU14" s="61"/>
+      <c r="AV14" s="61"/>
+      <c r="AW14" s="61"/>
+      <c r="AX14" s="61"/>
+      <c r="AY14" s="61"/>
+      <c r="AZ14" s="61"/>
+      <c r="BA14" s="62"/>
+      <c r="BB14" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BC14" s="59"/>
-      <c r="BD14" s="59"/>
-      <c r="BE14" s="59"/>
-      <c r="BF14" s="59"/>
-      <c r="BG14" s="59"/>
-      <c r="BH14" s="59"/>
-      <c r="BI14" s="60"/>
-      <c r="BJ14" s="58" t="s">
+      <c r="BC14" s="61"/>
+      <c r="BD14" s="61"/>
+      <c r="BE14" s="61"/>
+      <c r="BF14" s="61"/>
+      <c r="BG14" s="61"/>
+      <c r="BH14" s="61"/>
+      <c r="BI14" s="62"/>
+      <c r="BJ14" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BK14" s="59"/>
-      <c r="BL14" s="59"/>
-      <c r="BM14" s="59"/>
-      <c r="BN14" s="59"/>
-      <c r="BO14" s="59"/>
-      <c r="BP14" s="59"/>
-      <c r="BQ14" s="60"/>
-      <c r="BR14" s="58" t="s">
+      <c r="BK14" s="61"/>
+      <c r="BL14" s="61"/>
+      <c r="BM14" s="61"/>
+      <c r="BN14" s="61"/>
+      <c r="BO14" s="61"/>
+      <c r="BP14" s="61"/>
+      <c r="BQ14" s="62"/>
+      <c r="BR14" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BS14" s="59"/>
-      <c r="BT14" s="59"/>
-      <c r="BU14" s="59"/>
-      <c r="BV14" s="59"/>
-      <c r="BW14" s="59"/>
-      <c r="BX14" s="59"/>
-      <c r="BY14" s="60"/>
+      <c r="BS14" s="61"/>
+      <c r="BT14" s="61"/>
+      <c r="BU14" s="61"/>
+      <c r="BV14" s="61"/>
+      <c r="BW14" s="61"/>
+      <c r="BX14" s="61"/>
+      <c r="BY14" s="62"/>
     </row>
     <row r="19" spans="46:77">
-      <c r="AT19" s="17" t="s">
+      <c r="AT19" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AU19" s="18"/>
-      <c r="AV19" s="18"/>
-      <c r="AW19" s="18"/>
-      <c r="AX19" s="18"/>
-      <c r="AY19" s="18"/>
-      <c r="AZ19" s="18"/>
-      <c r="BA19" s="18"/>
-      <c r="BB19" s="18"/>
-      <c r="BC19" s="18"/>
-      <c r="BD19" s="18"/>
-      <c r="BE19" s="18"/>
-      <c r="BF19" s="18"/>
-      <c r="BG19" s="18"/>
-      <c r="BH19" s="18"/>
-      <c r="BI19" s="19"/>
-      <c r="BJ19" s="29" t="s">
+      <c r="AU19" s="30"/>
+      <c r="AV19" s="30"/>
+      <c r="AW19" s="30"/>
+      <c r="AX19" s="30"/>
+      <c r="AY19" s="30"/>
+      <c r="AZ19" s="30"/>
+      <c r="BA19" s="30"/>
+      <c r="BB19" s="30"/>
+      <c r="BC19" s="30"/>
+      <c r="BD19" s="30"/>
+      <c r="BE19" s="30"/>
+      <c r="BF19" s="30"/>
+      <c r="BG19" s="30"/>
+      <c r="BH19" s="30"/>
+      <c r="BI19" s="31"/>
+      <c r="BJ19" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="BK19" s="30"/>
-      <c r="BL19" s="30"/>
-      <c r="BM19" s="30"/>
-      <c r="BN19" s="30"/>
-      <c r="BO19" s="30"/>
-      <c r="BP19" s="30"/>
-      <c r="BQ19" s="30"/>
-      <c r="BR19" s="30"/>
-      <c r="BS19" s="30"/>
-      <c r="BT19" s="30"/>
-      <c r="BU19" s="30"/>
-      <c r="BV19" s="30"/>
-      <c r="BW19" s="30"/>
-      <c r="BX19" s="30"/>
-      <c r="BY19" s="31"/>
+      <c r="BK19" s="57"/>
+      <c r="BL19" s="57"/>
+      <c r="BM19" s="57"/>
+      <c r="BN19" s="57"/>
+      <c r="BO19" s="57"/>
+      <c r="BP19" s="57"/>
+      <c r="BQ19" s="57"/>
+      <c r="BR19" s="57"/>
+      <c r="BS19" s="57"/>
+      <c r="BT19" s="57"/>
+      <c r="BU19" s="57"/>
+      <c r="BV19" s="57"/>
+      <c r="BW19" s="57"/>
+      <c r="BX19" s="57"/>
+      <c r="BY19" s="58"/>
     </row>
     <row r="20" spans="46:77">
       <c r="AT20" s="16">
@@ -9912,84 +10042,84 @@
       <c r="BY20" s="16"/>
     </row>
     <row r="21" spans="46:77">
-      <c r="AT21" s="58" t="s">
+      <c r="AT21" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
-      <c r="AX21" s="59"/>
-      <c r="AY21" s="59"/>
-      <c r="AZ21" s="59"/>
-      <c r="BA21" s="60"/>
-      <c r="BB21" s="58" t="s">
+      <c r="AU21" s="61"/>
+      <c r="AV21" s="61"/>
+      <c r="AW21" s="61"/>
+      <c r="AX21" s="61"/>
+      <c r="AY21" s="61"/>
+      <c r="AZ21" s="61"/>
+      <c r="BA21" s="62"/>
+      <c r="BB21" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BC21" s="59"/>
-      <c r="BD21" s="59"/>
-      <c r="BE21" s="59"/>
-      <c r="BF21" s="59"/>
-      <c r="BG21" s="59"/>
-      <c r="BH21" s="59"/>
-      <c r="BI21" s="60"/>
-      <c r="BJ21" s="58" t="s">
+      <c r="BC21" s="61"/>
+      <c r="BD21" s="61"/>
+      <c r="BE21" s="61"/>
+      <c r="BF21" s="61"/>
+      <c r="BG21" s="61"/>
+      <c r="BH21" s="61"/>
+      <c r="BI21" s="62"/>
+      <c r="BJ21" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BK21" s="59"/>
-      <c r="BL21" s="59"/>
-      <c r="BM21" s="59"/>
-      <c r="BN21" s="59"/>
-      <c r="BO21" s="59"/>
-      <c r="BP21" s="59"/>
-      <c r="BQ21" s="60"/>
-      <c r="BR21" s="58" t="s">
+      <c r="BK21" s="61"/>
+      <c r="BL21" s="61"/>
+      <c r="BM21" s="61"/>
+      <c r="BN21" s="61"/>
+      <c r="BO21" s="61"/>
+      <c r="BP21" s="61"/>
+      <c r="BQ21" s="62"/>
+      <c r="BR21" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BS21" s="59"/>
-      <c r="BT21" s="59"/>
-      <c r="BU21" s="59"/>
-      <c r="BV21" s="59"/>
-      <c r="BW21" s="59"/>
-      <c r="BX21" s="59"/>
-      <c r="BY21" s="60"/>
+      <c r="BS21" s="61"/>
+      <c r="BT21" s="61"/>
+      <c r="BU21" s="61"/>
+      <c r="BV21" s="61"/>
+      <c r="BW21" s="61"/>
+      <c r="BX21" s="61"/>
+      <c r="BY21" s="62"/>
     </row>
     <row r="26" spans="46:77">
-      <c r="AT26" s="17" t="s">
+      <c r="AT26" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="18"/>
-      <c r="AV26" s="18"/>
-      <c r="AW26" s="18"/>
-      <c r="AX26" s="18"/>
-      <c r="AY26" s="18"/>
-      <c r="AZ26" s="18"/>
-      <c r="BA26" s="18"/>
-      <c r="BB26" s="18"/>
-      <c r="BC26" s="18"/>
-      <c r="BD26" s="18"/>
-      <c r="BE26" s="18"/>
-      <c r="BF26" s="18"/>
-      <c r="BG26" s="18"/>
-      <c r="BH26" s="18"/>
-      <c r="BI26" s="18"/>
-      <c r="BJ26" s="18"/>
-      <c r="BK26" s="18"/>
-      <c r="BL26" s="18"/>
-      <c r="BM26" s="18"/>
-      <c r="BN26" s="18"/>
-      <c r="BO26" s="18"/>
-      <c r="BP26" s="18"/>
-      <c r="BQ26" s="19"/>
-      <c r="BR26" s="29" t="s">
+      <c r="AU26" s="30"/>
+      <c r="AV26" s="30"/>
+      <c r="AW26" s="30"/>
+      <c r="AX26" s="30"/>
+      <c r="AY26" s="30"/>
+      <c r="AZ26" s="30"/>
+      <c r="BA26" s="30"/>
+      <c r="BB26" s="30"/>
+      <c r="BC26" s="30"/>
+      <c r="BD26" s="30"/>
+      <c r="BE26" s="30"/>
+      <c r="BF26" s="30"/>
+      <c r="BG26" s="30"/>
+      <c r="BH26" s="30"/>
+      <c r="BI26" s="30"/>
+      <c r="BJ26" s="30"/>
+      <c r="BK26" s="30"/>
+      <c r="BL26" s="30"/>
+      <c r="BM26" s="30"/>
+      <c r="BN26" s="30"/>
+      <c r="BO26" s="30"/>
+      <c r="BP26" s="30"/>
+      <c r="BQ26" s="31"/>
+      <c r="BR26" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="BS26" s="30"/>
-      <c r="BT26" s="30"/>
-      <c r="BU26" s="30"/>
-      <c r="BV26" s="30"/>
-      <c r="BW26" s="30"/>
-      <c r="BX26" s="30"/>
-      <c r="BY26" s="31"/>
+      <c r="BS26" s="57"/>
+      <c r="BT26" s="57"/>
+      <c r="BU26" s="57"/>
+      <c r="BV26" s="57"/>
+      <c r="BW26" s="57"/>
+      <c r="BX26" s="57"/>
+      <c r="BY26" s="58"/>
     </row>
     <row r="27" spans="46:77">
       <c r="AT27" s="16">
@@ -10032,79 +10162,79 @@
       <c r="BY27" s="16"/>
     </row>
     <row r="28" spans="46:77">
-      <c r="AT28" s="58" t="s">
+      <c r="AT28" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="AU28" s="59"/>
-      <c r="AV28" s="59"/>
-      <c r="AW28" s="59"/>
-      <c r="AX28" s="59"/>
-      <c r="AY28" s="59"/>
-      <c r="AZ28" s="59"/>
-      <c r="BA28" s="60"/>
-      <c r="BB28" s="58" t="s">
+      <c r="AU28" s="61"/>
+      <c r="AV28" s="61"/>
+      <c r="AW28" s="61"/>
+      <c r="AX28" s="61"/>
+      <c r="AY28" s="61"/>
+      <c r="AZ28" s="61"/>
+      <c r="BA28" s="62"/>
+      <c r="BB28" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BC28" s="59"/>
-      <c r="BD28" s="59"/>
-      <c r="BE28" s="59"/>
-      <c r="BF28" s="59"/>
-      <c r="BG28" s="59"/>
-      <c r="BH28" s="59"/>
-      <c r="BI28" s="60"/>
-      <c r="BJ28" s="58" t="s">
+      <c r="BC28" s="61"/>
+      <c r="BD28" s="61"/>
+      <c r="BE28" s="61"/>
+      <c r="BF28" s="61"/>
+      <c r="BG28" s="61"/>
+      <c r="BH28" s="61"/>
+      <c r="BI28" s="62"/>
+      <c r="BJ28" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BK28" s="59"/>
-      <c r="BL28" s="59"/>
-      <c r="BM28" s="59"/>
-      <c r="BN28" s="59"/>
-      <c r="BO28" s="59"/>
-      <c r="BP28" s="59"/>
-      <c r="BQ28" s="60"/>
-      <c r="BR28" s="58" t="s">
+      <c r="BK28" s="61"/>
+      <c r="BL28" s="61"/>
+      <c r="BM28" s="61"/>
+      <c r="BN28" s="61"/>
+      <c r="BO28" s="61"/>
+      <c r="BP28" s="61"/>
+      <c r="BQ28" s="62"/>
+      <c r="BR28" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="BS28" s="59"/>
-      <c r="BT28" s="59"/>
-      <c r="BU28" s="59"/>
-      <c r="BV28" s="59"/>
-      <c r="BW28" s="59"/>
-      <c r="BX28" s="59"/>
-      <c r="BY28" s="60"/>
+      <c r="BS28" s="61"/>
+      <c r="BT28" s="61"/>
+      <c r="BU28" s="61"/>
+      <c r="BV28" s="61"/>
+      <c r="BW28" s="61"/>
+      <c r="BX28" s="61"/>
+      <c r="BY28" s="62"/>
     </row>
     <row r="34" spans="33:33">
       <c r="AG34"/>
     </row>
     <row r="90" spans="95:101">
-      <c r="CQ90" s="77" t="s">
+      <c r="CQ90" s="59" t="s">
         <v>51</v>
       </c>
-      <c r="CR90" s="77"/>
-      <c r="CS90" s="77"/>
-      <c r="CU90" s="77" t="s">
+      <c r="CR90" s="59"/>
+      <c r="CS90" s="59"/>
+      <c r="CU90" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="CV90" s="77"/>
-      <c r="CW90" s="77"/>
+      <c r="CV90" s="59"/>
+      <c r="CW90" s="59"/>
     </row>
     <row r="91" spans="95:101">
-      <c r="CQ91" s="78" t="s">
+      <c r="CQ91" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="CR91" s="78" t="s">
+      <c r="CR91" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="CS91" s="78" t="s">
+      <c r="CS91" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="CU91" s="78" t="s">
+      <c r="CU91" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="CV91" s="78" t="s">
+      <c r="CV91" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="CW91" s="78" t="s">
+      <c r="CW91" s="17" t="s">
         <v>49</v>
       </c>
     </row>
@@ -10149,38 +10279,38 @@
       </c>
     </row>
     <row r="95" spans="95:101">
-      <c r="CQ95" s="77" t="s">
+      <c r="CQ95" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="CR95" s="77"/>
-      <c r="CS95" s="77"/>
-      <c r="CU95" s="77" t="s">
+      <c r="CR95" s="59"/>
+      <c r="CS95" s="59"/>
+      <c r="CU95" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="CV95" s="77"/>
-      <c r="CW95" s="77"/>
+      <c r="CV95" s="59"/>
+      <c r="CW95" s="59"/>
     </row>
     <row r="96" spans="95:101">
-      <c r="CQ96" s="78" t="s">
+      <c r="CQ96" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="CR96" s="78" t="s">
+      <c r="CR96" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="CS96" s="78" t="s">
+      <c r="CS96" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="CU96" s="78" t="s">
+      <c r="CU96" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="CV96" s="78" t="s">
+      <c r="CV96" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="CW96" s="78" t="s">
+      <c r="CW96" s="17" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="97" spans="95:101">
+    <row r="97" spans="95:106">
       <c r="CQ97" s="16" t="s">
         <v>59</v>
       </c>
@@ -10200,7 +10330,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="98" spans="95:101">
+    <row r="98" spans="95:106">
       <c r="CQ98" s="16" t="s">
         <v>61</v>
       </c>
@@ -10209,16 +10339,107 @@
       </c>
       <c r="CS98" s="16" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="104" spans="95:106">
+      <c r="CZ104" s="79"/>
+      <c r="DA104" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="DB104" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="105" spans="95:106">
+      <c r="CZ105" s="79" t="s">
+        <v>66</v>
+      </c>
+      <c r="DA105" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="DB105" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="95:106">
+      <c r="CZ106" s="79" t="s">
+        <v>67</v>
+      </c>
+      <c r="DA106" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="DB106" s="16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="95:106">
+      <c r="CZ107" s="79" t="s">
+        <v>68</v>
+      </c>
+      <c r="DA107" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB107" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="108" spans="95:106">
+      <c r="CZ108" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="DA108" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="DB108" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="109" spans="95:106">
+      <c r="CZ109" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="DA109" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="DB109" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="110" spans="95:106">
+      <c r="CZ110" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="DA110" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="DB110" s="16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="111" spans="95:106">
+      <c r="CZ111" s="79" t="s">
+        <v>72</v>
+      </c>
+      <c r="DA111" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="DB111" s="16" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="CQ90:CS90"/>
-    <mergeCell ref="CU90:CW90"/>
-    <mergeCell ref="CQ95:CS95"/>
-    <mergeCell ref="CU95:CW95"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="BJ28:BQ28"/>
+    <mergeCell ref="BR28:BY28"/>
+    <mergeCell ref="AT26:BQ26"/>
+    <mergeCell ref="BR26:BY26"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AT14:BA14"/>
+    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="BB12:BY12"/>
+    <mergeCell ref="AT12:BA12"/>
     <mergeCell ref="AF8:AH8"/>
     <mergeCell ref="AI8:AK8"/>
     <mergeCell ref="AL8:AN8"/>
@@ -10226,15 +10447,14 @@
     <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="AI7:AK7"/>
     <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AT14:BA14"/>
-    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="CQ90:CS90"/>
+    <mergeCell ref="CU90:CW90"/>
+    <mergeCell ref="CQ95:CS95"/>
+    <mergeCell ref="CU95:CW95"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AO7:AQ7"/>
     <mergeCell ref="BJ14:BQ14"/>
     <mergeCell ref="BR14:BY14"/>
-    <mergeCell ref="BB12:BY12"/>
-    <mergeCell ref="AT12:BA12"/>
     <mergeCell ref="AT21:BA21"/>
     <mergeCell ref="BB21:BI21"/>
     <mergeCell ref="BJ21:BQ21"/>
@@ -10243,10 +10463,6 @@
     <mergeCell ref="BJ19:BY19"/>
     <mergeCell ref="AT28:BA28"/>
     <mergeCell ref="BB28:BI28"/>
-    <mergeCell ref="BJ28:BQ28"/>
-    <mergeCell ref="BR28:BY28"/>
-    <mergeCell ref="AT26:BQ26"/>
-    <mergeCell ref="BR26:BY26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10260,106 +10476,106 @@
   <dimension ref="D2:AA12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+      <selection activeCell="AF16" sqref="AF16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="22" customHeight="1"/>
   <sheetData>
     <row r="2" spans="4:27" ht="22" customHeight="1">
-      <c r="D2" s="64" t="s">
+      <c r="D2" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="64" t="s">
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="66" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
     </row>
     <row r="3" spans="4:27" ht="22" customHeight="1">
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="65"/>
-      <c r="M3" s="65"/>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="67"/>
+      <c r="L3" s="67"/>
+      <c r="M3" s="67"/>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="67"/>
+      <c r="X3" s="67"/>
+      <c r="Y3" s="67"/>
+      <c r="Z3" s="67"/>
+      <c r="AA3" s="67"/>
     </row>
     <row r="4" spans="4:27" ht="22" customHeight="1">
-      <c r="D4" s="64" t="s">
+      <c r="D4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="65"/>
-      <c r="F4" s="65"/>
-      <c r="G4" s="65"/>
-      <c r="H4" s="65"/>
-      <c r="I4" s="65"/>
-      <c r="J4" s="65"/>
-      <c r="K4" s="65"/>
-      <c r="L4" s="65"/>
-      <c r="M4" s="65"/>
-      <c r="N4" s="65"/>
-      <c r="O4" s="65"/>
-      <c r="P4" s="65"/>
-      <c r="Q4" s="65"/>
-      <c r="R4" s="65"/>
-      <c r="S4" s="65"/>
-      <c r="T4" s="65"/>
-      <c r="U4" s="65"/>
-      <c r="V4" s="65"/>
-      <c r="W4" s="65"/>
-      <c r="X4" s="65"/>
-      <c r="Y4" s="65"/>
-      <c r="Z4" s="65"/>
-      <c r="AA4" s="65"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="67"/>
+      <c r="I4" s="67"/>
+      <c r="J4" s="67"/>
+      <c r="K4" s="67"/>
+      <c r="L4" s="67"/>
+      <c r="M4" s="67"/>
+      <c r="N4" s="67"/>
+      <c r="O4" s="67"/>
+      <c r="P4" s="67"/>
+      <c r="Q4" s="67"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
     </row>
     <row r="5" spans="4:27" ht="22" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="66" t="s">
+      <c r="F5" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="70"/>
+      <c r="G5" s="72"/>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
@@ -10384,121 +10600,121 @@
       <c r="O5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="74" t="s">
+      <c r="P5" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="75"/>
-      <c r="R5" s="75"/>
-      <c r="S5" s="75"/>
-      <c r="T5" s="75"/>
-      <c r="U5" s="75"/>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="75"/>
-      <c r="AA5" s="76"/>
+      <c r="Q5" s="77"/>
+      <c r="R5" s="77"/>
+      <c r="S5" s="77"/>
+      <c r="T5" s="77"/>
+      <c r="U5" s="77"/>
+      <c r="V5" s="77"/>
+      <c r="W5" s="77"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="77"/>
+      <c r="Z5" s="77"/>
+      <c r="AA5" s="78"/>
     </row>
     <row r="6" spans="4:27" ht="22" customHeight="1">
-      <c r="D6" s="64" t="s">
+      <c r="D6" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="65"/>
-      <c r="F6" s="65"/>
-      <c r="G6" s="65"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="65"/>
-      <c r="J6" s="65"/>
-      <c r="K6" s="65"/>
-      <c r="L6" s="65"/>
-      <c r="M6" s="65"/>
-      <c r="N6" s="65"/>
-      <c r="O6" s="65"/>
-      <c r="P6" s="64" t="s">
+      <c r="E6" s="67"/>
+      <c r="F6" s="67"/>
+      <c r="G6" s="67"/>
+      <c r="H6" s="67"/>
+      <c r="I6" s="67"/>
+      <c r="J6" s="67"/>
+      <c r="K6" s="67"/>
+      <c r="L6" s="67"/>
+      <c r="M6" s="67"/>
+      <c r="N6" s="67"/>
+      <c r="O6" s="67"/>
+      <c r="P6" s="66" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="65"/>
-      <c r="R6" s="65"/>
-      <c r="S6" s="65"/>
-      <c r="T6" s="65"/>
-      <c r="U6" s="65"/>
-      <c r="V6" s="65"/>
-      <c r="W6" s="65"/>
-      <c r="X6" s="65"/>
-      <c r="Y6" s="65"/>
-      <c r="Z6" s="65"/>
-      <c r="AA6" s="65"/>
+      <c r="Q6" s="67"/>
+      <c r="R6" s="67"/>
+      <c r="S6" s="67"/>
+      <c r="T6" s="67"/>
+      <c r="U6" s="67"/>
+      <c r="V6" s="67"/>
+      <c r="W6" s="67"/>
+      <c r="X6" s="67"/>
+      <c r="Y6" s="67"/>
+      <c r="Z6" s="67"/>
+      <c r="AA6" s="67"/>
     </row>
     <row r="7" spans="4:27" ht="22" customHeight="1">
-      <c r="D7" s="66" t="s">
+      <c r="D7" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
-      <c r="G7" s="67"/>
-      <c r="H7" s="67"/>
-      <c r="I7" s="67"/>
-      <c r="J7" s="67"/>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
-      <c r="R7" s="67"/>
-      <c r="S7" s="67"/>
-      <c r="T7" s="67"/>
-      <c r="U7" s="67"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="66" t="s">
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="69"/>
+      <c r="H7" s="69"/>
+      <c r="I7" s="69"/>
+      <c r="J7" s="69"/>
+      <c r="K7" s="69"/>
+      <c r="L7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
+      <c r="O7" s="69"/>
+      <c r="P7" s="69"/>
+      <c r="Q7" s="69"/>
+      <c r="R7" s="69"/>
+      <c r="S7" s="69"/>
+      <c r="T7" s="69"/>
+      <c r="U7" s="69"/>
+      <c r="V7" s="70"/>
+      <c r="W7" s="68" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="69"/>
-      <c r="Y7" s="69"/>
-      <c r="Z7" s="69"/>
-      <c r="AA7" s="70"/>
+      <c r="X7" s="71"/>
+      <c r="Y7" s="71"/>
+      <c r="Z7" s="71"/>
+      <c r="AA7" s="72"/>
     </row>
     <row r="10" spans="4:27" ht="22" customHeight="1">
-      <c r="N10" s="66" t="s">
+      <c r="N10" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="67"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="71" t="s">
+      <c r="O10" s="69"/>
+      <c r="P10" s="70"/>
+      <c r="Q10" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="72"/>
-      <c r="S10" s="72"/>
-      <c r="T10" s="72"/>
-      <c r="U10" s="72"/>
-      <c r="V10" s="72"/>
-      <c r="W10" s="72"/>
-      <c r="X10" s="73"/>
+      <c r="R10" s="74"/>
+      <c r="S10" s="74"/>
+      <c r="T10" s="74"/>
+      <c r="U10" s="74"/>
+      <c r="V10" s="74"/>
+      <c r="W10" s="74"/>
+      <c r="X10" s="75"/>
     </row>
     <row r="11" spans="4:27" ht="22" customHeight="1">
       <c r="N11" s="1"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="4:27" ht="22" customHeight="1">
-      <c r="K12" s="61" t="s">
+      <c r="K12" s="63" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="62"/>
-      <c r="M12" s="63"/>
-      <c r="N12" s="71" t="s">
+      <c r="L12" s="64"/>
+      <c r="M12" s="65"/>
+      <c r="N12" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="72"/>
-      <c r="P12" s="72"/>
-      <c r="Q12" s="72"/>
-      <c r="R12" s="72"/>
-      <c r="S12" s="72"/>
-      <c r="T12" s="72"/>
-      <c r="U12" s="72"/>
-      <c r="V12" s="72"/>
-      <c r="W12" s="72"/>
-      <c r="X12" s="73"/>
+      <c r="O12" s="74"/>
+      <c r="P12" s="74"/>
+      <c r="Q12" s="74"/>
+      <c r="R12" s="74"/>
+      <c r="S12" s="74"/>
+      <c r="T12" s="74"/>
+      <c r="U12" s="74"/>
+      <c r="V12" s="74"/>
+      <c r="W12" s="74"/>
+      <c r="X12" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -10524,23 +10740,31 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -10548,21 +10772,22 @@
 </settings>
 </file>
 
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
-</file>
-
 <file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -10571,17 +10796,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -10590,6 +10806,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -10598,17 +10823,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{7DCE089D-B972-E44D-B848-7F12D0841F3A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{76B90FE0-1E6E-6242-8698-72CD5A6D4870}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="2700" windowWidth="32660" windowHeight="17480" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1040" yWindow="2700" windowWidth="32660" windowHeight="17480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="数字证书" sheetId="40" r:id="rId1"/>
@@ -19,11 +19,12 @@
     <sheet name="TCP" sheetId="41" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="115">
   <si>
     <t>IP Hedaer</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,7 +392,7 @@
   </si>
   <si>
     <t>首部占用空间</t>
-    <rPh sb="0" eb="11">
+    <rPh sb="0" eb="6">
       <t>shou'b</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -488,6 +489,132 @@
   </si>
   <si>
     <t>DNS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN=1, ACK=0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>seq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. TCP数据部分占0字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原生</t>
+    <rPh sb="0" eb="2">
+      <t>yuan'shen</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相对</t>
+    <rPh sb="0" eb="2">
+      <t>xiang'du</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2. TCP数据部分占0字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN=1, ACK=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3. TCP数据部分占0字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4. TCP数据部分占k字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYN=0, ACK=1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s1 + k + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>k + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2 + b1 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2 + b1 + b2 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2 + b1 + b2 + b3 +1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1 + b2 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1 + b2 + b3 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5. TCP数据部分占b1字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. TCP数据部分占b2字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7. TCP数据部分占b3字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8. TCP数据部分占b4字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b1 + b2 + b3 + b4 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s2 + b1 + b2 + b3 + b4 + 1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9. 连续接收到了对方的4个TCP数据段</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -573,7 +700,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -637,6 +764,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -836,7 +975,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -891,6 +1030,18 @@
     <xf numFmtId="0" fontId="9" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -909,6 +1060,33 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -918,19 +1096,28 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -951,42 +1138,6 @@
     <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1005,18 +1156,6 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1024,6 +1163,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,8 +1216,23 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -9230,226 +9387,226 @@
       <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="31"/>
-      <c r="N4" s="24">
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="21"/>
+      <c r="N4" s="37">
         <v>4</v>
       </c>
-      <c r="O4" s="41" t="s">
+      <c r="O4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="42"/>
-      <c r="Q4" s="42"/>
-      <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="43"/>
-      <c r="X4" s="24">
+      <c r="P4" s="35"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="35"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="36"/>
+      <c r="X4" s="37">
         <v>5</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="42"/>
-      <c r="AA4" s="42"/>
-      <c r="AB4" s="42"/>
-      <c r="AC4" s="42"/>
-      <c r="AD4" s="43"/>
+      <c r="Z4" s="35"/>
+      <c r="AA4" s="35"/>
+      <c r="AB4" s="35"/>
+      <c r="AC4" s="35"/>
+      <c r="AD4" s="36"/>
     </row>
     <row r="5" spans="4:30" ht="27" customHeight="1">
       <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="32" t="s">
+      <c r="E5" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="34"/>
-      <c r="N5" s="25"/>
-      <c r="O5" s="44"/>
-      <c r="P5" s="45"/>
-      <c r="Q5" s="45"/>
-      <c r="R5" s="45"/>
-      <c r="S5" s="45"/>
-      <c r="T5" s="46"/>
-      <c r="X5" s="25"/>
-      <c r="Y5" s="44"/>
-      <c r="Z5" s="45"/>
-      <c r="AA5" s="45"/>
-      <c r="AB5" s="45"/>
-      <c r="AC5" s="45"/>
-      <c r="AD5" s="46"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="50"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="40"/>
+      <c r="P5" s="41"/>
+      <c r="Q5" s="41"/>
+      <c r="R5" s="41"/>
+      <c r="S5" s="41"/>
+      <c r="T5" s="42"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="40"/>
+      <c r="Z5" s="41"/>
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="42"/>
     </row>
     <row r="6" spans="4:30" ht="27" customHeight="1">
       <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="35" t="s">
+      <c r="E6" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="N6" s="26"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="48"/>
-      <c r="Q6" s="48"/>
-      <c r="R6" s="48"/>
-      <c r="S6" s="48"/>
-      <c r="T6" s="49"/>
-      <c r="X6" s="26"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="48"/>
-      <c r="AA6" s="48"/>
-      <c r="AB6" s="48"/>
-      <c r="AC6" s="48"/>
-      <c r="AD6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="53"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="44"/>
+      <c r="Q6" s="44"/>
+      <c r="R6" s="44"/>
+      <c r="S6" s="44"/>
+      <c r="T6" s="45"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="43"/>
+      <c r="Z6" s="44"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="45"/>
     </row>
     <row r="7" spans="4:30" ht="27" customHeight="1">
       <c r="D7" s="9">
         <v>4</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
       <c r="N7" s="9">
         <v>3</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="20"/>
+      <c r="P7" s="23"/>
+      <c r="Q7" s="23"/>
+      <c r="R7" s="23"/>
+      <c r="S7" s="23"/>
+      <c r="T7" s="24"/>
       <c r="X7" s="9">
         <v>4</v>
       </c>
-      <c r="Y7" s="18" t="s">
+      <c r="Y7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="Z7" s="19"/>
-      <c r="AA7" s="19"/>
-      <c r="AB7" s="19"/>
-      <c r="AC7" s="19"/>
-      <c r="AD7" s="20"/>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="23"/>
+      <c r="AB7" s="23"/>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24"/>
     </row>
     <row r="8" spans="4:30" ht="27" customHeight="1">
       <c r="D8" s="10">
         <v>3</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="23"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="27"/>
       <c r="N8" s="10">
         <v>2</v>
       </c>
-      <c r="O8" s="21" t="s">
+      <c r="O8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="23"/>
+      <c r="P8" s="26"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="26"/>
+      <c r="T8" s="27"/>
       <c r="X8" s="10">
         <v>3</v>
       </c>
-      <c r="Y8" s="21" t="s">
+      <c r="Y8" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="23"/>
+      <c r="Z8" s="26"/>
+      <c r="AA8" s="26"/>
+      <c r="AB8" s="26"/>
+      <c r="AC8" s="26"/>
+      <c r="AD8" s="27"/>
     </row>
     <row r="9" spans="4:30" ht="27" customHeight="1">
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="38" t="s">
+      <c r="E9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="40"/>
-      <c r="N9" s="27">
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="30"/>
+      <c r="N9" s="46">
         <v>1</v>
       </c>
-      <c r="O9" s="50" t="s">
+      <c r="O9" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="P9" s="51"/>
-      <c r="Q9" s="51"/>
-      <c r="R9" s="51"/>
-      <c r="S9" s="51"/>
-      <c r="T9" s="52"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+      <c r="S9" s="55"/>
+      <c r="T9" s="56"/>
       <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="38" t="s">
+      <c r="Y9" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="39"/>
-      <c r="AA9" s="39"/>
-      <c r="AB9" s="39"/>
-      <c r="AC9" s="39"/>
-      <c r="AD9" s="40"/>
+      <c r="Z9" s="29"/>
+      <c r="AA9" s="29"/>
+      <c r="AB9" s="29"/>
+      <c r="AC9" s="29"/>
+      <c r="AD9" s="30"/>
     </row>
     <row r="10" spans="4:30" ht="27" customHeight="1">
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="58"/>
-      <c r="N10" s="28"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="33"/>
+      <c r="N10" s="47"/>
+      <c r="O10" s="57"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+      <c r="R10" s="58"/>
+      <c r="S10" s="58"/>
+      <c r="T10" s="59"/>
       <c r="X10" s="11">
         <v>1</v>
       </c>
-      <c r="Y10" s="56" t="s">
+      <c r="Y10" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="57"/>
-      <c r="AA10" s="57"/>
-      <c r="AB10" s="57"/>
-      <c r="AC10" s="57"/>
-      <c r="AD10" s="58"/>
+      <c r="Z10" s="32"/>
+      <c r="AA10" s="32"/>
+      <c r="AB10" s="32"/>
+      <c r="AC10" s="32"/>
+      <c r="AD10" s="33"/>
     </row>
     <row r="12" spans="4:30">
       <c r="E12" s="7" t="s">
@@ -9466,14 +9623,14 @@
       <c r="D20" s="15">
         <v>5</v>
       </c>
-      <c r="E20" s="41" t="s">
+      <c r="E20" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="43"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="35"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
       <c r="U20" s="8">
         <v>5</v>
       </c>
@@ -9483,27 +9640,27 @@
       <c r="AM20" s="15">
         <v>5</v>
       </c>
-      <c r="AN20" s="29" t="s">
+      <c r="AN20" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="AO20" s="30"/>
-      <c r="AP20" s="30"/>
-      <c r="AQ20" s="30"/>
-      <c r="AR20" s="30"/>
-      <c r="AS20" s="31"/>
+      <c r="AO20" s="20"/>
+      <c r="AP20" s="20"/>
+      <c r="AQ20" s="20"/>
+      <c r="AR20" s="20"/>
+      <c r="AS20" s="21"/>
     </row>
     <row r="21" spans="4:45" ht="29" customHeight="1">
       <c r="D21" s="9">
         <v>4</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="F21" s="19"/>
-      <c r="G21" s="19"/>
-      <c r="H21" s="19"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
       <c r="T21" s="9">
         <v>4</v>
       </c>
@@ -9519,27 +9676,27 @@
       <c r="AM21" s="9">
         <v>4</v>
       </c>
-      <c r="AN21" s="18" t="s">
+      <c r="AN21" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="AO21" s="19"/>
-      <c r="AP21" s="19"/>
-      <c r="AQ21" s="19"/>
-      <c r="AR21" s="19"/>
-      <c r="AS21" s="20"/>
+      <c r="AO21" s="23"/>
+      <c r="AP21" s="23"/>
+      <c r="AQ21" s="23"/>
+      <c r="AR21" s="23"/>
+      <c r="AS21" s="24"/>
     </row>
     <row r="22" spans="4:45" ht="29" customHeight="1">
       <c r="D22" s="10">
         <v>3</v>
       </c>
-      <c r="E22" s="21" t="s">
+      <c r="E22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="23"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="26"/>
+      <c r="J22" s="27"/>
       <c r="S22" s="10">
         <v>3</v>
       </c>
@@ -9561,27 +9718,27 @@
       <c r="AM22" s="10">
         <v>3</v>
       </c>
-      <c r="AN22" s="21" t="s">
+      <c r="AN22" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="AO22" s="22"/>
-      <c r="AP22" s="22"/>
-      <c r="AQ22" s="22"/>
-      <c r="AR22" s="22"/>
-      <c r="AS22" s="23"/>
+      <c r="AO22" s="26"/>
+      <c r="AP22" s="26"/>
+      <c r="AQ22" s="26"/>
+      <c r="AR22" s="26"/>
+      <c r="AS22" s="27"/>
     </row>
     <row r="23" spans="4:45" ht="29" customHeight="1">
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="38" t="s">
+      <c r="E23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="40"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
       <c r="R23" s="12">
         <v>2</v>
       </c>
@@ -9615,27 +9772,27 @@
       <c r="AM23" s="12">
         <v>2</v>
       </c>
-      <c r="AN23" s="38" t="s">
+      <c r="AN23" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="AO23" s="39"/>
-      <c r="AP23" s="39"/>
-      <c r="AQ23" s="39"/>
-      <c r="AR23" s="39"/>
-      <c r="AS23" s="40"/>
+      <c r="AO23" s="29"/>
+      <c r="AP23" s="29"/>
+      <c r="AQ23" s="29"/>
+      <c r="AR23" s="29"/>
+      <c r="AS23" s="30"/>
     </row>
     <row r="24" spans="4:45" ht="29" customHeight="1">
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="56" t="s">
+      <c r="E24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="57"/>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="58"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
       <c r="Q24" s="11">
         <v>1</v>
       </c>
@@ -9675,14 +9832,14 @@
       <c r="AM24" s="11">
         <v>1</v>
       </c>
-      <c r="AN24" s="56" t="s">
+      <c r="AN24" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="AO24" s="57"/>
-      <c r="AP24" s="57"/>
-      <c r="AQ24" s="57"/>
-      <c r="AR24" s="57"/>
-      <c r="AS24" s="58"/>
+      <c r="AO24" s="32"/>
+      <c r="AP24" s="32"/>
+      <c r="AQ24" s="32"/>
+      <c r="AR24" s="32"/>
+      <c r="AS24" s="33"/>
     </row>
     <row r="26" spans="4:45" ht="29" customHeight="1">
       <c r="Q26" s="11">
@@ -9724,23 +9881,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="AN20:AS20"/>
-    <mergeCell ref="AN21:AS21"/>
-    <mergeCell ref="AN22:AS22"/>
-    <mergeCell ref="AN23:AS23"/>
-    <mergeCell ref="AN24:AS24"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:AD6"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="Y9:AD9"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="N4:N6"/>
@@ -9753,6 +9893,23 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="O4:T6"/>
     <mergeCell ref="O9:T10"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y9:AD9"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="AN20:AS20"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AN22:AS22"/>
+    <mergeCell ref="AN23:AS23"/>
+    <mergeCell ref="AN24:AS24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9764,7 +9921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1023BE6-1DF7-8E4E-BE37-362FF7DE3590}">
   <dimension ref="AF6:DB111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="CH92" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AC97" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CU115" sqref="CU115"/>
     </sheetView>
   </sheetViews>
@@ -9784,26 +9941,26 @@
   </cols>
   <sheetData>
     <row r="6" spans="32:77">
-      <c r="AF6" s="29" t="s">
+      <c r="AF6" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AG6" s="30"/>
-      <c r="AH6" s="31"/>
-      <c r="AI6" s="29" t="s">
+      <c r="AG6" s="20"/>
+      <c r="AH6" s="21"/>
+      <c r="AI6" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="AJ6" s="30"/>
-      <c r="AK6" s="31"/>
-      <c r="AL6" s="29" t="s">
+      <c r="AJ6" s="20"/>
+      <c r="AK6" s="21"/>
+      <c r="AL6" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" s="30"/>
-      <c r="AN6" s="31"/>
-      <c r="AO6" s="29" t="s">
+      <c r="AM6" s="20"/>
+      <c r="AN6" s="21"/>
+      <c r="AO6" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AP6" s="30"/>
-      <c r="AQ6" s="31"/>
+      <c r="AP6" s="20"/>
+      <c r="AQ6" s="21"/>
     </row>
     <row r="7" spans="32:77">
       <c r="AF7" s="60" t="s">
@@ -9850,42 +10007,42 @@
       <c r="AQ8" s="62"/>
     </row>
     <row r="12" spans="32:77">
-      <c r="AT12" s="29" t="s">
+      <c r="AT12" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AU12" s="30"/>
-      <c r="AV12" s="30"/>
-      <c r="AW12" s="30"/>
-      <c r="AX12" s="30"/>
-      <c r="AY12" s="30"/>
-      <c r="AZ12" s="30"/>
-      <c r="BA12" s="31"/>
-      <c r="BB12" s="56" t="s">
+      <c r="AU12" s="20"/>
+      <c r="AV12" s="20"/>
+      <c r="AW12" s="20"/>
+      <c r="AX12" s="20"/>
+      <c r="AY12" s="20"/>
+      <c r="AZ12" s="20"/>
+      <c r="BA12" s="21"/>
+      <c r="BB12" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BC12" s="57"/>
-      <c r="BD12" s="57"/>
-      <c r="BE12" s="57"/>
-      <c r="BF12" s="57"/>
-      <c r="BG12" s="57"/>
-      <c r="BH12" s="57"/>
-      <c r="BI12" s="57"/>
-      <c r="BJ12" s="57"/>
-      <c r="BK12" s="57"/>
-      <c r="BL12" s="57"/>
-      <c r="BM12" s="57"/>
-      <c r="BN12" s="57"/>
-      <c r="BO12" s="57"/>
-      <c r="BP12" s="57"/>
-      <c r="BQ12" s="57"/>
-      <c r="BR12" s="57"/>
-      <c r="BS12" s="57"/>
-      <c r="BT12" s="57"/>
-      <c r="BU12" s="57"/>
-      <c r="BV12" s="57"/>
-      <c r="BW12" s="57"/>
-      <c r="BX12" s="57"/>
-      <c r="BY12" s="58"/>
+      <c r="BC12" s="32"/>
+      <c r="BD12" s="32"/>
+      <c r="BE12" s="32"/>
+      <c r="BF12" s="32"/>
+      <c r="BG12" s="32"/>
+      <c r="BH12" s="32"/>
+      <c r="BI12" s="32"/>
+      <c r="BJ12" s="32"/>
+      <c r="BK12" s="32"/>
+      <c r="BL12" s="32"/>
+      <c r="BM12" s="32"/>
+      <c r="BN12" s="32"/>
+      <c r="BO12" s="32"/>
+      <c r="BP12" s="32"/>
+      <c r="BQ12" s="32"/>
+      <c r="BR12" s="32"/>
+      <c r="BS12" s="32"/>
+      <c r="BT12" s="32"/>
+      <c r="BU12" s="32"/>
+      <c r="BV12" s="32"/>
+      <c r="BW12" s="32"/>
+      <c r="BX12" s="32"/>
+      <c r="BY12" s="33"/>
     </row>
     <row r="13" spans="32:77">
       <c r="AT13" s="16">
@@ -9966,42 +10123,42 @@
       <c r="BY14" s="62"/>
     </row>
     <row r="19" spans="46:77">
-      <c r="AT19" s="29" t="s">
+      <c r="AT19" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AU19" s="30"/>
-      <c r="AV19" s="30"/>
-      <c r="AW19" s="30"/>
-      <c r="AX19" s="30"/>
-      <c r="AY19" s="30"/>
-      <c r="AZ19" s="30"/>
-      <c r="BA19" s="30"/>
-      <c r="BB19" s="30"/>
-      <c r="BC19" s="30"/>
-      <c r="BD19" s="30"/>
-      <c r="BE19" s="30"/>
-      <c r="BF19" s="30"/>
-      <c r="BG19" s="30"/>
-      <c r="BH19" s="30"/>
-      <c r="BI19" s="31"/>
-      <c r="BJ19" s="56" t="s">
+      <c r="AU19" s="20"/>
+      <c r="AV19" s="20"/>
+      <c r="AW19" s="20"/>
+      <c r="AX19" s="20"/>
+      <c r="AY19" s="20"/>
+      <c r="AZ19" s="20"/>
+      <c r="BA19" s="20"/>
+      <c r="BB19" s="20"/>
+      <c r="BC19" s="20"/>
+      <c r="BD19" s="20"/>
+      <c r="BE19" s="20"/>
+      <c r="BF19" s="20"/>
+      <c r="BG19" s="20"/>
+      <c r="BH19" s="20"/>
+      <c r="BI19" s="21"/>
+      <c r="BJ19" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BK19" s="57"/>
-      <c r="BL19" s="57"/>
-      <c r="BM19" s="57"/>
-      <c r="BN19" s="57"/>
-      <c r="BO19" s="57"/>
-      <c r="BP19" s="57"/>
-      <c r="BQ19" s="57"/>
-      <c r="BR19" s="57"/>
-      <c r="BS19" s="57"/>
-      <c r="BT19" s="57"/>
-      <c r="BU19" s="57"/>
-      <c r="BV19" s="57"/>
-      <c r="BW19" s="57"/>
-      <c r="BX19" s="57"/>
-      <c r="BY19" s="58"/>
+      <c r="BK19" s="32"/>
+      <c r="BL19" s="32"/>
+      <c r="BM19" s="32"/>
+      <c r="BN19" s="32"/>
+      <c r="BO19" s="32"/>
+      <c r="BP19" s="32"/>
+      <c r="BQ19" s="32"/>
+      <c r="BR19" s="32"/>
+      <c r="BS19" s="32"/>
+      <c r="BT19" s="32"/>
+      <c r="BU19" s="32"/>
+      <c r="BV19" s="32"/>
+      <c r="BW19" s="32"/>
+      <c r="BX19" s="32"/>
+      <c r="BY19" s="33"/>
     </row>
     <row r="20" spans="46:77">
       <c r="AT20" s="16">
@@ -10084,42 +10241,42 @@
       <c r="BY21" s="62"/>
     </row>
     <row r="26" spans="46:77">
-      <c r="AT26" s="29" t="s">
+      <c r="AT26" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="30"/>
-      <c r="AV26" s="30"/>
-      <c r="AW26" s="30"/>
-      <c r="AX26" s="30"/>
-      <c r="AY26" s="30"/>
-      <c r="AZ26" s="30"/>
-      <c r="BA26" s="30"/>
-      <c r="BB26" s="30"/>
-      <c r="BC26" s="30"/>
-      <c r="BD26" s="30"/>
-      <c r="BE26" s="30"/>
-      <c r="BF26" s="30"/>
-      <c r="BG26" s="30"/>
-      <c r="BH26" s="30"/>
-      <c r="BI26" s="30"/>
-      <c r="BJ26" s="30"/>
-      <c r="BK26" s="30"/>
-      <c r="BL26" s="30"/>
-      <c r="BM26" s="30"/>
-      <c r="BN26" s="30"/>
-      <c r="BO26" s="30"/>
-      <c r="BP26" s="30"/>
-      <c r="BQ26" s="31"/>
-      <c r="BR26" s="56" t="s">
+      <c r="AU26" s="20"/>
+      <c r="AV26" s="20"/>
+      <c r="AW26" s="20"/>
+      <c r="AX26" s="20"/>
+      <c r="AY26" s="20"/>
+      <c r="AZ26" s="20"/>
+      <c r="BA26" s="20"/>
+      <c r="BB26" s="20"/>
+      <c r="BC26" s="20"/>
+      <c r="BD26" s="20"/>
+      <c r="BE26" s="20"/>
+      <c r="BF26" s="20"/>
+      <c r="BG26" s="20"/>
+      <c r="BH26" s="20"/>
+      <c r="BI26" s="20"/>
+      <c r="BJ26" s="20"/>
+      <c r="BK26" s="20"/>
+      <c r="BL26" s="20"/>
+      <c r="BM26" s="20"/>
+      <c r="BN26" s="20"/>
+      <c r="BO26" s="20"/>
+      <c r="BP26" s="20"/>
+      <c r="BQ26" s="21"/>
+      <c r="BR26" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="BS26" s="57"/>
-      <c r="BT26" s="57"/>
-      <c r="BU26" s="57"/>
-      <c r="BV26" s="57"/>
-      <c r="BW26" s="57"/>
-      <c r="BX26" s="57"/>
-      <c r="BY26" s="58"/>
+      <c r="BS26" s="32"/>
+      <c r="BT26" s="32"/>
+      <c r="BU26" s="32"/>
+      <c r="BV26" s="32"/>
+      <c r="BW26" s="32"/>
+      <c r="BX26" s="32"/>
+      <c r="BY26" s="33"/>
     </row>
     <row r="27" spans="46:77">
       <c r="AT27" s="16">
@@ -10207,16 +10364,16 @@
       <c r="AG34"/>
     </row>
     <row r="90" spans="95:101">
-      <c r="CQ90" s="59" t="s">
+      <c r="CQ90" s="63" t="s">
         <v>51</v>
       </c>
-      <c r="CR90" s="59"/>
-      <c r="CS90" s="59"/>
-      <c r="CU90" s="59" t="s">
+      <c r="CR90" s="63"/>
+      <c r="CS90" s="63"/>
+      <c r="CU90" s="63" t="s">
         <v>53</v>
       </c>
-      <c r="CV90" s="59"/>
-      <c r="CW90" s="59"/>
+      <c r="CV90" s="63"/>
+      <c r="CW90" s="63"/>
     </row>
     <row r="91" spans="95:101">
       <c r="CQ91" s="17" t="s">
@@ -10279,16 +10436,16 @@
       </c>
     </row>
     <row r="95" spans="95:101">
-      <c r="CQ95" s="59" t="s">
+      <c r="CQ95" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="CR95" s="59"/>
-      <c r="CS95" s="59"/>
-      <c r="CU95" s="59" t="s">
+      <c r="CR95" s="63"/>
+      <c r="CS95" s="63"/>
+      <c r="CU95" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="CV95" s="59"/>
-      <c r="CW95" s="59"/>
+      <c r="CV95" s="63"/>
+      <c r="CW95" s="63"/>
     </row>
     <row r="96" spans="95:101">
       <c r="CQ96" s="17" t="s">
@@ -10342,7 +10499,7 @@
       </c>
     </row>
     <row r="104" spans="95:106">
-      <c r="CZ104" s="79"/>
+      <c r="CZ104" s="18"/>
       <c r="DA104" s="8" t="s">
         <v>64</v>
       </c>
@@ -10351,7 +10508,7 @@
       </c>
     </row>
     <row r="105" spans="95:106">
-      <c r="CZ105" s="79" t="s">
+      <c r="CZ105" s="18" t="s">
         <v>66</v>
       </c>
       <c r="DA105" s="16" t="s">
@@ -10362,7 +10519,7 @@
       </c>
     </row>
     <row r="106" spans="95:106">
-      <c r="CZ106" s="79" t="s">
+      <c r="CZ106" s="18" t="s">
         <v>67</v>
       </c>
       <c r="DA106" s="16" t="s">
@@ -10373,7 +10530,7 @@
       </c>
     </row>
     <row r="107" spans="95:106">
-      <c r="CZ107" s="79" t="s">
+      <c r="CZ107" s="18" t="s">
         <v>68</v>
       </c>
       <c r="DA107" s="16" t="s">
@@ -10384,7 +10541,7 @@
       </c>
     </row>
     <row r="108" spans="95:106">
-      <c r="CZ108" s="79" t="s">
+      <c r="CZ108" s="18" t="s">
         <v>69</v>
       </c>
       <c r="DA108" s="16" t="s">
@@ -10395,7 +10552,7 @@
       </c>
     </row>
     <row r="109" spans="95:106">
-      <c r="CZ109" s="79" t="s">
+      <c r="CZ109" s="18" t="s">
         <v>70</v>
       </c>
       <c r="DA109" s="16" t="s">
@@ -10406,7 +10563,7 @@
       </c>
     </row>
     <row r="110" spans="95:106">
-      <c r="CZ110" s="79" t="s">
+      <c r="CZ110" s="18" t="s">
         <v>71</v>
       </c>
       <c r="DA110" s="16" t="s">
@@ -10417,7 +10574,7 @@
       </c>
     </row>
     <row r="111" spans="95:106">
-      <c r="CZ111" s="79" t="s">
+      <c r="CZ111" s="18" t="s">
         <v>72</v>
       </c>
       <c r="DA111" s="16" t="s">
@@ -10429,6 +10586,24 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="BJ14:BQ14"/>
+    <mergeCell ref="BR14:BY14"/>
+    <mergeCell ref="AT21:BA21"/>
+    <mergeCell ref="BB21:BI21"/>
+    <mergeCell ref="BJ21:BQ21"/>
+    <mergeCell ref="BR21:BY21"/>
+    <mergeCell ref="AT19:BI19"/>
+    <mergeCell ref="BJ19:BY19"/>
+    <mergeCell ref="AI7:AK7"/>
+    <mergeCell ref="AL7:AN7"/>
+    <mergeCell ref="CQ90:CS90"/>
+    <mergeCell ref="CU90:CW90"/>
+    <mergeCell ref="CQ95:CS95"/>
+    <mergeCell ref="CU95:CW95"/>
+    <mergeCell ref="AT28:BA28"/>
+    <mergeCell ref="BB28:BI28"/>
     <mergeCell ref="BJ28:BQ28"/>
     <mergeCell ref="BR28:BY28"/>
     <mergeCell ref="AT26:BQ26"/>
@@ -10445,24 +10620,6 @@
     <mergeCell ref="AL8:AN8"/>
     <mergeCell ref="AO8:AQ8"/>
     <mergeCell ref="AF7:AH7"/>
-    <mergeCell ref="AI7:AK7"/>
-    <mergeCell ref="AL7:AN7"/>
-    <mergeCell ref="CQ90:CS90"/>
-    <mergeCell ref="CU90:CW90"/>
-    <mergeCell ref="CQ95:CS95"/>
-    <mergeCell ref="CU95:CW95"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="BJ14:BQ14"/>
-    <mergeCell ref="BR14:BY14"/>
-    <mergeCell ref="AT21:BA21"/>
-    <mergeCell ref="BB21:BI21"/>
-    <mergeCell ref="BJ21:BQ21"/>
-    <mergeCell ref="BR21:BY21"/>
-    <mergeCell ref="AT19:BI19"/>
-    <mergeCell ref="BJ19:BY19"/>
-    <mergeCell ref="AT28:BA28"/>
-    <mergeCell ref="BB28:BI28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10473,109 +10630,114 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DF5AA0-B8E4-6B4D-A4F3-3DCEFC487B82}">
-  <dimension ref="D2:AA12"/>
+  <dimension ref="D2:AJ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="AF16" sqref="AF16"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="22" customHeight="1"/>
+  <cols>
+    <col min="30" max="32" width="23.83203125" customWidth="1"/>
+    <col min="33" max="33" width="5.33203125" customWidth="1"/>
+    <col min="34" max="36" width="23.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="4:27" ht="22" customHeight="1">
-      <c r="D2" s="66" t="s">
+    <row r="2" spans="4:36" ht="22" customHeight="1">
+      <c r="D2" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="66" t="s">
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
     </row>
-    <row r="3" spans="4:27" ht="22" customHeight="1">
-      <c r="D3" s="66" t="s">
+    <row r="3" spans="4:36" ht="22" customHeight="1">
+      <c r="D3" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="67"/>
-      <c r="M3" s="67"/>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="67"/>
-      <c r="AA3" s="67"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="68"/>
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
     </row>
-    <row r="4" spans="4:27" ht="22" customHeight="1">
-      <c r="D4" s="66" t="s">
+    <row r="4" spans="4:36" ht="22" customHeight="1">
+      <c r="D4" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
-      <c r="G4" s="67"/>
-      <c r="H4" s="67"/>
-      <c r="I4" s="67"/>
-      <c r="J4" s="67"/>
-      <c r="K4" s="67"/>
-      <c r="L4" s="67"/>
-      <c r="M4" s="67"/>
-      <c r="N4" s="67"/>
-      <c r="O4" s="67"/>
-      <c r="P4" s="67"/>
-      <c r="Q4" s="67"/>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="68"/>
+      <c r="J4" s="68"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="68"/>
+      <c r="M4" s="68"/>
+      <c r="N4" s="68"/>
+      <c r="O4" s="68"/>
+      <c r="P4" s="68"/>
+      <c r="Q4" s="68"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
     </row>
-    <row r="5" spans="4:27" ht="22" customHeight="1">
+    <row r="5" spans="4:36" ht="22" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="68" t="s">
+      <c r="F5" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="72"/>
+      <c r="G5" s="73"/>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
@@ -10600,124 +10762,507 @@
       <c r="O5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="76" t="s">
+      <c r="P5" s="77" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="77"/>
-      <c r="R5" s="77"/>
-      <c r="S5" s="77"/>
-      <c r="T5" s="77"/>
-      <c r="U5" s="77"/>
-      <c r="V5" s="77"/>
-      <c r="W5" s="77"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="77"/>
-      <c r="Z5" s="77"/>
-      <c r="AA5" s="78"/>
+      <c r="Q5" s="78"/>
+      <c r="R5" s="78"/>
+      <c r="S5" s="78"/>
+      <c r="T5" s="78"/>
+      <c r="U5" s="78"/>
+      <c r="V5" s="78"/>
+      <c r="W5" s="78"/>
+      <c r="X5" s="78"/>
+      <c r="Y5" s="78"/>
+      <c r="Z5" s="78"/>
+      <c r="AA5" s="79"/>
     </row>
-    <row r="6" spans="4:27" ht="22" customHeight="1">
-      <c r="D6" s="66" t="s">
+    <row r="6" spans="4:36" ht="22" customHeight="1">
+      <c r="D6" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="67"/>
-      <c r="F6" s="67"/>
-      <c r="G6" s="67"/>
-      <c r="H6" s="67"/>
-      <c r="I6" s="67"/>
-      <c r="J6" s="67"/>
-      <c r="K6" s="67"/>
-      <c r="L6" s="67"/>
-      <c r="M6" s="67"/>
-      <c r="N6" s="67"/>
-      <c r="O6" s="67"/>
-      <c r="P6" s="66" t="s">
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="68"/>
+      <c r="L6" s="68"/>
+      <c r="M6" s="68"/>
+      <c r="N6" s="68"/>
+      <c r="O6" s="68"/>
+      <c r="P6" s="67" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="67"/>
-      <c r="R6" s="67"/>
-      <c r="S6" s="67"/>
-      <c r="T6" s="67"/>
-      <c r="U6" s="67"/>
-      <c r="V6" s="67"/>
-      <c r="W6" s="67"/>
-      <c r="X6" s="67"/>
-      <c r="Y6" s="67"/>
-      <c r="Z6" s="67"/>
-      <c r="AA6" s="67"/>
+      <c r="Q6" s="68"/>
+      <c r="R6" s="68"/>
+      <c r="S6" s="68"/>
+      <c r="T6" s="68"/>
+      <c r="U6" s="68"/>
+      <c r="V6" s="68"/>
+      <c r="W6" s="68"/>
+      <c r="X6" s="68"/>
+      <c r="Y6" s="68"/>
+      <c r="Z6" s="68"/>
+      <c r="AA6" s="68"/>
     </row>
-    <row r="7" spans="4:27" ht="22" customHeight="1">
-      <c r="D7" s="68" t="s">
+    <row r="7" spans="4:36" ht="22" customHeight="1">
+      <c r="D7" s="69" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
-      <c r="O7" s="69"/>
-      <c r="P7" s="69"/>
-      <c r="Q7" s="69"/>
-      <c r="R7" s="69"/>
-      <c r="S7" s="69"/>
-      <c r="T7" s="69"/>
-      <c r="U7" s="69"/>
-      <c r="V7" s="70"/>
-      <c r="W7" s="68" t="s">
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="70"/>
+      <c r="Q7" s="70"/>
+      <c r="R7" s="70"/>
+      <c r="S7" s="70"/>
+      <c r="T7" s="70"/>
+      <c r="U7" s="70"/>
+      <c r="V7" s="71"/>
+      <c r="W7" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="71"/>
-      <c r="Y7" s="71"/>
-      <c r="Z7" s="71"/>
-      <c r="AA7" s="72"/>
+      <c r="X7" s="72"/>
+      <c r="Y7" s="72"/>
+      <c r="Z7" s="72"/>
+      <c r="AA7" s="73"/>
     </row>
-    <row r="10" spans="4:27" ht="22" customHeight="1">
-      <c r="N10" s="68" t="s">
+    <row r="10" spans="4:36" ht="22" customHeight="1">
+      <c r="N10" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="69"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="73" t="s">
+      <c r="O10" s="70"/>
+      <c r="P10" s="71"/>
+      <c r="Q10" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="74"/>
-      <c r="S10" s="74"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="74"/>
-      <c r="V10" s="74"/>
-      <c r="W10" s="74"/>
-      <c r="X10" s="75"/>
+      <c r="R10" s="75"/>
+      <c r="S10" s="75"/>
+      <c r="T10" s="75"/>
+      <c r="U10" s="75"/>
+      <c r="V10" s="75"/>
+      <c r="W10" s="75"/>
+      <c r="X10" s="76"/>
     </row>
-    <row r="11" spans="4:27" ht="22" customHeight="1">
+    <row r="11" spans="4:36" ht="22" customHeight="1">
       <c r="N11" s="1"/>
       <c r="X11" s="2"/>
     </row>
-    <row r="12" spans="4:27" ht="22" customHeight="1">
-      <c r="K12" s="63" t="s">
+    <row r="12" spans="4:36" ht="22" customHeight="1">
+      <c r="K12" s="64" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="64"/>
-      <c r="M12" s="65"/>
-      <c r="N12" s="73" t="s">
+      <c r="L12" s="65"/>
+      <c r="M12" s="66"/>
+      <c r="N12" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="74"/>
-      <c r="P12" s="74"/>
-      <c r="Q12" s="74"/>
-      <c r="R12" s="74"/>
-      <c r="S12" s="74"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="74"/>
-      <c r="V12" s="74"/>
-      <c r="W12" s="74"/>
-      <c r="X12" s="75"/>
+      <c r="O12" s="75"/>
+      <c r="P12" s="75"/>
+      <c r="Q12" s="75"/>
+      <c r="R12" s="75"/>
+      <c r="S12" s="75"/>
+      <c r="T12" s="75"/>
+      <c r="U12" s="75"/>
+      <c r="V12" s="75"/>
+      <c r="W12" s="75"/>
+      <c r="X12" s="76"/>
+    </row>
+    <row r="14" spans="4:36" ht="22" customHeight="1">
+      <c r="AD14" s="82" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE14" s="82"/>
+      <c r="AF14" s="82"/>
+      <c r="AG14" s="80"/>
+      <c r="AH14" s="84" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI14" s="84"/>
+      <c r="AJ14" s="84"/>
+    </row>
+    <row r="15" spans="4:36" ht="22" customHeight="1">
+      <c r="AD15" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="AE15" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF15" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG15" s="80"/>
+      <c r="AH15" s="85" t="s">
+        <v>93</v>
+      </c>
+      <c r="AI15" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ15" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="4:36" ht="22" customHeight="1">
+      <c r="AD16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE16" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="80"/>
+      <c r="AH16" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI16" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="AJ16" s="16" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17" spans="30:36" ht="22" customHeight="1">
+      <c r="AD17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="80"/>
+      <c r="AH17" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI17" s="16">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="30:36" ht="22" customHeight="1">
+      <c r="AD18" s="80"/>
+      <c r="AE18" s="80"/>
+      <c r="AF18" s="80"/>
+      <c r="AG18" s="80"/>
+      <c r="AH18" s="80"/>
+      <c r="AI18" s="80"/>
+      <c r="AJ18" s="80"/>
+    </row>
+    <row r="19" spans="30:36" ht="22" customHeight="1">
+      <c r="AD19" s="82" t="s">
+        <v>96</v>
+      </c>
+      <c r="AE19" s="82"/>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="80"/>
+      <c r="AH19" s="82" t="s">
+        <v>98</v>
+      </c>
+      <c r="AI19" s="82"/>
+      <c r="AJ19" s="82"/>
+    </row>
+    <row r="20" spans="30:36" ht="22" customHeight="1">
+      <c r="AD20" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE20" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF20" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG20" s="80"/>
+      <c r="AH20" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI20" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ20" s="83" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="30:36" ht="22" customHeight="1">
+      <c r="AD21" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF21" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AG21" s="80"/>
+      <c r="AH21" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI21" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="AJ21" s="16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="30:36" ht="22" customHeight="1">
+      <c r="AD22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AG22" s="80"/>
+      <c r="AH22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI22" s="16">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="30:36" ht="22" customHeight="1">
+      <c r="AD23" s="80"/>
+      <c r="AE23" s="80"/>
+      <c r="AF23" s="80"/>
+      <c r="AG23" s="80"/>
+      <c r="AH23" s="80"/>
+      <c r="AI23" s="80"/>
+      <c r="AJ23" s="80"/>
+    </row>
+    <row r="24" spans="30:36" ht="22" customHeight="1">
+      <c r="AD24" s="84" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE24" s="84"/>
+      <c r="AF24" s="84"/>
+      <c r="AG24" s="80"/>
+      <c r="AH24" s="84" t="s">
+        <v>109</v>
+      </c>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="84"/>
+    </row>
+    <row r="25" spans="30:36" ht="22" customHeight="1">
+      <c r="AD25" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE25" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF25" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG25" s="80"/>
+      <c r="AH25" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI25" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ25" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="30:36" ht="22" customHeight="1">
+      <c r="AD26" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE26" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF26" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AG26" s="80"/>
+      <c r="AH26" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI26" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="AJ26" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="30:36" ht="22" customHeight="1">
+      <c r="AD27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE27" s="16">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG27" s="80"/>
+      <c r="AH27" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI27" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="AJ27" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="30:36" ht="22" customHeight="1">
+      <c r="AD28" s="7"/>
+      <c r="AE28" s="7"/>
+      <c r="AF28" s="7"/>
+      <c r="AG28" s="7"/>
+      <c r="AH28" s="7"/>
+      <c r="AI28" s="7"/>
+      <c r="AJ28" s="7"/>
+    </row>
+    <row r="29" spans="30:36" ht="22" customHeight="1">
+      <c r="AD29" s="84" t="s">
+        <v>110</v>
+      </c>
+      <c r="AE29" s="84"/>
+      <c r="AF29" s="84"/>
+      <c r="AH29" s="84" t="s">
+        <v>111</v>
+      </c>
+      <c r="AI29" s="84"/>
+      <c r="AJ29" s="84"/>
+    </row>
+    <row r="30" spans="30:36" ht="22" customHeight="1">
+      <c r="AD30" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE30" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF30" s="85" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH30" s="85" t="s">
+        <v>99</v>
+      </c>
+      <c r="AI30" s="85" t="s">
+        <v>86</v>
+      </c>
+      <c r="AJ30" s="85" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="30:36" ht="22" customHeight="1">
+      <c r="AD31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE31" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AH31" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI31" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="AJ31" s="16" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="32" spans="30:36" ht="22" customHeight="1">
+      <c r="AD32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE32" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF32" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AH32" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AI32" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AJ32" s="16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="35" spans="30:33" ht="22" customHeight="1">
+      <c r="AD35" s="82" t="s">
+        <v>114</v>
+      </c>
+      <c r="AE35" s="82"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+    </row>
+    <row r="36" spans="30:33" ht="22" customHeight="1">
+      <c r="AD36" s="83" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE36" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF36" s="82" t="s">
+        <v>87</v>
+      </c>
+      <c r="AG36" s="82"/>
+    </row>
+    <row r="37" spans="30:33" ht="22" customHeight="1">
+      <c r="AD37" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE37" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF37" s="81" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG37" s="81"/>
+    </row>
+    <row r="38" spans="30:33" ht="22" customHeight="1">
+      <c r="AD38" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="AE38" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="AF38" s="81" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG38" s="81"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="26">
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AD35:AG35"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AH24:AJ24"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="P2:AA2"/>
@@ -10740,31 +11285,37 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <rangeList sheetStid="3" master=""/>
+  <rangeList sheetStid="7" master=""/>
+</allowEditUser>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
   <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
 </sheetInterline>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <rangeList sheetStid="3" master=""/>
-  <rangeList sheetStid="7" master=""/>
-</allowEditUser>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -10772,13 +11323,34 @@
 </settings>
 </file>
 
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -10787,35 +11359,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -10824,7 +11369,7 @@
 </file>
 
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>

--- a/network.xlsx
+++ b/network.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/limingxie/projects/limingxie/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8120000_{76B90FE0-1E6E-6242-8698-72CD5A6D4870}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FFAED43F-B87D-BF46-827A-0EA625FD5EF5}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1040" yWindow="2700" windowWidth="32660" windowHeight="17480" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,6 @@
     <sheet name="TCP" sheetId="41" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1033,13 +1032,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1060,6 +1059,48 @@
     <xf numFmtId="0" fontId="8" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1069,15 +1110,6 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1085,15 +1117,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1114,30 +1137,6 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1156,6 +1155,15 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1166,6 +1174,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1214,24 +1231,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9071,6 +9070,871 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="圆角矩形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A47DF684-5068-A84D-BB10-E7C3126E97E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1866900" y="12293600"/>
+          <a:ext cx="1638300" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5814"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>游览器</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="2400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="2400"/>
+            <a:t>A)</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="2400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>254000</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>50800</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="圆角矩形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4892D85-9AE8-9E4A-B6A1-81CCF70B8BC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6794500" y="12293600"/>
+          <a:ext cx="1638300" cy="3403600"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 5814"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent5">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="91440" tIns="45720" rIns="91440" bIns="45720" numCol="1" spcCol="0" rtlCol="0" fromWordArt="0" anchor="ctr" anchorCtr="0" forceAA="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="2400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>服务器</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直线箭头连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C14CCBBF-208D-BF4A-B1AE-D761D2C60375}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3530600" y="13017500"/>
+          <a:ext cx="3251200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直线箭头连接符 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FEDF237-AF54-2E43-990C-5C59D8BAAE3A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3479800" y="13195300"/>
+          <a:ext cx="3302000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>156788</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1834477" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="文本框 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8C8DF4-6FFB-C74A-A0C4-25DED382E928}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4246188" y="12496800"/>
+          <a:ext cx="1834477" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>1.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>http://xxx/login</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>username:xxx</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>pwd:xxx</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>251431</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2813591" cy="554704"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="文本框 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDBA450-687B-9E49-8F5F-48608E9CAAA1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3756631" y="13258800"/>
+          <a:ext cx="2813591" cy="554704"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>2.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>200</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> 登录成功</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>header:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>Set-Cookie:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>SessionID=8888</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="圆角矩形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB204959-8238-1842-88E8-81D050BBAA80}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6934200" y="12471400"/>
+          <a:ext cx="1320800" cy="1193800"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>Session(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t>用户</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>A)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>id</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>8888</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>username</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>=</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>xx</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1300" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1300" baseline="0"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1300"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直线箭头连接符 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8B5BBE2-ADC8-A340-82C7-4E49DF1E90E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3543300" y="14744700"/>
+          <a:ext cx="3251200" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="16" name="直线箭头连接符 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D081EBA8-F448-1942-9E65-3260D884B989}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3492500" y="14922500"/>
+          <a:ext cx="3302000" cy="12700"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>241300</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3418052" cy="530658"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="文本框 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC4C4C12-23F2-BF49-93E6-21800426DAC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3454400" y="14211300"/>
+          <a:ext cx="3418052" cy="530658"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>3.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>http://xxx/resource</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>header:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>header: Set-Cookie: SessionID=8888</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>268325</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>108904</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1611403" cy="311496"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DED0629-1C14-FD4E-B08F-9142306C2462}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4357725" y="14917104"/>
+          <a:ext cx="1611403" cy="311496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="ctr">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>4.</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>response:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400"/>
+            <a:t>json</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>{</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1400" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1400" baseline="0"/>
+            <a:t>}</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -9387,90 +10251,90 @@
       <c r="D4" s="8">
         <v>7</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="21"/>
-      <c r="N4" s="37">
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="35"/>
+      <c r="N4" s="28">
         <v>4</v>
       </c>
-      <c r="O4" s="34" t="s">
+      <c r="O4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="35"/>
-      <c r="R4" s="35"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="36"/>
-      <c r="X4" s="37">
+      <c r="P4" s="46"/>
+      <c r="Q4" s="46"/>
+      <c r="R4" s="46"/>
+      <c r="S4" s="46"/>
+      <c r="T4" s="47"/>
+      <c r="X4" s="28">
         <v>5</v>
       </c>
-      <c r="Y4" s="34" t="s">
+      <c r="Y4" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="35"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="35"/>
-      <c r="AD4" s="36"/>
+      <c r="Z4" s="46"/>
+      <c r="AA4" s="46"/>
+      <c r="AB4" s="46"/>
+      <c r="AC4" s="46"/>
+      <c r="AD4" s="47"/>
     </row>
     <row r="5" spans="4:30" ht="27" customHeight="1">
       <c r="D5" s="14">
         <v>6</v>
       </c>
-      <c r="E5" s="48" t="s">
+      <c r="E5" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="50"/>
-      <c r="N5" s="38"/>
-      <c r="O5" s="40"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41"/>
-      <c r="S5" s="41"/>
-      <c r="T5" s="42"/>
-      <c r="X5" s="38"/>
-      <c r="Y5" s="40"/>
-      <c r="Z5" s="41"/>
-      <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
-      <c r="AC5" s="41"/>
-      <c r="AD5" s="42"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+      <c r="N5" s="29"/>
+      <c r="O5" s="48"/>
+      <c r="P5" s="49"/>
+      <c r="Q5" s="49"/>
+      <c r="R5" s="49"/>
+      <c r="S5" s="49"/>
+      <c r="T5" s="50"/>
+      <c r="X5" s="29"/>
+      <c r="Y5" s="48"/>
+      <c r="Z5" s="49"/>
+      <c r="AA5" s="49"/>
+      <c r="AB5" s="49"/>
+      <c r="AC5" s="49"/>
+      <c r="AD5" s="50"/>
     </row>
     <row r="6" spans="4:30" ht="27" customHeight="1">
       <c r="D6" s="13">
         <v>5</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
-      <c r="N6" s="39"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="44"/>
-      <c r="Q6" s="44"/>
-      <c r="R6" s="44"/>
-      <c r="S6" s="44"/>
-      <c r="T6" s="45"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="43"/>
-      <c r="Z6" s="44"/>
-      <c r="AA6" s="44"/>
-      <c r="AB6" s="44"/>
-      <c r="AC6" s="44"/>
-      <c r="AD6" s="45"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="52"/>
+      <c r="T6" s="53"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="51"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="52"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="53"/>
     </row>
     <row r="7" spans="4:30" ht="27" customHeight="1">
       <c r="D7" s="9">
@@ -9546,15 +10410,15 @@
       <c r="D9" s="12">
         <v>2</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="30"/>
-      <c r="N9" s="46">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+      <c r="N9" s="31">
         <v>1</v>
       </c>
       <c r="O9" s="54" t="s">
@@ -9568,28 +10432,28 @@
       <c r="X9" s="12">
         <v>2</v>
       </c>
-      <c r="Y9" s="28" t="s">
+      <c r="Y9" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="29"/>
-      <c r="AC9" s="29"/>
-      <c r="AD9" s="30"/>
+      <c r="Z9" s="43"/>
+      <c r="AA9" s="43"/>
+      <c r="AB9" s="43"/>
+      <c r="AC9" s="43"/>
+      <c r="AD9" s="44"/>
     </row>
     <row r="10" spans="4:30" ht="27" customHeight="1">
       <c r="D10" s="11">
         <v>1</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-      <c r="H10" s="32"/>
-      <c r="I10" s="32"/>
-      <c r="J10" s="33"/>
-      <c r="N10" s="47"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61"/>
+      <c r="J10" s="62"/>
+      <c r="N10" s="32"/>
       <c r="O10" s="57"/>
       <c r="P10" s="58"/>
       <c r="Q10" s="58"/>
@@ -9599,14 +10463,14 @@
       <c r="X10" s="11">
         <v>1</v>
       </c>
-      <c r="Y10" s="31" t="s">
+      <c r="Y10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="Z10" s="32"/>
-      <c r="AA10" s="32"/>
-      <c r="AB10" s="32"/>
-      <c r="AC10" s="32"/>
-      <c r="AD10" s="33"/>
+      <c r="Z10" s="61"/>
+      <c r="AA10" s="61"/>
+      <c r="AB10" s="61"/>
+      <c r="AC10" s="61"/>
+      <c r="AD10" s="62"/>
     </row>
     <row r="12" spans="4:30">
       <c r="E12" s="7" t="s">
@@ -9623,14 +10487,14 @@
       <c r="D20" s="15">
         <v>5</v>
       </c>
-      <c r="E20" s="34" t="s">
+      <c r="E20" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="47"/>
       <c r="U20" s="8">
         <v>5</v>
       </c>
@@ -9640,14 +10504,14 @@
       <c r="AM20" s="15">
         <v>5</v>
       </c>
-      <c r="AN20" s="19" t="s">
+      <c r="AN20" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="AO20" s="20"/>
-      <c r="AP20" s="20"/>
-      <c r="AQ20" s="20"/>
-      <c r="AR20" s="20"/>
-      <c r="AS20" s="21"/>
+      <c r="AO20" s="34"/>
+      <c r="AP20" s="34"/>
+      <c r="AQ20" s="34"/>
+      <c r="AR20" s="34"/>
+      <c r="AS20" s="35"/>
     </row>
     <row r="21" spans="4:45" ht="29" customHeight="1">
       <c r="D21" s="9">
@@ -9731,14 +10595,14 @@
       <c r="D23" s="12">
         <v>2</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="30"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="44"/>
       <c r="R23" s="12">
         <v>2</v>
       </c>
@@ -9772,27 +10636,27 @@
       <c r="AM23" s="12">
         <v>2</v>
       </c>
-      <c r="AN23" s="28" t="s">
+      <c r="AN23" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AO23" s="29"/>
-      <c r="AP23" s="29"/>
-      <c r="AQ23" s="29"/>
-      <c r="AR23" s="29"/>
-      <c r="AS23" s="30"/>
+      <c r="AO23" s="43"/>
+      <c r="AP23" s="43"/>
+      <c r="AQ23" s="43"/>
+      <c r="AR23" s="43"/>
+      <c r="AS23" s="44"/>
     </row>
     <row r="24" spans="4:45" ht="29" customHeight="1">
       <c r="D24" s="11">
         <v>1</v>
       </c>
-      <c r="E24" s="31" t="s">
+      <c r="E24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="32"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="61"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
+      <c r="J24" s="62"/>
       <c r="Q24" s="11">
         <v>1</v>
       </c>
@@ -9832,14 +10696,14 @@
       <c r="AM24" s="11">
         <v>1</v>
       </c>
-      <c r="AN24" s="31" t="s">
+      <c r="AN24" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="AO24" s="32"/>
-      <c r="AP24" s="32"/>
-      <c r="AQ24" s="32"/>
-      <c r="AR24" s="32"/>
-      <c r="AS24" s="33"/>
+      <c r="AO24" s="61"/>
+      <c r="AP24" s="61"/>
+      <c r="AQ24" s="61"/>
+      <c r="AR24" s="61"/>
+      <c r="AS24" s="62"/>
     </row>
     <row r="26" spans="4:45" ht="29" customHeight="1">
       <c r="Q26" s="11">
@@ -9881,6 +10745,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="AN20:AS20"/>
+    <mergeCell ref="AN21:AS21"/>
+    <mergeCell ref="AN22:AS22"/>
+    <mergeCell ref="AN23:AS23"/>
+    <mergeCell ref="AN24:AS24"/>
+    <mergeCell ref="Y10:AD10"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E22:J22"/>
+    <mergeCell ref="E23:J23"/>
+    <mergeCell ref="E24:J24"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="X4:X6"/>
+    <mergeCell ref="Y4:AD6"/>
+    <mergeCell ref="Y7:AD7"/>
+    <mergeCell ref="Y8:AD8"/>
+    <mergeCell ref="Y9:AD9"/>
     <mergeCell ref="O7:T7"/>
     <mergeCell ref="O8:T8"/>
     <mergeCell ref="N4:N6"/>
@@ -9893,23 +10774,6 @@
     <mergeCell ref="E9:J9"/>
     <mergeCell ref="O4:T6"/>
     <mergeCell ref="O9:T10"/>
-    <mergeCell ref="X4:X6"/>
-    <mergeCell ref="Y4:AD6"/>
-    <mergeCell ref="Y7:AD7"/>
-    <mergeCell ref="Y8:AD8"/>
-    <mergeCell ref="Y9:AD9"/>
-    <mergeCell ref="Y10:AD10"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E22:J22"/>
-    <mergeCell ref="E23:J23"/>
-    <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="AN20:AS20"/>
-    <mergeCell ref="AN21:AS21"/>
-    <mergeCell ref="AN22:AS22"/>
-    <mergeCell ref="AN23:AS23"/>
-    <mergeCell ref="AN24:AS24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9921,7 +10785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1023BE6-1DF7-8E4E-BE37-362FF7DE3590}">
   <dimension ref="AF6:DB111"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="AC97" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="AC98" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="CU115" sqref="CU115"/>
     </sheetView>
   </sheetViews>
@@ -9941,108 +10805,108 @@
   </cols>
   <sheetData>
     <row r="6" spans="32:77">
-      <c r="AF6" s="19" t="s">
+      <c r="AF6" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="AG6" s="20"/>
-      <c r="AH6" s="21"/>
-      <c r="AI6" s="19" t="s">
+      <c r="AG6" s="34"/>
+      <c r="AH6" s="35"/>
+      <c r="AI6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="AJ6" s="20"/>
-      <c r="AK6" s="21"/>
-      <c r="AL6" s="19" t="s">
+      <c r="AJ6" s="34"/>
+      <c r="AK6" s="35"/>
+      <c r="AL6" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="AM6" s="20"/>
-      <c r="AN6" s="21"/>
-      <c r="AO6" s="19" t="s">
+      <c r="AM6" s="34"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="AP6" s="20"/>
-      <c r="AQ6" s="21"/>
+      <c r="AP6" s="34"/>
+      <c r="AQ6" s="35"/>
     </row>
     <row r="7" spans="32:77">
-      <c r="AF7" s="60" t="s">
+      <c r="AF7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AG7" s="61"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="60" t="s">
+      <c r="AG7" s="64"/>
+      <c r="AH7" s="65"/>
+      <c r="AI7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AJ7" s="61"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="60" t="s">
+      <c r="AJ7" s="64"/>
+      <c r="AK7" s="65"/>
+      <c r="AL7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="60" t="s">
+      <c r="AM7" s="64"/>
+      <c r="AN7" s="65"/>
+      <c r="AO7" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="AP7" s="61"/>
-      <c r="AQ7" s="62"/>
+      <c r="AP7" s="64"/>
+      <c r="AQ7" s="65"/>
     </row>
     <row r="8" spans="32:77">
-      <c r="AF8" s="60">
+      <c r="AF8" s="63">
         <v>192</v>
       </c>
-      <c r="AG8" s="61"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="60">
+      <c r="AG8" s="64"/>
+      <c r="AH8" s="65"/>
+      <c r="AI8" s="63">
         <v>168</v>
       </c>
-      <c r="AJ8" s="61"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="60">
+      <c r="AJ8" s="64"/>
+      <c r="AK8" s="65"/>
+      <c r="AL8" s="63">
         <v>1</v>
       </c>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="60">
+      <c r="AM8" s="64"/>
+      <c r="AN8" s="65"/>
+      <c r="AO8" s="63">
         <v>10</v>
       </c>
-      <c r="AP8" s="61"/>
-      <c r="AQ8" s="62"/>
+      <c r="AP8" s="64"/>
+      <c r="AQ8" s="65"/>
     </row>
     <row r="12" spans="32:77">
-      <c r="AT12" s="19" t="s">
+      <c r="AT12" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AU12" s="20"/>
-      <c r="AV12" s="20"/>
-      <c r="AW12" s="20"/>
-      <c r="AX12" s="20"/>
-      <c r="AY12" s="20"/>
-      <c r="AZ12" s="20"/>
-      <c r="BA12" s="21"/>
-      <c r="BB12" s="31" t="s">
+      <c r="AU12" s="34"/>
+      <c r="AV12" s="34"/>
+      <c r="AW12" s="34"/>
+      <c r="AX12" s="34"/>
+      <c r="AY12" s="34"/>
+      <c r="AZ12" s="34"/>
+      <c r="BA12" s="35"/>
+      <c r="BB12" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="BC12" s="32"/>
-      <c r="BD12" s="32"/>
-      <c r="BE12" s="32"/>
-      <c r="BF12" s="32"/>
-      <c r="BG12" s="32"/>
-      <c r="BH12" s="32"/>
-      <c r="BI12" s="32"/>
-      <c r="BJ12" s="32"/>
-      <c r="BK12" s="32"/>
-      <c r="BL12" s="32"/>
-      <c r="BM12" s="32"/>
-      <c r="BN12" s="32"/>
-      <c r="BO12" s="32"/>
-      <c r="BP12" s="32"/>
-      <c r="BQ12" s="32"/>
-      <c r="BR12" s="32"/>
-      <c r="BS12" s="32"/>
-      <c r="BT12" s="32"/>
-      <c r="BU12" s="32"/>
-      <c r="BV12" s="32"/>
-      <c r="BW12" s="32"/>
-      <c r="BX12" s="32"/>
-      <c r="BY12" s="33"/>
+      <c r="BC12" s="61"/>
+      <c r="BD12" s="61"/>
+      <c r="BE12" s="61"/>
+      <c r="BF12" s="61"/>
+      <c r="BG12" s="61"/>
+      <c r="BH12" s="61"/>
+      <c r="BI12" s="61"/>
+      <c r="BJ12" s="61"/>
+      <c r="BK12" s="61"/>
+      <c r="BL12" s="61"/>
+      <c r="BM12" s="61"/>
+      <c r="BN12" s="61"/>
+      <c r="BO12" s="61"/>
+      <c r="BP12" s="61"/>
+      <c r="BQ12" s="61"/>
+      <c r="BR12" s="61"/>
+      <c r="BS12" s="61"/>
+      <c r="BT12" s="61"/>
+      <c r="BU12" s="61"/>
+      <c r="BV12" s="61"/>
+      <c r="BW12" s="61"/>
+      <c r="BX12" s="61"/>
+      <c r="BY12" s="62"/>
     </row>
     <row r="13" spans="32:77">
       <c r="AT13" s="16">
@@ -10081,84 +10945,84 @@
       <c r="BY13" s="16"/>
     </row>
     <row r="14" spans="32:77">
-      <c r="AT14" s="60" t="s">
+      <c r="AT14" s="63" t="s">
         <v>41</v>
       </c>
-      <c r="AU14" s="61"/>
-      <c r="AV14" s="61"/>
-      <c r="AW14" s="61"/>
-      <c r="AX14" s="61"/>
-      <c r="AY14" s="61"/>
-      <c r="AZ14" s="61"/>
-      <c r="BA14" s="62"/>
-      <c r="BB14" s="60" t="s">
+      <c r="AU14" s="64"/>
+      <c r="AV14" s="64"/>
+      <c r="AW14" s="64"/>
+      <c r="AX14" s="64"/>
+      <c r="AY14" s="64"/>
+      <c r="AZ14" s="64"/>
+      <c r="BA14" s="65"/>
+      <c r="BB14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BC14" s="61"/>
-      <c r="BD14" s="61"/>
-      <c r="BE14" s="61"/>
-      <c r="BF14" s="61"/>
-      <c r="BG14" s="61"/>
-      <c r="BH14" s="61"/>
-      <c r="BI14" s="62"/>
-      <c r="BJ14" s="60" t="s">
+      <c r="BC14" s="64"/>
+      <c r="BD14" s="64"/>
+      <c r="BE14" s="64"/>
+      <c r="BF14" s="64"/>
+      <c r="BG14" s="64"/>
+      <c r="BH14" s="64"/>
+      <c r="BI14" s="65"/>
+      <c r="BJ14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BK14" s="61"/>
-      <c r="BL14" s="61"/>
-      <c r="BM14" s="61"/>
-      <c r="BN14" s="61"/>
-      <c r="BO14" s="61"/>
-      <c r="BP14" s="61"/>
-      <c r="BQ14" s="62"/>
-      <c r="BR14" s="60" t="s">
+      <c r="BK14" s="64"/>
+      <c r="BL14" s="64"/>
+      <c r="BM14" s="64"/>
+      <c r="BN14" s="64"/>
+      <c r="BO14" s="64"/>
+      <c r="BP14" s="64"/>
+      <c r="BQ14" s="65"/>
+      <c r="BR14" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BS14" s="61"/>
-      <c r="BT14" s="61"/>
-      <c r="BU14" s="61"/>
-      <c r="BV14" s="61"/>
-      <c r="BW14" s="61"/>
-      <c r="BX14" s="61"/>
-      <c r="BY14" s="62"/>
+      <c r="BS14" s="64"/>
+      <c r="BT14" s="64"/>
+      <c r="BU14" s="64"/>
+      <c r="BV14" s="64"/>
+      <c r="BW14" s="64"/>
+      <c r="BX14" s="64"/>
+      <c r="BY14" s="65"/>
     </row>
     <row r="19" spans="46:77">
-      <c r="AT19" s="19" t="s">
+      <c r="AT19" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AU19" s="20"/>
-      <c r="AV19" s="20"/>
-      <c r="AW19" s="20"/>
-      <c r="AX19" s="20"/>
-      <c r="AY19" s="20"/>
-      <c r="AZ19" s="20"/>
-      <c r="BA19" s="20"/>
-      <c r="BB19" s="20"/>
-      <c r="BC19" s="20"/>
-      <c r="BD19" s="20"/>
-      <c r="BE19" s="20"/>
-      <c r="BF19" s="20"/>
-      <c r="BG19" s="20"/>
-      <c r="BH19" s="20"/>
-      <c r="BI19" s="21"/>
-      <c r="BJ19" s="31" t="s">
+      <c r="AU19" s="34"/>
+      <c r="AV19" s="34"/>
+      <c r="AW19" s="34"/>
+      <c r="AX19" s="34"/>
+      <c r="AY19" s="34"/>
+      <c r="AZ19" s="34"/>
+      <c r="BA19" s="34"/>
+      <c r="BB19" s="34"/>
+      <c r="BC19" s="34"/>
+      <c r="BD19" s="34"/>
+      <c r="BE19" s="34"/>
+      <c r="BF19" s="34"/>
+      <c r="BG19" s="34"/>
+      <c r="BH19" s="34"/>
+      <c r="BI19" s="35"/>
+      <c r="BJ19" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="BK19" s="32"/>
-      <c r="BL19" s="32"/>
-      <c r="BM19" s="32"/>
-      <c r="BN19" s="32"/>
-      <c r="BO19" s="32"/>
-      <c r="BP19" s="32"/>
-      <c r="BQ19" s="32"/>
-      <c r="BR19" s="32"/>
-      <c r="BS19" s="32"/>
-      <c r="BT19" s="32"/>
-      <c r="BU19" s="32"/>
-      <c r="BV19" s="32"/>
-      <c r="BW19" s="32"/>
-      <c r="BX19" s="32"/>
-      <c r="BY19" s="33"/>
+      <c r="BK19" s="61"/>
+      <c r="BL19" s="61"/>
+      <c r="BM19" s="61"/>
+      <c r="BN19" s="61"/>
+      <c r="BO19" s="61"/>
+      <c r="BP19" s="61"/>
+      <c r="BQ19" s="61"/>
+      <c r="BR19" s="61"/>
+      <c r="BS19" s="61"/>
+      <c r="BT19" s="61"/>
+      <c r="BU19" s="61"/>
+      <c r="BV19" s="61"/>
+      <c r="BW19" s="61"/>
+      <c r="BX19" s="61"/>
+      <c r="BY19" s="62"/>
     </row>
     <row r="20" spans="46:77">
       <c r="AT20" s="16">
@@ -10199,84 +11063,84 @@
       <c r="BY20" s="16"/>
     </row>
     <row r="21" spans="46:77">
-      <c r="AT21" s="60" t="s">
+      <c r="AT21" s="63" t="s">
         <v>44</v>
       </c>
-      <c r="AU21" s="61"/>
-      <c r="AV21" s="61"/>
-      <c r="AW21" s="61"/>
-      <c r="AX21" s="61"/>
-      <c r="AY21" s="61"/>
-      <c r="AZ21" s="61"/>
-      <c r="BA21" s="62"/>
-      <c r="BB21" s="60" t="s">
+      <c r="AU21" s="64"/>
+      <c r="AV21" s="64"/>
+      <c r="AW21" s="64"/>
+      <c r="AX21" s="64"/>
+      <c r="AY21" s="64"/>
+      <c r="AZ21" s="64"/>
+      <c r="BA21" s="65"/>
+      <c r="BB21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BC21" s="61"/>
-      <c r="BD21" s="61"/>
-      <c r="BE21" s="61"/>
-      <c r="BF21" s="61"/>
-      <c r="BG21" s="61"/>
-      <c r="BH21" s="61"/>
-      <c r="BI21" s="62"/>
-      <c r="BJ21" s="60" t="s">
+      <c r="BC21" s="64"/>
+      <c r="BD21" s="64"/>
+      <c r="BE21" s="64"/>
+      <c r="BF21" s="64"/>
+      <c r="BG21" s="64"/>
+      <c r="BH21" s="64"/>
+      <c r="BI21" s="65"/>
+      <c r="BJ21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BK21" s="61"/>
-      <c r="BL21" s="61"/>
-      <c r="BM21" s="61"/>
-      <c r="BN21" s="61"/>
-      <c r="BO21" s="61"/>
-      <c r="BP21" s="61"/>
-      <c r="BQ21" s="62"/>
-      <c r="BR21" s="60" t="s">
+      <c r="BK21" s="64"/>
+      <c r="BL21" s="64"/>
+      <c r="BM21" s="64"/>
+      <c r="BN21" s="64"/>
+      <c r="BO21" s="64"/>
+      <c r="BP21" s="64"/>
+      <c r="BQ21" s="65"/>
+      <c r="BR21" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BS21" s="61"/>
-      <c r="BT21" s="61"/>
-      <c r="BU21" s="61"/>
-      <c r="BV21" s="61"/>
-      <c r="BW21" s="61"/>
-      <c r="BX21" s="61"/>
-      <c r="BY21" s="62"/>
+      <c r="BS21" s="64"/>
+      <c r="BT21" s="64"/>
+      <c r="BU21" s="64"/>
+      <c r="BV21" s="64"/>
+      <c r="BW21" s="64"/>
+      <c r="BX21" s="64"/>
+      <c r="BY21" s="65"/>
     </row>
     <row r="26" spans="46:77">
-      <c r="AT26" s="19" t="s">
+      <c r="AT26" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="AU26" s="20"/>
-      <c r="AV26" s="20"/>
-      <c r="AW26" s="20"/>
-      <c r="AX26" s="20"/>
-      <c r="AY26" s="20"/>
-      <c r="AZ26" s="20"/>
-      <c r="BA26" s="20"/>
-      <c r="BB26" s="20"/>
-      <c r="BC26" s="20"/>
-      <c r="BD26" s="20"/>
-      <c r="BE26" s="20"/>
-      <c r="BF26" s="20"/>
-      <c r="BG26" s="20"/>
-      <c r="BH26" s="20"/>
-      <c r="BI26" s="20"/>
-      <c r="BJ26" s="20"/>
-      <c r="BK26" s="20"/>
-      <c r="BL26" s="20"/>
-      <c r="BM26" s="20"/>
-      <c r="BN26" s="20"/>
-      <c r="BO26" s="20"/>
-      <c r="BP26" s="20"/>
-      <c r="BQ26" s="21"/>
-      <c r="BR26" s="31" t="s">
+      <c r="AU26" s="34"/>
+      <c r="AV26" s="34"/>
+      <c r="AW26" s="34"/>
+      <c r="AX26" s="34"/>
+      <c r="AY26" s="34"/>
+      <c r="AZ26" s="34"/>
+      <c r="BA26" s="34"/>
+      <c r="BB26" s="34"/>
+      <c r="BC26" s="34"/>
+      <c r="BD26" s="34"/>
+      <c r="BE26" s="34"/>
+      <c r="BF26" s="34"/>
+      <c r="BG26" s="34"/>
+      <c r="BH26" s="34"/>
+      <c r="BI26" s="34"/>
+      <c r="BJ26" s="34"/>
+      <c r="BK26" s="34"/>
+      <c r="BL26" s="34"/>
+      <c r="BM26" s="34"/>
+      <c r="BN26" s="34"/>
+      <c r="BO26" s="34"/>
+      <c r="BP26" s="34"/>
+      <c r="BQ26" s="35"/>
+      <c r="BR26" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="BS26" s="32"/>
-      <c r="BT26" s="32"/>
-      <c r="BU26" s="32"/>
-      <c r="BV26" s="32"/>
-      <c r="BW26" s="32"/>
-      <c r="BX26" s="32"/>
-      <c r="BY26" s="33"/>
+      <c r="BS26" s="61"/>
+      <c r="BT26" s="61"/>
+      <c r="BU26" s="61"/>
+      <c r="BV26" s="61"/>
+      <c r="BW26" s="61"/>
+      <c r="BX26" s="61"/>
+      <c r="BY26" s="62"/>
     </row>
     <row r="27" spans="46:77">
       <c r="AT27" s="16">
@@ -10319,61 +11183,61 @@
       <c r="BY27" s="16"/>
     </row>
     <row r="28" spans="46:77">
-      <c r="AT28" s="60" t="s">
+      <c r="AT28" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="AU28" s="61"/>
-      <c r="AV28" s="61"/>
-      <c r="AW28" s="61"/>
-      <c r="AX28" s="61"/>
-      <c r="AY28" s="61"/>
-      <c r="AZ28" s="61"/>
-      <c r="BA28" s="62"/>
-      <c r="BB28" s="60" t="s">
+      <c r="AU28" s="64"/>
+      <c r="AV28" s="64"/>
+      <c r="AW28" s="64"/>
+      <c r="AX28" s="64"/>
+      <c r="AY28" s="64"/>
+      <c r="AZ28" s="64"/>
+      <c r="BA28" s="65"/>
+      <c r="BB28" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BC28" s="61"/>
-      <c r="BD28" s="61"/>
-      <c r="BE28" s="61"/>
-      <c r="BF28" s="61"/>
-      <c r="BG28" s="61"/>
-      <c r="BH28" s="61"/>
-      <c r="BI28" s="62"/>
-      <c r="BJ28" s="60" t="s">
+      <c r="BC28" s="64"/>
+      <c r="BD28" s="64"/>
+      <c r="BE28" s="64"/>
+      <c r="BF28" s="64"/>
+      <c r="BG28" s="64"/>
+      <c r="BH28" s="64"/>
+      <c r="BI28" s="65"/>
+      <c r="BJ28" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BK28" s="61"/>
-      <c r="BL28" s="61"/>
-      <c r="BM28" s="61"/>
-      <c r="BN28" s="61"/>
-      <c r="BO28" s="61"/>
-      <c r="BP28" s="61"/>
-      <c r="BQ28" s="62"/>
-      <c r="BR28" s="60" t="s">
+      <c r="BK28" s="64"/>
+      <c r="BL28" s="64"/>
+      <c r="BM28" s="64"/>
+      <c r="BN28" s="64"/>
+      <c r="BO28" s="64"/>
+      <c r="BP28" s="64"/>
+      <c r="BQ28" s="65"/>
+      <c r="BR28" s="63" t="s">
         <v>42</v>
       </c>
-      <c r="BS28" s="61"/>
-      <c r="BT28" s="61"/>
-      <c r="BU28" s="61"/>
-      <c r="BV28" s="61"/>
-      <c r="BW28" s="61"/>
-      <c r="BX28" s="61"/>
-      <c r="BY28" s="62"/>
+      <c r="BS28" s="64"/>
+      <c r="BT28" s="64"/>
+      <c r="BU28" s="64"/>
+      <c r="BV28" s="64"/>
+      <c r="BW28" s="64"/>
+      <c r="BX28" s="64"/>
+      <c r="BY28" s="65"/>
     </row>
     <row r="34" spans="33:33">
       <c r="AG34"/>
     </row>
     <row r="90" spans="95:101">
-      <c r="CQ90" s="63" t="s">
+      <c r="CQ90" s="66" t="s">
         <v>51</v>
       </c>
-      <c r="CR90" s="63"/>
-      <c r="CS90" s="63"/>
-      <c r="CU90" s="63" t="s">
+      <c r="CR90" s="66"/>
+      <c r="CS90" s="66"/>
+      <c r="CU90" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="CV90" s="63"/>
-      <c r="CW90" s="63"/>
+      <c r="CV90" s="66"/>
+      <c r="CW90" s="66"/>
     </row>
     <row r="91" spans="95:101">
       <c r="CQ91" s="17" t="s">
@@ -10436,16 +11300,16 @@
       </c>
     </row>
     <row r="95" spans="95:101">
-      <c r="CQ95" s="63" t="s">
+      <c r="CQ95" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="CR95" s="63"/>
-      <c r="CS95" s="63"/>
-      <c r="CU95" s="63" t="s">
+      <c r="CR95" s="66"/>
+      <c r="CS95" s="66"/>
+      <c r="CU95" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="CV95" s="63"/>
-      <c r="CW95" s="63"/>
+      <c r="CV95" s="66"/>
+      <c r="CW95" s="66"/>
     </row>
     <row r="96" spans="95:101">
       <c r="CQ96" s="17" t="s">
@@ -10586,16 +11450,18 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AO7:AQ7"/>
-    <mergeCell ref="BJ14:BQ14"/>
-    <mergeCell ref="BR14:BY14"/>
-    <mergeCell ref="AT21:BA21"/>
-    <mergeCell ref="BB21:BI21"/>
-    <mergeCell ref="BJ21:BQ21"/>
-    <mergeCell ref="BR21:BY21"/>
-    <mergeCell ref="AT19:BI19"/>
-    <mergeCell ref="BJ19:BY19"/>
+    <mergeCell ref="AF6:AH6"/>
+    <mergeCell ref="AI6:AK6"/>
+    <mergeCell ref="AL6:AN6"/>
+    <mergeCell ref="AT14:BA14"/>
+    <mergeCell ref="BB14:BI14"/>
+    <mergeCell ref="BB12:BY12"/>
+    <mergeCell ref="AT12:BA12"/>
+    <mergeCell ref="AF8:AH8"/>
+    <mergeCell ref="AI8:AK8"/>
+    <mergeCell ref="AL8:AN8"/>
+    <mergeCell ref="AO8:AQ8"/>
+    <mergeCell ref="AF7:AH7"/>
     <mergeCell ref="AI7:AK7"/>
     <mergeCell ref="AL7:AN7"/>
     <mergeCell ref="CQ90:CS90"/>
@@ -10608,18 +11474,16 @@
     <mergeCell ref="BR28:BY28"/>
     <mergeCell ref="AT26:BQ26"/>
     <mergeCell ref="BR26:BY26"/>
-    <mergeCell ref="AF6:AH6"/>
-    <mergeCell ref="AI6:AK6"/>
-    <mergeCell ref="AL6:AN6"/>
-    <mergeCell ref="AT14:BA14"/>
-    <mergeCell ref="BB14:BI14"/>
-    <mergeCell ref="BB12:BY12"/>
-    <mergeCell ref="AT12:BA12"/>
-    <mergeCell ref="AF8:AH8"/>
-    <mergeCell ref="AI8:AK8"/>
-    <mergeCell ref="AL8:AN8"/>
-    <mergeCell ref="AO8:AQ8"/>
-    <mergeCell ref="AF7:AH7"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="BJ14:BQ14"/>
+    <mergeCell ref="BR14:BY14"/>
+    <mergeCell ref="AT21:BA21"/>
+    <mergeCell ref="BB21:BI21"/>
+    <mergeCell ref="BJ21:BQ21"/>
+    <mergeCell ref="BR21:BY21"/>
+    <mergeCell ref="AT19:BI19"/>
+    <mergeCell ref="BJ19:BY19"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10632,8 +11496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DF5AA0-B8E4-6B4D-A4F3-3DCEFC487B82}">
   <dimension ref="D2:AJ38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="AG54" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.83203125" defaultRowHeight="22" customHeight="1"/>
@@ -10644,100 +11508,100 @@
   </cols>
   <sheetData>
     <row r="2" spans="4:36" ht="22" customHeight="1">
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="73" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="67" t="s">
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
+      <c r="K2" s="74"/>
+      <c r="L2" s="74"/>
+      <c r="M2" s="74"/>
+      <c r="N2" s="74"/>
+      <c r="O2" s="74"/>
+      <c r="P2" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
+      <c r="Q2" s="74"/>
+      <c r="R2" s="74"/>
+      <c r="S2" s="74"/>
+      <c r="T2" s="74"/>
+      <c r="U2" s="74"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="74"/>
+      <c r="X2" s="74"/>
+      <c r="Y2" s="74"/>
+      <c r="Z2" s="74"/>
+      <c r="AA2" s="74"/>
     </row>
     <row r="3" spans="4:36" ht="22" customHeight="1">
-      <c r="D3" s="67" t="s">
+      <c r="D3" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
+      <c r="E3" s="74"/>
+      <c r="F3" s="74"/>
+      <c r="G3" s="74"/>
+      <c r="H3" s="74"/>
+      <c r="I3" s="74"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="74"/>
+      <c r="L3" s="74"/>
+      <c r="M3" s="74"/>
+      <c r="N3" s="74"/>
+      <c r="O3" s="74"/>
+      <c r="P3" s="74"/>
+      <c r="Q3" s="74"/>
+      <c r="R3" s="74"/>
+      <c r="S3" s="74"/>
+      <c r="T3" s="74"/>
+      <c r="U3" s="74"/>
+      <c r="V3" s="74"/>
+      <c r="W3" s="74"/>
+      <c r="X3" s="74"/>
+      <c r="Y3" s="74"/>
+      <c r="Z3" s="74"/>
+      <c r="AA3" s="74"/>
     </row>
     <row r="4" spans="4:36" ht="22" customHeight="1">
-      <c r="D4" s="67" t="s">
+      <c r="D4" s="73" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="68"/>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
-      <c r="M4" s="68"/>
-      <c r="N4" s="68"/>
-      <c r="O4" s="68"/>
-      <c r="P4" s="68"/>
-      <c r="Q4" s="68"/>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="74"/>
+      <c r="I4" s="74"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="74"/>
+      <c r="L4" s="74"/>
+      <c r="M4" s="74"/>
+      <c r="N4" s="74"/>
+      <c r="O4" s="74"/>
+      <c r="P4" s="74"/>
+      <c r="Q4" s="74"/>
+      <c r="R4" s="74"/>
+      <c r="S4" s="74"/>
+      <c r="T4" s="74"/>
+      <c r="U4" s="74"/>
+      <c r="V4" s="74"/>
+      <c r="W4" s="74"/>
+      <c r="X4" s="74"/>
+      <c r="Y4" s="74"/>
+      <c r="Z4" s="74"/>
+      <c r="AA4" s="74"/>
     </row>
     <row r="5" spans="4:36" ht="22" customHeight="1">
       <c r="D5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4"/>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="73"/>
+      <c r="G5" s="79"/>
       <c r="H5" s="5" t="s">
         <v>6</v>
       </c>
@@ -10762,153 +11626,153 @@
       <c r="O5" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="P5" s="77" t="s">
+      <c r="P5" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="78"/>
-      <c r="T5" s="78"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
-      <c r="W5" s="78"/>
-      <c r="X5" s="78"/>
-      <c r="Y5" s="78"/>
-      <c r="Z5" s="78"/>
-      <c r="AA5" s="79"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="85"/>
     </row>
     <row r="6" spans="4:36" ht="22" customHeight="1">
-      <c r="D6" s="67" t="s">
+      <c r="D6" s="73" t="s">
         <v>19</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="67" t="s">
+      <c r="E6" s="74"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="74"/>
+      <c r="H6" s="74"/>
+      <c r="I6" s="74"/>
+      <c r="J6" s="74"/>
+      <c r="K6" s="74"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="Q6" s="68"/>
-      <c r="R6" s="68"/>
-      <c r="S6" s="68"/>
-      <c r="T6" s="68"/>
-      <c r="U6" s="68"/>
-      <c r="V6" s="68"/>
-      <c r="W6" s="68"/>
-      <c r="X6" s="68"/>
-      <c r="Y6" s="68"/>
-      <c r="Z6" s="68"/>
-      <c r="AA6" s="68"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
     </row>
     <row r="7" spans="4:36" ht="22" customHeight="1">
-      <c r="D7" s="69" t="s">
+      <c r="D7" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="O7" s="70"/>
-      <c r="P7" s="70"/>
-      <c r="Q7" s="70"/>
-      <c r="R7" s="70"/>
-      <c r="S7" s="70"/>
-      <c r="T7" s="70"/>
-      <c r="U7" s="70"/>
-      <c r="V7" s="71"/>
-      <c r="W7" s="69" t="s">
+      <c r="E7" s="76"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="O7" s="76"/>
+      <c r="P7" s="76"/>
+      <c r="Q7" s="76"/>
+      <c r="R7" s="76"/>
+      <c r="S7" s="76"/>
+      <c r="T7" s="76"/>
+      <c r="U7" s="76"/>
+      <c r="V7" s="77"/>
+      <c r="W7" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="X7" s="72"/>
-      <c r="Y7" s="72"/>
-      <c r="Z7" s="72"/>
-      <c r="AA7" s="73"/>
+      <c r="X7" s="78"/>
+      <c r="Y7" s="78"/>
+      <c r="Z7" s="78"/>
+      <c r="AA7" s="79"/>
     </row>
     <row r="10" spans="4:36" ht="22" customHeight="1">
-      <c r="N10" s="69" t="s">
+      <c r="N10" s="75" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="70"/>
-      <c r="P10" s="71"/>
-      <c r="Q10" s="74" t="s">
+      <c r="O10" s="76"/>
+      <c r="P10" s="77"/>
+      <c r="Q10" s="80" t="s">
         <v>3</v>
       </c>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="76"/>
+      <c r="R10" s="81"/>
+      <c r="S10" s="81"/>
+      <c r="T10" s="81"/>
+      <c r="U10" s="81"/>
+      <c r="V10" s="81"/>
+      <c r="W10" s="81"/>
+      <c r="X10" s="82"/>
     </row>
     <row r="11" spans="4:36" ht="22" customHeight="1">
       <c r="N11" s="1"/>
       <c r="X11" s="2"/>
     </row>
     <row r="12" spans="4:36" ht="22" customHeight="1">
-      <c r="K12" s="64" t="s">
+      <c r="K12" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="L12" s="65"/>
-      <c r="M12" s="66"/>
-      <c r="N12" s="74" t="s">
+      <c r="L12" s="71"/>
+      <c r="M12" s="72"/>
+      <c r="N12" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="O12" s="75"/>
-      <c r="P12" s="75"/>
-      <c r="Q12" s="75"/>
-      <c r="R12" s="75"/>
-      <c r="S12" s="75"/>
-      <c r="T12" s="75"/>
-      <c r="U12" s="75"/>
-      <c r="V12" s="75"/>
-      <c r="W12" s="75"/>
-      <c r="X12" s="76"/>
+      <c r="O12" s="81"/>
+      <c r="P12" s="81"/>
+      <c r="Q12" s="81"/>
+      <c r="R12" s="81"/>
+      <c r="S12" s="81"/>
+      <c r="T12" s="81"/>
+      <c r="U12" s="81"/>
+      <c r="V12" s="81"/>
+      <c r="W12" s="81"/>
+      <c r="X12" s="82"/>
     </row>
     <row r="14" spans="4:36" ht="22" customHeight="1">
-      <c r="AD14" s="82" t="s">
+      <c r="AD14" s="69" t="s">
         <v>88</v>
       </c>
-      <c r="AE14" s="82"/>
-      <c r="AF14" s="82"/>
-      <c r="AG14" s="80"/>
-      <c r="AH14" s="84" t="s">
+      <c r="AE14" s="69"/>
+      <c r="AF14" s="69"/>
+      <c r="AG14" s="19"/>
+      <c r="AH14" s="68" t="s">
         <v>92</v>
       </c>
-      <c r="AI14" s="84"/>
-      <c r="AJ14" s="84"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="68"/>
     </row>
     <row r="15" spans="4:36" ht="22" customHeight="1">
-      <c r="AD15" s="83" t="s">
+      <c r="AD15" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="AE15" s="83" t="s">
+      <c r="AE15" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AF15" s="83" t="s">
+      <c r="AF15" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AG15" s="80"/>
-      <c r="AH15" s="85" t="s">
+      <c r="AG15" s="19"/>
+      <c r="AH15" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="AI15" s="85" t="s">
+      <c r="AI15" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AJ15" s="85" t="s">
+      <c r="AJ15" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -10922,7 +11786,7 @@
       <c r="AF16" s="16">
         <v>0</v>
       </c>
-      <c r="AG16" s="80"/>
+      <c r="AG16" s="19"/>
       <c r="AH16" s="16" t="s">
         <v>89</v>
       </c>
@@ -10943,7 +11807,7 @@
       <c r="AF17" s="16">
         <v>0</v>
       </c>
-      <c r="AG17" s="80"/>
+      <c r="AG17" s="19"/>
       <c r="AH17" s="16" t="s">
         <v>90</v>
       </c>
@@ -10955,45 +11819,45 @@
       </c>
     </row>
     <row r="18" spans="30:36" ht="22" customHeight="1">
-      <c r="AD18" s="80"/>
-      <c r="AE18" s="80"/>
-      <c r="AF18" s="80"/>
-      <c r="AG18" s="80"/>
-      <c r="AH18" s="80"/>
-      <c r="AI18" s="80"/>
-      <c r="AJ18" s="80"/>
+      <c r="AD18" s="19"/>
+      <c r="AE18" s="19"/>
+      <c r="AF18" s="19"/>
+      <c r="AG18" s="19"/>
+      <c r="AH18" s="19"/>
+      <c r="AI18" s="19"/>
+      <c r="AJ18" s="19"/>
     </row>
     <row r="19" spans="30:36" ht="22" customHeight="1">
-      <c r="AD19" s="82" t="s">
+      <c r="AD19" s="69" t="s">
         <v>96</v>
       </c>
-      <c r="AE19" s="82"/>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="80"/>
-      <c r="AH19" s="82" t="s">
+      <c r="AE19" s="69"/>
+      <c r="AF19" s="69"/>
+      <c r="AG19" s="19"/>
+      <c r="AH19" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="AI19" s="82"/>
-      <c r="AJ19" s="82"/>
+      <c r="AI19" s="69"/>
+      <c r="AJ19" s="69"/>
     </row>
     <row r="20" spans="30:36" ht="22" customHeight="1">
-      <c r="AD20" s="83" t="s">
+      <c r="AD20" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AE20" s="83" t="s">
+      <c r="AE20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AF20" s="83" t="s">
+      <c r="AF20" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="AG20" s="80"/>
-      <c r="AH20" s="83" t="s">
+      <c r="AG20" s="19"/>
+      <c r="AH20" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AI20" s="83" t="s">
+      <c r="AI20" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AJ20" s="83" t="s">
+      <c r="AJ20" s="20" t="s">
         <v>87</v>
       </c>
     </row>
@@ -11007,7 +11871,7 @@
       <c r="AF21" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="AG21" s="80"/>
+      <c r="AG21" s="19"/>
       <c r="AH21" s="16" t="s">
         <v>89</v>
       </c>
@@ -11028,7 +11892,7 @@
       <c r="AF22" s="16">
         <v>1</v>
       </c>
-      <c r="AG22" s="80"/>
+      <c r="AG22" s="19"/>
       <c r="AH22" s="16" t="s">
         <v>90</v>
       </c>
@@ -11040,45 +11904,45 @@
       </c>
     </row>
     <row r="23" spans="30:36" ht="22" customHeight="1">
-      <c r="AD23" s="80"/>
-      <c r="AE23" s="80"/>
-      <c r="AF23" s="80"/>
-      <c r="AG23" s="80"/>
-      <c r="AH23" s="80"/>
-      <c r="AI23" s="80"/>
-      <c r="AJ23" s="80"/>
+      <c r="AD23" s="19"/>
+      <c r="AE23" s="19"/>
+      <c r="AF23" s="19"/>
+      <c r="AG23" s="19"/>
+      <c r="AH23" s="19"/>
+      <c r="AI23" s="19"/>
+      <c r="AJ23" s="19"/>
     </row>
     <row r="24" spans="30:36" ht="22" customHeight="1">
-      <c r="AD24" s="84" t="s">
+      <c r="AD24" s="68" t="s">
         <v>108</v>
       </c>
-      <c r="AE24" s="84"/>
-      <c r="AF24" s="84"/>
-      <c r="AG24" s="80"/>
-      <c r="AH24" s="84" t="s">
+      <c r="AE24" s="68"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="19"/>
+      <c r="AH24" s="68" t="s">
         <v>109</v>
       </c>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="84"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="68"/>
     </row>
     <row r="25" spans="30:36" ht="22" customHeight="1">
-      <c r="AD25" s="85" t="s">
+      <c r="AD25" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" s="85" t="s">
+      <c r="AE25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AF25" s="85" t="s">
+      <c r="AF25" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AG25" s="80"/>
-      <c r="AH25" s="85" t="s">
+      <c r="AG25" s="19"/>
+      <c r="AH25" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AI25" s="85" t="s">
+      <c r="AI25" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AJ25" s="85" t="s">
+      <c r="AJ25" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -11092,7 +11956,7 @@
       <c r="AF26" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AG26" s="80"/>
+      <c r="AG26" s="19"/>
       <c r="AH26" s="16" t="s">
         <v>89</v>
       </c>
@@ -11113,7 +11977,7 @@
       <c r="AF27" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AG27" s="80"/>
+      <c r="AG27" s="19"/>
       <c r="AH27" s="16" t="s">
         <v>90</v>
       </c>
@@ -11134,34 +11998,34 @@
       <c r="AJ28" s="7"/>
     </row>
     <row r="29" spans="30:36" ht="22" customHeight="1">
-      <c r="AD29" s="84" t="s">
+      <c r="AD29" s="68" t="s">
         <v>110</v>
       </c>
-      <c r="AE29" s="84"/>
-      <c r="AF29" s="84"/>
-      <c r="AH29" s="84" t="s">
+      <c r="AE29" s="68"/>
+      <c r="AF29" s="68"/>
+      <c r="AH29" s="68" t="s">
         <v>111</v>
       </c>
-      <c r="AI29" s="84"/>
-      <c r="AJ29" s="84"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="68"/>
     </row>
     <row r="30" spans="30:36" ht="22" customHeight="1">
-      <c r="AD30" s="85" t="s">
+      <c r="AD30" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AE30" s="85" t="s">
+      <c r="AE30" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AF30" s="85" t="s">
+      <c r="AF30" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="AH30" s="85" t="s">
+      <c r="AH30" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="AI30" s="85" t="s">
+      <c r="AI30" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="AJ30" s="85" t="s">
+      <c r="AJ30" s="21" t="s">
         <v>87</v>
       </c>
     </row>
@@ -11206,24 +12070,24 @@
       </c>
     </row>
     <row r="35" spans="30:33" ht="22" customHeight="1">
-      <c r="AD35" s="82" t="s">
+      <c r="AD35" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="AE35" s="82"/>
-      <c r="AF35" s="82"/>
-      <c r="AG35" s="82"/>
+      <c r="AE35" s="69"/>
+      <c r="AF35" s="69"/>
+      <c r="AG35" s="69"/>
     </row>
     <row r="36" spans="30:33" ht="22" customHeight="1">
-      <c r="AD36" s="83" t="s">
+      <c r="AD36" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="AE36" s="83" t="s">
+      <c r="AE36" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="AF36" s="82" t="s">
+      <c r="AF36" s="69" t="s">
         <v>87</v>
       </c>
-      <c r="AG36" s="82"/>
+      <c r="AG36" s="69"/>
     </row>
     <row r="37" spans="30:33" ht="22" customHeight="1">
       <c r="AD37" s="16" t="s">
@@ -11232,10 +12096,10 @@
       <c r="AE37" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="AF37" s="81" t="s">
+      <c r="AF37" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="AG37" s="81"/>
+      <c r="AG37" s="67"/>
     </row>
     <row r="38" spans="30:33" ht="22" customHeight="1">
       <c r="AD38" s="16" t="s">
@@ -11244,25 +12108,13 @@
       <c r="AE38" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="AF38" s="81" t="s">
+      <c r="AF38" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="AG38" s="81"/>
+      <c r="AG38" s="67"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AD29:AF29"/>
-    <mergeCell ref="AH29:AJ29"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AD35:AG35"/>
-    <mergeCell ref="AD14:AF14"/>
-    <mergeCell ref="AH14:AJ14"/>
-    <mergeCell ref="AD19:AF19"/>
-    <mergeCell ref="AH19:AJ19"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="AH24:AJ24"/>
     <mergeCell ref="K12:M12"/>
     <mergeCell ref="D2:O2"/>
     <mergeCell ref="P2:AA2"/>
@@ -11277,6 +12129,18 @@
     <mergeCell ref="D4:AA4"/>
     <mergeCell ref="D3:AA3"/>
     <mergeCell ref="N10:P10"/>
+    <mergeCell ref="AD14:AF14"/>
+    <mergeCell ref="AH14:AJ14"/>
+    <mergeCell ref="AD19:AF19"/>
+    <mergeCell ref="AH19:AJ19"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="AH24:AJ24"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AD29:AF29"/>
+    <mergeCell ref="AH29:AJ29"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AD35:AG35"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11285,37 +12149,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <pixelatorList sheetStid="3"/>
+  <pixelatorList sheetStid="7"/>
+</pixelators>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <allowEditUser xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <rangeList sheetStid="3" master=""/>
   <rangeList sheetStid="7" master=""/>
 </allowEditUser>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<pixelators xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <pixelatorList sheetStid="3"/>
-  <pixelatorList sheetStid="7"/>
-</pixelators>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
-  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
-</sheetInterline>
-</file>
-
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
-<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
-<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <listFile/>
-</mergeFile>
-</file>
-
-<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
 <settings xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookSettings>
     <isFilterShared>1</isFilterShared>
@@ -11323,7 +12170,33 @@
 </settings>
 </file>
 
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<mergeFile xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <listFile/>
+</mergeFile>
+</file>
+
+<file path=customXml/item5.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
+<file path=customXml/item6.xml><?xml version="1.0" encoding="utf-8"?>
+<sheetInterline xmlns="https://web.wps.cn/et/2018/main" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <interlineItem sheetStid="3" interlineOnOff="0" interlineColor="0"/>
+  <interlineItem sheetStid="7" interlineOnOff="0" interlineColor="0"/>
+</sheetInterline>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A5607D9-04D2-4DE1-AC0E-A7772F01BC71}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -11332,17 +12205,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{224D003E-15C9-4FFE-AB16-9E66474EAE4E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
@@ -11351,6 +12215,15 @@
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06A0048C-2381-489B-AA07-9611017176EA}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
@@ -11359,17 +12232,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps5.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC3875BF-13D6-4817-9B69-0B22B651B2C7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps6.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9F91F69C-6E8C-4246-BC25-297BFDC75D90}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3F8FC9E7-9E3E-4D00-BC07-C2C84DFACBCF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="https://web.wps.cn/et/2018/main"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
